--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -927,7 +927,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -1633,11 +1633,11 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>299777</v>
+        <v>305065</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>09/2024</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1678,11 +1678,11 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>300289</v>
+        <v>305527</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>09/2024</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>305065</v>
+        <v>305643</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>305527</v>
+        <v>305708</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>305643</v>
+        <v>306718</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>305708</v>
+        <v>306789</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>306718</v>
+        <v>306815</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>306789</v>
+        <v>307165</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>306815</v>
+        <v>307347</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>307165</v>
+        <v>307643</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>307347</v>
+        <v>304185</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mara </t>
+          <t xml:space="preserve">Arthur </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>307643</v>
+        <v>302320</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mara </t>
+          <t xml:space="preserve">Arthur </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>304185</v>
+        <v>304044</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -2218,11 +2218,11 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>297837</v>
+        <v>304830</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>09/2024</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -2263,11 +2263,11 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>300757</v>
+        <v>306045</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>09/2024</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>302320</v>
+        <v>306070</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>304044</v>
+        <v>307007</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>304830</v>
+        <v>307035</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arthur </t>
+          <t xml:space="preserve">Higor </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>306045</v>
+        <v>304318</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arthur </t>
+          <t>Luan</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>306070</v>
+        <v>304059</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arthur </t>
+          <t>Luan</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2533,7 +2533,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>307007</v>
+        <v>306592</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2559,35 +2559,35 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arthur </t>
+          <t xml:space="preserve">Mara </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Semana 02</t>
+          <t>Semana 03</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>21/10/2024</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>25/10/2024</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>307035</v>
+        <v>307938</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>25/10/2024</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2604,35 +2604,35 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arthur </t>
+          <t xml:space="preserve">Mara </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Semana 02</t>
+          <t>Semana 03</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>21/10/2024</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>25/10/2024</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>302089</v>
+        <v>307965</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>25/10/2024</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2649,40 +2649,40 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Higor </t>
+          <t xml:space="preserve">Mara </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Semana 02</t>
+          <t>Semana 03</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>21/10/2024</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>25/10/2024</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>300191</v>
+        <v>308059</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>25/10/2024</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -2694,40 +2694,40 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Higor </t>
+          <t xml:space="preserve">Mara </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Semana 02</t>
+          <t>Semana 03</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>21/10/2024</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>25/10/2024</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>304318</v>
+        <v>308167</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>25/10/2024</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -2739,40 +2739,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Kleberson</t>
+          <t xml:space="preserve">Mara </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Semana 02</t>
+          <t>Semana 03</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>21/10/2024</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>25/10/2024</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>295673</v>
+        <v>309240</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>25/10/2024</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -2784,40 +2784,40 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Luan</t>
+          <t xml:space="preserve">Mara </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Semana 02</t>
+          <t>Semana 03</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>21/10/2024</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>25/10/2024</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>304059</v>
+        <v>309566</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>25/10/2024</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -2829,40 +2829,40 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Luan</t>
+          <t xml:space="preserve">Mara </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Semana 02</t>
+          <t>Semana 03</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>21/10/2024</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>25/10/2024</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>306592</v>
+        <v>309586</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>25/10/2024</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mara </t>
+          <t xml:space="preserve">Arthur </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2893,11 +2893,11 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>300289</v>
+        <v>309329</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mara </t>
+          <t xml:space="preserve">Higor </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2938,11 +2938,11 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>306789</v>
+        <v>307910</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mara </t>
+          <t xml:space="preserve">Higor </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2983,11 +2983,11 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>306815</v>
+        <v>308379</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mara </t>
+          <t xml:space="preserve">Higor </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3028,11 +3028,11 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>307643</v>
+        <v>309812</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mara </t>
+          <t>Luan</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3073,11 +3073,11 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>304185</v>
+        <v>309745</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -3104,21 +3104,21 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>307938</v>
+        <v>300177</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3127,12 +3127,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -3149,21 +3149,21 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>307965</v>
+        <v>310180</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3194,21 +3194,21 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>308059</v>
+        <v>310181</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3217,12 +3217,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -3239,21 +3239,21 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>308167</v>
+        <v>310184</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3284,21 +3284,21 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>309240</v>
+        <v>310582</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3329,21 +3329,21 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>309566</v>
+        <v>311617</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3352,12 +3352,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -3369,26 +3369,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mara </t>
+          <t xml:space="preserve">Arthur </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>309586</v>
+        <v>309820</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3397,12 +3397,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -3419,30 +3419,30 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>297837</v>
+        <v>310302</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3464,30 +3464,30 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>300757</v>
+        <v>310428</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3509,30 +3509,30 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>302320</v>
+        <v>310713</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>306045</v>
+        <v>311030</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3599,30 +3599,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>306070</v>
+        <v>311389</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3639,35 +3639,35 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arthur </t>
+          <t xml:space="preserve">Higor </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>302089</v>
+        <v>310603</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3684,26 +3684,26 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arthur </t>
+          <t xml:space="preserve">Higor </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>309329</v>
+        <v>311397</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3712,12 +3712,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -3734,1608 +3734,33 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>300191</v>
+        <v>311451</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>07/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Higor </t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Semana 03</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>21/10/2024</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>25/10/2024</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>307910</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>25/10/2024</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Higor </t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Semana 03</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>21/10/2024</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>25/10/2024</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>308379</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>25/10/2024</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Higor </t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Semana 03</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>21/10/2024</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>25/10/2024</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>309812</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>25/10/2024</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Resolvido</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Luan</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Semana 03</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>21/10/2024</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>25/10/2024</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>304059</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>09/2024</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>25/10/2024</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Resolvido</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Luan</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Semana 03</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>21/10/2024</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>25/10/2024</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>306592</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>09/2024</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>25/10/2024</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Resolvido</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Luan</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Semana 03</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>21/10/2024</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>25/10/2024</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>309745</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>25/10/2024</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Resolvido</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mara </t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>300289</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>08/2024</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mara </t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>304185</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>09/2024</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mara </t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>307965</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mara </t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>308167</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mara </t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>309240</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mara </t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>300177</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mara </t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>310180</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mara </t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>310181</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mara </t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>310184</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mara </t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>310582</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mara </t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>311617</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthur </t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>297837</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>07/2024</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthur </t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>300757</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>08/2024</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthur </t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>302320</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>09/2024</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthur </t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>306045</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>09/2024</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthur </t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>306070</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>09/2024</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthur </t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>302089</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>08/2024</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthur </t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>309820</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthur </t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>310302</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthur </t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>310428</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthur </t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>310713</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthur </t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>311030</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthur </t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>311389</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Higor </t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>300191</v>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>07/2024</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Higor </t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>307910</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Higor </t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>308379</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Higor </t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>310603</v>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Higor </t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>311397</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>SPN</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Higor </t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>311451</v>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
         <is>
           <t>Pendente</t>
         </is>
@@ -5352,7 +3777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5448,7 +3873,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -5493,7 +3918,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -5538,7 +3963,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -5583,7 +4008,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -5628,7 +4053,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -5718,7 +4143,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -5763,7 +4188,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -5808,7 +4233,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -5839,11 +4264,11 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>301630</v>
+        <v>306031</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>09/2024</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -5853,7 +4278,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -5884,11 +4309,11 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>303042</v>
+        <v>306627</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>09/2024</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -5929,11 +4354,11 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>303197</v>
+        <v>307076</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>09/2024</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -5943,7 +4368,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -5974,11 +4399,11 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>303940</v>
+        <v>307430</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>09/2024</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -6000,7 +4425,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antônio </t>
+          <t xml:space="preserve">Jorgenaldo </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -6019,11 +4444,11 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>306031</v>
+        <v>279106</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>01/2024</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -6045,7 +4470,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antônio </t>
+          <t xml:space="preserve">Jorgenaldo </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -6064,7 +4489,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>306627</v>
+        <v>304250</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -6078,7 +4503,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -6090,7 +4515,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antônio </t>
+          <t xml:space="preserve">Jorgenaldo </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -6109,7 +4534,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>307076</v>
+        <v>304971</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -6135,7 +4560,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antônio </t>
+          <t xml:space="preserve">Jorgenaldo </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -6154,7 +4579,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>307430</v>
+        <v>306580</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -6168,7 +4593,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -6180,7 +4605,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Felipe </t>
+          <t>Edson</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6199,11 +4624,11 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>303363</v>
+        <v>304022</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>09/2024</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -6225,7 +4650,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jorgenaldo </t>
+          <t>Edson</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6244,11 +4669,11 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>279106</v>
+        <v>304824</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>01/2024</t>
+          <t>09/2024</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -6258,7 +4683,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
     </row>
@@ -6270,7 +4695,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jorgenaldo </t>
+          <t>Barbin</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6289,11 +4714,11 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>302085</v>
+        <v>304423</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>09/2024</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -6315,7 +4740,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jorgenaldo </t>
+          <t>Gustavo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6334,11 +4759,11 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>302167</v>
+        <v>307304</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>09/2024</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -6360,35 +4785,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jorgenaldo </t>
+          <t xml:space="preserve">Antônio </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Semana 02</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>304250</v>
+        <v>308775</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -6405,35 +4830,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jorgenaldo </t>
+          <t xml:space="preserve">Antônio </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Semana 02</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>304971</v>
+        <v>308780</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -6450,35 +4875,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jorgenaldo </t>
+          <t xml:space="preserve">Antônio </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Semana 02</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>306580</v>
+        <v>309926</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6495,35 +4920,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erick </t>
+          <t xml:space="preserve">Antônio </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Semana 02</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>303394</v>
+        <v>310001</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6540,35 +4965,35 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gabriel </t>
+          <t xml:space="preserve">Felipe </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Semana 02</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>300735</v>
+        <v>311029</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -6585,35 +5010,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Edson</t>
+          <t xml:space="preserve">Felipe </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Semana 02</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>304022</v>
+        <v>311181</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6630,35 +5055,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Edson</t>
+          <t xml:space="preserve">Felipe </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Semana 02</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>304824</v>
+        <v>311246</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -6675,35 +5100,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Barbin</t>
+          <t xml:space="preserve">Felipe </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Semana 02</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>304423</v>
+        <v>311348</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -6720,35 +5145,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Gustavo</t>
+          <t xml:space="preserve">Felipe </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Semana 02</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>307304</v>
+        <v>311521</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>18/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -6765,40 +5190,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antônio </t>
+          <t xml:space="preserve">Felipe </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>301630</v>
+        <v>311720</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -6810,40 +5235,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antônio </t>
+          <t xml:space="preserve">Jorgenaldo </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>303042</v>
+        <v>308688</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -6855,40 +5280,40 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antônio </t>
+          <t xml:space="preserve">Jorgenaldo </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>303197</v>
+        <v>310940</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -6900,40 +5325,40 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antônio </t>
+          <t xml:space="preserve">Jorgenaldo </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>303940</v>
+        <v>311558</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -6945,40 +5370,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antônio </t>
+          <t xml:space="preserve">Jorgenaldo </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>306031</v>
+        <v>311590</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -6990,35 +5415,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antônio </t>
+          <t>Felipe</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>306627</v>
+        <v>309538</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -7035,40 +5460,40 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antônio </t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>307076</v>
+        <v>306760</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -7080,35 +5505,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antônio </t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>307430</v>
+        <v>310145</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -7125,40 +5550,40 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Felipe </t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>303363</v>
+        <v>310798</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -7170,35 +5595,35 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jorgenaldo </t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>279106</v>
+        <v>310854</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>01/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -7215,35 +5640,35 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jorgenaldo </t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>302085</v>
+        <v>311045</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -7260,40 +5685,40 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jorgenaldo </t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>302167</v>
+        <v>311449</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -7305,40 +5730,40 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jorgenaldo </t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>304250</v>
+        <v>311556</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -7350,35 +5775,35 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jorgenaldo </t>
+          <t>Alana</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>304971</v>
+        <v>311595</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -7395,40 +5820,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jorgenaldo </t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>306580</v>
+        <v>310775</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -7440,40 +5865,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erick </t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>303394</v>
+        <v>310787</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -7485,40 +5910,40 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gabriel </t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>300735</v>
+        <v>310788</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -7530,35 +5955,35 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Edson</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>304022</v>
+        <v>310791</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -7575,40 +6000,40 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Edson</t>
+          <t>Lourival</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>304824</v>
+        <v>310845</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Resolvido</t>
+          <t>Pendente</t>
         </is>
       </c>
     </row>
@@ -7620,35 +6045,35 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Barbin</t>
+          <t>Erick</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>304423</v>
+        <v>311310</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -7665,35 +6090,35 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Gustavo</t>
+          <t>Erick</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Semana 03</t>
+          <t>Semana 04</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>21/10/2024</t>
+          <t>28/10/2024</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>307304</v>
+        <v>311353</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>25/10/2024</t>
+          <t>01/11/2024</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -7710,7 +6135,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antônio </t>
+          <t>Erick</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -7729,11 +6154,11 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>306627</v>
+        <v>311612</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -7755,7 +6180,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antônio </t>
+          <t>Erick</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -7774,11 +6199,11 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>307430</v>
+        <v>311775</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -7800,7 +6225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antônio </t>
+          <t>Erick</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -7819,7 +6244,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>308775</v>
+        <v>311862</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -7845,7 +6270,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antônio </t>
+          <t>Erick</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -7864,7 +6289,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>308780</v>
+        <v>311863</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -7890,7 +6315,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antônio </t>
+          <t>Erick</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -7909,7 +6334,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>309926</v>
+        <v>311864</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -7935,7 +6360,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antônio </t>
+          <t>Erick</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7954,7 +6379,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>310001</v>
+        <v>311869</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -7967,1716 +6392,6 @@
         </is>
       </c>
       <c r="I58" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Felipe </t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>311029</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Felipe </t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>311181</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Felipe </t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>311246</v>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Felipe </t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>311348</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Felipe </t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>311521</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Felipe </t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>311720</v>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jorgenaldo </t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>279106</v>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>01/2024</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jorgenaldo </t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>302085</v>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>08/2024</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jorgenaldo </t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>304971</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>09/2024</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jorgenaldo </t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>308688</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jorgenaldo </t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>310940</v>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jorgenaldo </t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>311558</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jorgenaldo </t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>311590</v>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Felipe</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>309538</v>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Edson</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>304022</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>09/2024</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Barbin</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>304423</v>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>09/2024</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Gustavo</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>307304</v>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>09/2024</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Alana</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>306760</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Alana</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>310145</v>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Alana</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>310798</v>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Alana</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>310854</v>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Alana</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>311045</v>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Alana</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>311449</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Alana</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>311556</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Alana</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>311595</v>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Patrick</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>310775</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>310787</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>310788</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>310791</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Lourival</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>310845</v>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Erick</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>311310</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Erick</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>311353</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Erick</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>311612</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Erick</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>311775</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Erick</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>311862</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Erick</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>311863</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Erick</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>311864</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>ITI</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Erick</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>28/10/2024</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>311869</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>10/2024</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>01/11/2024</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
         <is>
           <t>Pendente</t>
         </is>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -2877,7 +2877,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4131,6 +4131,906 @@
         </is>
       </c>
       <c r="J74" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Arthur Hassuma</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>311929</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Arthur Hassuma</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>312013</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>311739</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>312016</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>311949</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>311631</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>312091</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>312270</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>311999</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>312102</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>310177</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>311976</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>311931</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>312328</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>312070</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>311542</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>311912</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Luan Pierry</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>312295</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
         <is>
           <t>Willian Jones</t>
         </is>
@@ -4147,7 +5047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5098,7 +5998,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -5198,7 +6098,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -5298,7 +6198,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -5448,7 +6348,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -5498,7 +6398,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -5948,7 +6848,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -6748,7 +7648,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -6848,7 +7748,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -6898,7 +7798,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -6948,7 +7848,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -6998,7 +7898,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -7048,10 +7948,1510 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Antônio Lucas</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>312138</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Antônio Lucas</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>312079</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>Pendente</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Antônio Lucas</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>312404</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Antônio Lucas</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>312412</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Diogo Barbin</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>311958</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>312133</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>311971</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>311710</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>311914</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>312345</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>311986</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>312036</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>312038</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>311387</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>312286</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>311153</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>312332</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>312137</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>312514</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>312444</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Gustavo Linpiski</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>312219</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>312246</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>312443</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>312592</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>312422</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Gustavo Linpiski</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>312282</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Gustavo Linpiski</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>312494</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>312117</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>310066</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Semana 05</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>312159</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>Emerson Simette</t>
         </is>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5077,7 +5077,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5281,6 +5281,306 @@
         </is>
       </c>
       <c r="J97" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>313940</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>313783</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Luan Pierry</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>313418</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Luan Pierry</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>313445</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Luan Pierry</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>312588</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>314470</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
         <is>
           <t>Willian Jones</t>
         </is>
@@ -5297,7 +5597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6548,7 +6848,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -6848,7 +7148,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -6898,7 +7198,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -7248,7 +7548,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -8298,7 +8598,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -8348,7 +8648,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -8398,7 +8698,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -9598,7 +9898,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -9648,7 +9948,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -9715,7 +10015,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Maria Eduarda</t>
+          <t>Alana Neris</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -9734,7 +10034,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>313035</v>
+        <v>313118</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -9765,7 +10065,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Maria Eduarda</t>
+          <t>Antônio Lucas</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -9784,7 +10084,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>313305</v>
+        <v>313468</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -9798,7 +10098,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -9815,7 +10115,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Jose Acevedo</t>
+          <t>Antônio Lucas</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -9834,11 +10134,11 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>311949</v>
+        <v>313274</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>10/2024</t>
+          <t>11/2024</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -9865,7 +10165,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Jose Acevedo</t>
+          <t>Antônio Lucas</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -9884,7 +10184,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>313036</v>
+        <v>313394</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -9898,7 +10198,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -9915,7 +10215,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Jose Acevedo</t>
+          <t>Antônio Lucas</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -9934,7 +10234,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>312807</v>
+        <v>313183</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -9965,7 +10265,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Jose Acevedo</t>
+          <t>Antônio Lucas</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -9984,11 +10284,11 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>312016</v>
+        <v>312682</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>10/2024</t>
+          <t>11/2024</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -9998,7 +10298,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -10015,7 +10315,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Gabriel Lopez</t>
+          <t>Erick Silva</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -10034,7 +10334,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>312831</v>
+        <v>313182</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -10084,7 +10384,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>313182</v>
+        <v>313260</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -10098,7 +10398,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -10115,7 +10415,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Erick Silva</t>
+          <t>Gabriel Lopez</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -10134,7 +10434,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>313260</v>
+        <v>312831</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -10165,7 +10465,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Antônio Lucas</t>
+          <t>Jose Acevedo</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -10184,11 +10484,11 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>313468</v>
+        <v>311949</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>11/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -10215,7 +10515,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Antônio Lucas</t>
+          <t>Jose Acevedo</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -10234,7 +10534,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>313274</v>
+        <v>313036</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -10265,7 +10565,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Antônio Lucas</t>
+          <t>Jose Acevedo</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -10284,7 +10584,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>313394</v>
+        <v>312807</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -10315,7 +10615,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Antônio Lucas</t>
+          <t>Jose Acevedo</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -10334,11 +10634,11 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>313183</v>
+        <v>312016</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>11/2024</t>
+          <t>10/2024</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -10365,7 +10665,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Antônio Lucas</t>
+          <t>Maria Eduarda</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -10384,7 +10684,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>312682</v>
+        <v>313035</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -10415,43 +10715,843 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>Maria Eduarda</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Semana 06</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>15/11/2024</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>313305</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
           <t>Alana Neris</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>15/11/2024</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>313118</v>
-      </c>
-      <c r="G103" t="inlineStr">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>313428</v>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>11/2024</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>11/11/2024</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t>Pendente</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Antônio Lucas</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>314312</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Antônio Lucas</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>314549</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Antônio Lucas</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>313576</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Antônio Lucas</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>313795</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Antônio Lucas</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>314001</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Antônio Lucas</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>314393</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Edson Campos</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>313462</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>314118</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>313385</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>313998</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Gustavo Linpiski</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>314346</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Gustavo Linpiski</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>314519</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Jose Acevedo</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>314131</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>313979</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Semana 07</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>314726</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
         <is>
           <t>Emerson Simette</t>
         </is>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -4227,7 +4227,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -6348,7 +6348,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -6798,7 +6798,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -7298,7 +7298,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -7348,7 +7348,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -7448,7 +7448,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -7598,7 +7598,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -7698,7 +7698,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -7898,7 +7898,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -8098,7 +8098,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -8748,7 +8748,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -9065,7 +9065,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Erick Silva</t>
+          <t>Antônio Lucas</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -9798,7 +9798,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -9998,7 +9998,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -10048,7 +10048,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -10148,7 +10148,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -10248,7 +10248,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -10498,7 +10498,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -10598,7 +10598,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -10698,7 +10698,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -10748,7 +10748,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -10798,7 +10798,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -10848,7 +10848,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -10898,7 +10898,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -10948,7 +10948,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -10998,7 +10998,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -11298,7 +11298,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -11348,7 +11348,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -11398,7 +11398,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -11448,7 +11448,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -11498,7 +11498,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,10 +497,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -547,10 +545,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -597,10 +593,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -647,10 +641,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -697,10 +689,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -747,10 +737,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -797,10 +785,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -847,10 +833,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C9" t="n">
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -897,10 +881,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C10" t="n">
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -947,10 +929,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C11" t="n">
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -997,10 +977,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C12" t="n">
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1047,10 +1025,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C13" t="n">
+        <v>1</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1097,10 +1073,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C14" t="n">
+        <v>1</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1147,10 +1121,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C15" t="n">
+        <v>1</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1197,10 +1169,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C16" t="n">
+        <v>1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1247,10 +1217,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C17" t="n">
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1297,10 +1265,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C18" t="n">
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1347,10 +1313,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C19" t="n">
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1397,10 +1361,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C20" t="n">
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1447,10 +1409,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C21" t="n">
+        <v>1</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1497,10 +1457,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C22" t="n">
+        <v>1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1547,10 +1505,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C23" t="n">
+        <v>1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1597,10 +1553,8 @@
           <t>Higor Cruz</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C24" t="n">
+        <v>1</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1647,10 +1601,8 @@
           <t>Higor Cruz</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C25" t="n">
+        <v>1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1697,10 +1649,8 @@
           <t>Kleberson Mathias</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C26" t="n">
+        <v>1</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1747,10 +1697,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C27" t="n">
+        <v>2</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1797,10 +1745,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C28" t="n">
+        <v>2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1847,10 +1793,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C29" t="n">
+        <v>2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1897,10 +1841,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C30" t="n">
+        <v>2</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1947,10 +1889,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C31" t="n">
+        <v>2</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1997,10 +1937,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C32" t="n">
+        <v>2</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2047,10 +1985,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C33" t="n">
+        <v>2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2097,10 +2033,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C34" t="n">
+        <v>2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2147,10 +2081,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C35" t="n">
+        <v>2</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2197,10 +2129,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C36" t="n">
+        <v>2</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2247,10 +2177,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C37" t="n">
+        <v>2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2297,10 +2225,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C38" t="n">
+        <v>2</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2347,10 +2273,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C39" t="n">
+        <v>2</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2397,10 +2321,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C40" t="n">
+        <v>2</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2447,10 +2369,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C41" t="n">
+        <v>2</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2497,10 +2417,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C42" t="n">
+        <v>2</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2547,10 +2465,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C43" t="n">
+        <v>2</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2597,10 +2513,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C44" t="n">
+        <v>2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2647,10 +2561,8 @@
           <t>Higor Cruz</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C45" t="n">
+        <v>2</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2697,10 +2609,8 @@
           <t>Luan Pierry</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C46" t="n">
+        <v>2</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2747,10 +2657,8 @@
           <t>Luan Pierry</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C47" t="n">
+        <v>2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2797,10 +2705,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Semana 03</t>
-        </is>
+      <c r="C48" t="n">
+        <v>3</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2847,10 +2753,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Semana 03</t>
-        </is>
+      <c r="C49" t="n">
+        <v>3</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2897,10 +2801,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Semana 03</t>
-        </is>
+      <c r="C50" t="n">
+        <v>3</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2947,10 +2849,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Semana 03</t>
-        </is>
+      <c r="C51" t="n">
+        <v>3</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2997,10 +2897,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Semana 03</t>
-        </is>
+      <c r="C52" t="n">
+        <v>3</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3047,10 +2945,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Semana 03</t>
-        </is>
+      <c r="C53" t="n">
+        <v>3</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3097,10 +2993,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Semana 03</t>
-        </is>
+      <c r="C54" t="n">
+        <v>3</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3147,10 +3041,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Semana 03</t>
-        </is>
+      <c r="C55" t="n">
+        <v>3</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3197,10 +3089,8 @@
           <t>Higor Cruz</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Semana 03</t>
-        </is>
+      <c r="C56" t="n">
+        <v>3</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3247,10 +3137,8 @@
           <t>Higor Cruz</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Semana 03</t>
-        </is>
+      <c r="C57" t="n">
+        <v>3</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3297,10 +3185,8 @@
           <t>Higor Cruz</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Semana 03</t>
-        </is>
+      <c r="C58" t="n">
+        <v>3</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3347,10 +3233,8 @@
           <t>Luan Pierry</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Semana 03</t>
-        </is>
+      <c r="C59" t="n">
+        <v>3</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3397,10 +3281,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C60" t="n">
+        <v>4</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -3447,10 +3329,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C61" t="n">
+        <v>4</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -3497,10 +3377,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C62" t="n">
+        <v>4</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -3547,10 +3425,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C63" t="n">
+        <v>4</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -3597,10 +3473,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C64" t="n">
+        <v>4</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -3647,10 +3521,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C65" t="n">
+        <v>4</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -3697,10 +3569,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C66" t="n">
+        <v>4</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -3747,10 +3617,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C67" t="n">
+        <v>4</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -3797,10 +3665,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C68" t="n">
+        <v>4</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -3847,10 +3713,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C69" t="n">
+        <v>4</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -3897,10 +3761,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C70" t="n">
+        <v>4</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -3947,10 +3809,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C71" t="n">
+        <v>4</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -3997,10 +3857,8 @@
           <t>Higor Cruz</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C72" t="n">
+        <v>4</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4047,10 +3905,8 @@
           <t>Higor Cruz</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C73" t="n">
+        <v>4</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4097,10 +3953,8 @@
           <t>Higor Cruz</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C74" t="n">
+        <v>4</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4147,10 +4001,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C75" t="n">
+        <v>5</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4197,10 +4049,8 @@
           <t>Arthur Hassuma</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C76" t="n">
+        <v>5</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4247,10 +4097,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C77" t="n">
+        <v>5</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4297,10 +4145,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C78" t="n">
+        <v>5</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -4347,10 +4193,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C79" t="n">
+        <v>5</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -4397,10 +4241,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C80" t="n">
+        <v>5</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -4447,10 +4289,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C81" t="n">
+        <v>5</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -4497,10 +4337,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C82" t="n">
+        <v>5</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -4547,10 +4385,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C83" t="n">
+        <v>5</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -4597,10 +4433,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C84" t="n">
+        <v>5</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -4627,7 +4461,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4647,10 +4481,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C85" t="n">
+        <v>5</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -4677,7 +4509,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4697,10 +4529,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C86" t="n">
+        <v>5</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -4747,10 +4577,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C87" t="n">
+        <v>5</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -4797,10 +4625,8 @@
           <t>Higor Cruz</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C88" t="n">
+        <v>5</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -4847,10 +4673,8 @@
           <t>Higor Cruz</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C89" t="n">
+        <v>5</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -4897,10 +4721,8 @@
           <t>Higor Cruz</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C90" t="n">
+        <v>5</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -4947,10 +4769,8 @@
           <t>Higor Cruz</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C91" t="n">
+        <v>5</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -4997,10 +4817,8 @@
           <t>Luan Pierry</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C92" t="n">
+        <v>5</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5047,10 +4865,8 @@
           <t>Higor Cruz</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C93" t="n">
+        <v>6</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5097,10 +4913,8 @@
           <t>Luan Pierry</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C94" t="n">
+        <v>6</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5147,10 +4961,8 @@
           <t>Luan Pierry</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C95" t="n">
+        <v>6</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -5197,10 +5009,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C96" t="n">
+        <v>6</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -5247,10 +5057,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C97" t="n">
+        <v>6</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -5277,7 +5085,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5297,10 +5105,8 @@
           <t>Higor Cruz</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C98" t="n">
+        <v>7</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -5347,10 +5153,8 @@
           <t>Higor Cruz</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C99" t="n">
+        <v>7</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -5397,10 +5201,8 @@
           <t>Luan Pierry</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C100" t="n">
+        <v>7</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -5447,10 +5249,8 @@
           <t>Luan Pierry</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C101" t="n">
+        <v>7</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -5497,10 +5297,8 @@
           <t>Luan Pierry</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C102" t="n">
+        <v>7</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -5547,10 +5345,8 @@
           <t>Mara Neves</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C103" t="n">
+        <v>7</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -5581,6 +5377,198 @@
         </is>
       </c>
       <c r="J103" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Luan Pierry</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>8</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>314388</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Luan Pierry</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>8</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>314393</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>8</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>314391</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>8</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>314477</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
         <is>
           <t>Willian Jones</t>
         </is>
@@ -5597,7 +5585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5668,10 +5656,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -5718,10 +5704,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -5768,10 +5752,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -5818,10 +5800,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -5868,10 +5848,8 @@
           <t>Felipe Nascimento</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -5918,10 +5896,8 @@
           <t>Jorgenaldo Reis</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -5968,10 +5944,8 @@
           <t>Jorgenaldo Reis</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -6018,10 +5992,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C9" t="n">
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -6068,10 +6040,8 @@
           <t>Gabriel Lopez</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Semana 01</t>
-        </is>
+      <c r="C10" t="n">
+        <v>1</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -6118,10 +6088,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C11" t="n">
+        <v>2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -6168,10 +6136,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C12" t="n">
+        <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -6218,10 +6184,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C13" t="n">
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -6268,10 +6232,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C14" t="n">
+        <v>2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -6318,10 +6280,8 @@
           <t>Jorgenaldo Reis</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C15" t="n">
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -6368,10 +6328,8 @@
           <t>Jorgenaldo Reis</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C16" t="n">
+        <v>2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -6418,10 +6376,8 @@
           <t>Jorgenaldo Reis</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C17" t="n">
+        <v>2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -6468,10 +6424,8 @@
           <t>Jorgenaldo Reis</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C18" t="n">
+        <v>2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -6518,10 +6472,8 @@
           <t>Edson Campos</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C19" t="n">
+        <v>2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -6568,10 +6520,8 @@
           <t>Edson Campos</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C20" t="n">
+        <v>2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -6618,10 +6568,8 @@
           <t>Diogo Barbin</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C21" t="n">
+        <v>2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -6668,10 +6616,8 @@
           <t>Gustavo Linpiski</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Semana 02</t>
-        </is>
+      <c r="C22" t="n">
+        <v>2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -6718,10 +6664,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C23" t="n">
+        <v>4</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -6768,10 +6712,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C24" t="n">
+        <v>4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -6818,10 +6760,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C25" t="n">
+        <v>4</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -6868,10 +6808,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C26" t="n">
+        <v>4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -6918,10 +6856,8 @@
           <t xml:space="preserve">Felipe Nascimento </t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C27" t="n">
+        <v>4</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -6968,10 +6904,8 @@
           <t xml:space="preserve">Felipe Nascimento </t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C28" t="n">
+        <v>4</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -7018,10 +6952,8 @@
           <t xml:space="preserve">Felipe Nascimento </t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C29" t="n">
+        <v>4</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -7068,10 +7000,8 @@
           <t xml:space="preserve">Felipe Nascimento </t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C30" t="n">
+        <v>4</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -7118,10 +7048,8 @@
           <t xml:space="preserve">Felipe Nascimento </t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C31" t="n">
+        <v>4</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -7168,10 +7096,8 @@
           <t xml:space="preserve">Felipe Nascimento </t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C32" t="n">
+        <v>4</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -7218,10 +7144,8 @@
           <t>Jorgenaldo Reis</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C33" t="n">
+        <v>4</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -7268,10 +7192,8 @@
           <t>Jorgenaldo Reis</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C34" t="n">
+        <v>4</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -7318,10 +7240,8 @@
           <t>Jorgenaldo Reis</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C35" t="n">
+        <v>4</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -7368,10 +7288,8 @@
           <t>Jorgenaldo Reis</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C36" t="n">
+        <v>4</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -7418,10 +7336,8 @@
           <t xml:space="preserve">Felipe Nascimento </t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C37" t="n">
+        <v>4</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -7468,10 +7384,8 @@
           <t>Alana Neris</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C38" t="n">
+        <v>4</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -7518,10 +7432,8 @@
           <t>Alana Neris</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C39" t="n">
+        <v>4</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -7568,10 +7480,8 @@
           <t>Alana Neris</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C40" t="n">
+        <v>4</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -7618,10 +7528,8 @@
           <t>Alana Neris</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C41" t="n">
+        <v>4</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -7668,10 +7576,8 @@
           <t>Alana Neris</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C42" t="n">
+        <v>4</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -7718,10 +7624,8 @@
           <t>Alana Neris</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C43" t="n">
+        <v>4</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -7768,10 +7672,8 @@
           <t>Alana Neris</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C44" t="n">
+        <v>4</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -7818,10 +7720,8 @@
           <t>Alana Neris</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C45" t="n">
+        <v>4</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -7868,10 +7768,8 @@
           <t>Patrick Doyle</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C46" t="n">
+        <v>4</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -7918,10 +7816,8 @@
           <t>Gabriel Lopez</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C47" t="n">
+        <v>4</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -7968,10 +7864,8 @@
           <t>Gabriel Lopez</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C48" t="n">
+        <v>4</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -8018,10 +7912,8 @@
           <t>Gabriel Lopez</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C49" t="n">
+        <v>4</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -8068,10 +7960,8 @@
           <t>Lourival Moizés</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C50" t="n">
+        <v>4</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -8118,10 +8008,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C51" t="n">
+        <v>4</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -8168,10 +8056,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C52" t="n">
+        <v>4</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -8218,10 +8104,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C53" t="n">
+        <v>4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -8268,10 +8152,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C54" t="n">
+        <v>4</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -8318,10 +8200,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C55" t="n">
+        <v>4</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -8368,10 +8248,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C56" t="n">
+        <v>4</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -8418,10 +8296,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C57" t="n">
+        <v>4</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -8468,10 +8344,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Semana 04</t>
-        </is>
+      <c r="C58" t="n">
+        <v>4</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -8518,10 +8392,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C59" t="n">
+        <v>5</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -8568,10 +8440,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C60" t="n">
+        <v>5</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -8618,10 +8488,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C61" t="n">
+        <v>5</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -8668,10 +8536,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C62" t="n">
+        <v>5</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -8718,10 +8584,8 @@
           <t>Diogo Barbin</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C63" t="n">
+        <v>5</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -8768,10 +8632,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C64" t="n">
+        <v>5</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -8818,10 +8680,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C65" t="n">
+        <v>5</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -8868,10 +8728,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C66" t="n">
+        <v>5</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -8918,10 +8776,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C67" t="n">
+        <v>5</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8968,10 +8824,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C68" t="n">
+        <v>5</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -9018,10 +8872,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C69" t="n">
+        <v>5</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -9068,10 +8920,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C70" t="n">
+        <v>5</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -9118,10 +8968,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C71" t="n">
+        <v>5</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -9168,10 +9016,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C72" t="n">
+        <v>5</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -9218,10 +9064,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C73" t="n">
+        <v>5</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -9268,10 +9112,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C74" t="n">
+        <v>5</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -9318,10 +9160,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C75" t="n">
+        <v>5</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -9368,10 +9208,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C76" t="n">
+        <v>5</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -9418,10 +9256,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C77" t="n">
+        <v>5</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -9468,10 +9304,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C78" t="n">
+        <v>5</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -9518,10 +9352,8 @@
           <t>Gustavo Linpiski</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C79" t="n">
+        <v>5</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -9568,10 +9400,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C80" t="n">
+        <v>5</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9618,10 +9448,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C81" t="n">
+        <v>5</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9668,10 +9496,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C82" t="n">
+        <v>5</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9718,10 +9544,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C83" t="n">
+        <v>5</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9768,10 +9592,8 @@
           <t>Gustavo Linpiski</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C84" t="n">
+        <v>5</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9818,10 +9640,8 @@
           <t>Gustavo Linpiski</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C85" t="n">
+        <v>5</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9868,10 +9688,8 @@
           <t>Lourival Moizés</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C86" t="n">
+        <v>5</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9918,10 +9736,8 @@
           <t>Lourival Moizés</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C87" t="n">
+        <v>5</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9968,10 +9784,8 @@
           <t>Lourival Moizés</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Semana 05</t>
-        </is>
+      <c r="C88" t="n">
+        <v>5</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -10018,10 +9832,8 @@
           <t>Alana Neris</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C89" t="n">
+        <v>6</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -10068,10 +9880,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C90" t="n">
+        <v>6</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10118,10 +9928,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C91" t="n">
+        <v>6</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10168,10 +9976,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C92" t="n">
+        <v>6</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10218,10 +10024,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C93" t="n">
+        <v>6</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10268,10 +10072,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C94" t="n">
+        <v>6</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10318,10 +10120,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C95" t="n">
+        <v>6</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10368,10 +10168,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C96" t="n">
+        <v>6</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10418,10 +10216,8 @@
           <t>Gabriel Lopez</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C97" t="n">
+        <v>6</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -10448,7 +10244,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -10468,10 +10264,8 @@
           <t>Jose Acevedo</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C98" t="n">
+        <v>6</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -10518,10 +10312,8 @@
           <t>Jose Acevedo</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C99" t="n">
+        <v>6</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -10568,10 +10360,8 @@
           <t>Jose Acevedo</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C100" t="n">
+        <v>6</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10618,10 +10408,8 @@
           <t>Jose Acevedo</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C101" t="n">
+        <v>6</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10668,10 +10456,8 @@
           <t>Maria Eduarda</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C102" t="n">
+        <v>6</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10718,10 +10504,8 @@
           <t>Maria Eduarda</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Semana 06</t>
-        </is>
+      <c r="C103" t="n">
+        <v>6</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10768,10 +10552,8 @@
           <t>Alana Neris</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C104" t="n">
+        <v>7</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10818,10 +10600,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C105" t="n">
+        <v>7</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10868,10 +10648,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C106" t="n">
+        <v>7</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10918,10 +10696,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C107" t="n">
+        <v>7</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10968,10 +10744,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C108" t="n">
+        <v>7</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -11018,10 +10792,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C109" t="n">
+        <v>7</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -11068,10 +10840,8 @@
           <t>Antônio Lucas</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C110" t="n">
+        <v>7</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -11118,10 +10888,8 @@
           <t>Edson Campos</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C111" t="n">
+        <v>7</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -11168,10 +10936,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C112" t="n">
+        <v>7</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -11218,10 +10984,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C113" t="n">
+        <v>7</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -11268,10 +11032,8 @@
           <t>Erick Silva</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C114" t="n">
+        <v>7</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11318,10 +11080,8 @@
           <t>Gustavo Linpiski</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C115" t="n">
+        <v>7</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11368,10 +11128,8 @@
           <t>Gustavo Linpiski</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C116" t="n">
+        <v>7</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11418,10 +11176,8 @@
           <t>Jose Acevedo</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C117" t="n">
+        <v>7</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11468,10 +11224,8 @@
           <t>Lourival Moizés</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C118" t="n">
+        <v>7</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11518,10 +11272,8 @@
           <t>Lourival Moizés</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Semana 07</t>
-        </is>
+      <c r="C119" t="n">
+        <v>7</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11552,6 +11304,726 @@
         </is>
       </c>
       <c r="J119" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Alana Neris</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>8</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>314538</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Alana Neris</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>8</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>314672</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Alana Neris</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>8</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>314203</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Edson Campos</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>8</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>314870</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>8</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>314979</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>8</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>314822</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>8</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>314457</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>8</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>314990</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>8</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>314360</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Gabriel Lopez</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>8</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>315005</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Gustavo Linpiski</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>8</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>315068</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>8</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>314994</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>8</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>314872</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>8</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>314607</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Jose Acevedo</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>8</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>313038</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>25/11/2024</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
         <is>
           <t>Emerson Simette</t>
         </is>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5569,6 +5569,342 @@
         </is>
       </c>
       <c r="J107" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Arthur Hassuma</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>9</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>314457</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Arthur Hassuma</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>9</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>315282</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Arthur Hassuma</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>9</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>315511</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Arthur Hassuma</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>9</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>315663</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>9</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>315374</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Luan Pierry</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>9</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>315638</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Luan Pierry</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>9</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>315817</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
         <is>
           <t>Willian Jones</t>
         </is>
@@ -5585,7 +5921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11492,7 +11828,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -11780,7 +12116,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -12024,6 +12360,1158 @@
         </is>
       </c>
       <c r="J134" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>9</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>315595</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>9</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>315683</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>9</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>315754</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Gustavo Linpiski</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>9</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>315377</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Gustavo Linpiski</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>9</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>315966</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>9</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>315952</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>9</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>316151</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>9</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>315807</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>9</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>316110</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Jose Acevedo</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>9</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>06/12/2024</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>315183</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>02/12/2024</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Alana Neris</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>10</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>316702</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>12/2024</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Alana Neris</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>10</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>316765</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>12/2024</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Alana Neris</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>10</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>316993</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>12/2024</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Edson Campos</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>10</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>315916</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Edson Campos</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>10</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>315812</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>10</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>316732</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>12/2024</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>10</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>316626</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>12/2024</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>10</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>316501</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>12/2024</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Gabriel Lopez</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>10</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>316114</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Jacyr Popenda</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>10</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>316940</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>12/2024</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>10</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>315817</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Jose Acevedo</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>10</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>316763</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>12/2024</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>10</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>315310</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>10</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>315758</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>09/12/2024</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
         <is>
           <t>Emerson Simette</t>
         </is>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -5921,7 +5921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J158"/>
+  <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12644,7 +12644,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -12836,7 +12836,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -12884,7 +12884,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -12932,7 +12932,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -12980,7 +12980,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -13028,7 +13028,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -13076,7 +13076,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -13124,7 +13124,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -13316,7 +13316,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -13460,7 +13460,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -13508,10 +13508,298 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Edson Campos</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>11</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>20/12/2024</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>317575</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>12/2024</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
           <t>Pendente</t>
         </is>
       </c>
-      <c r="J158" t="inlineStr">
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Erick Silva</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>11</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>20/12/2024</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>317634</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>12/2024</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Felipe Nascimento</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>11</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>20/12/2024</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>317296</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>12/2024</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>11</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>20/12/2024</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>317591</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>12/2024</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>11</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>20/12/2024</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>317713</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>12/2024</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>11</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>20/12/2024</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>317888</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>12/2024</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>16/12/2024</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
         <is>
           <t>Emerson Simette</t>
         </is>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -864,7 +864,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -741,6 +741,159 @@
         </is>
       </c>
       <c r="K6" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arthur Hassuma</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>17/01/2025</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>319857</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Denis da Silva</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>17/01/2025</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>319602</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17/01/2025</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>320063</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Willian Jones</t>
         </is>
@@ -757,7 +910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1128,6 +1281,312 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alana Neris</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>17/01/2025</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>319843</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17/01/2025</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>319926</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>17/01/2025</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>319863</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>17/01/2025</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>319910</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>17/01/2025</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>320231</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gabriel López</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>17/01/2025</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>319898</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>13/01/2025</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -894,6 +894,210 @@
         </is>
       </c>
       <c r="K9" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>320403</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>320607</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Luan Pierry</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>320215</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nadir Baseggio</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>319786</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Willian Jones</t>
         </is>
@@ -910,7 +1114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1587,6 +1791,1026 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Alana Neris</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>320974</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Simette</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>320245</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>320780</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>320854</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>313182</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>320964</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>320990</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>321158</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Felipe Nascimento</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>320312</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>320458</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>320546</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>320776</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>320861</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>320895</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>320916</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>320941</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>320942</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>320991</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>321068</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Michel Pessoa</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>24/01/2025</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>320583</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>20/01/2025</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1098,6 +1098,108 @@
         </is>
       </c>
       <c r="K13" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Arthur Hassuma</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>31/01/2025</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>321476</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>31/01/2025</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>321694</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Willian Jones</t>
         </is>
@@ -1114,7 +1216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,6 +2913,261 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>31/01/2025</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>321500</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>31/01/2025</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>321963</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>31/01/2025</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>321861</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>31/01/2025</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>321648</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Michel Pessoa</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>31/01/2025</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>321596</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>27/01/2025</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,6 +1200,465 @@
         </is>
       </c>
       <c r="K15" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>322731</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>322526</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>321751</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>321760</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Arthur Hassuma</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>322877</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Luan Pierry</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>322586</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Luan Pierry</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>322053</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>322696</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>322164</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Willian Jones</t>
         </is>
@@ -1216,7 +1675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3168,6 +3627,567 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>322346</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>321835</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>322897</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>322991</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>322655</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Jose Acevedo</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>322167</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>322927</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>322759</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>322764</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>322804</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>07/02/2025</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>321811</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1655,10 +1655,418 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>323835</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>02/2025</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>Pendente</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>323518</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>02/2025</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>322776</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>02/2025</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>322970</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>02/2025</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Luan Pierry</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>323566</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>02/2025</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ivonei Feiler</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>323716</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>02/2025</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Ivonei Feiler</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>323717</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>02/2025</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Willian Jones</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Kleberson Mathias</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>323112</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>02/2025</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Willian Jones</t>
         </is>
@@ -1675,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3669,7 +4077,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3771,7 +4179,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3788,7 +4196,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Guilherme Worel</t>
+          <t>Jorgenaldo Reis</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -3808,7 +4216,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>322991</v>
+        <v>322655</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -3822,7 +4230,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3839,7 +4247,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Jorgenaldo Reis</t>
+          <t>Jose Acevedo</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -3859,7 +4267,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>322655</v>
+        <v>322167</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -3890,7 +4298,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Jose Acevedo</t>
+          <t>Erick da Silva</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -3910,7 +4318,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>322167</v>
+        <v>322927</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -3924,7 +4332,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3961,7 +4369,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>322927</v>
+        <v>322759</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -3975,7 +4383,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -4012,7 +4420,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>322759</v>
+        <v>322764</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -4063,7 +4471,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>322764</v>
+        <v>322804</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4077,7 +4485,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4094,27 +4502,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Erick da Silva</t>
+          <t>Edson Campos</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>2025</v>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>03/02/2025</t>
+          <t>10/02/2025</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>07/02/2025</t>
+          <t>14/02/2025</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>322804</v>
+        <v>322946</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4123,7 +4531,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>03/02/2025</t>
+          <t>10/02/2025</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4145,44 +4553,452 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>Felipe Nascimento</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>323235</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>02/2025</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>323204</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>01/2025</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D51" t="n">
+        <v>6</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>323802</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>02/2025</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>Lourival Moizés</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D49" t="n">
-        <v>5</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>03/02/2025</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>07/02/2025</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>321811</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>01/2025</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>03/02/2025</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="C52" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D52" t="n">
+        <v>6</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>323062</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>02/2025</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>Pendente</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>323208</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>02/2025</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>322945</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>02/2025</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D55" t="n">
+        <v>6</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>323224</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>02/2025</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>323501</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>02/2025</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>14/02/2025</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>323513</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>02/2025</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>10/02/2025</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>Emerson Simette</t>
         </is>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="60">
   <si>
     <t>Setor</t>
   </si>
@@ -95,6 +95,9 @@
     <t>10/02/2025</t>
   </si>
   <si>
+    <t>24/02/2025</t>
+  </si>
+  <si>
     <t>10/01/2025</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
     <t>14/02/2025</t>
   </si>
   <si>
+    <t>28/02/2025</t>
+  </si>
+  <si>
     <t>12/2024</t>
   </si>
   <si>
@@ -167,13 +173,25 @@
     <t>Edson Campos</t>
   </si>
   <si>
+    <t>Emily Fabiano</t>
+  </si>
+  <si>
     <t>17/02/2025</t>
   </si>
   <si>
+    <t>03/03/2025</t>
+  </si>
+  <si>
     <t>21/02/2025</t>
   </si>
   <si>
+    <t>07/03/2025</t>
+  </si>
+  <si>
     <t>11/2024</t>
+  </si>
+  <si>
+    <t>03/2025</t>
   </si>
   <si>
     <t>Emerson Simette</t>
@@ -534,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,22 +610,22 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2">
         <v>319336</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -627,22 +645,22 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>319567</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -662,22 +680,22 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4">
         <v>318959</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -697,22 +715,22 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>319462</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -732,22 +750,22 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>319177</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -767,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>319857</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -802,22 +820,22 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>319602</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -837,22 +855,22 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>320063</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -872,22 +890,22 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10">
         <v>320403</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -907,22 +925,22 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>320607</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -942,22 +960,22 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>320215</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -977,22 +995,22 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13">
         <v>319786</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1012,22 +1030,22 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14">
         <v>321476</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1047,22 +1065,22 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15">
         <v>321694</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
         <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1082,22 +1100,22 @@
         <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>322731</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1117,22 +1135,22 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>322526</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
         <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1152,22 +1170,22 @@
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>321751</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
         <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1187,22 +1205,22 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19">
         <v>321760</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I19" t="s">
         <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1222,22 +1240,22 @@
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>322877</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I20" t="s">
         <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1257,22 +1275,22 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>322586</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
         <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1292,22 +1310,22 @@
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>322053</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I22" t="s">
         <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1327,22 +1345,22 @@
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>322696</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s">
         <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1362,22 +1380,22 @@
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>322164</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I24" t="s">
         <v>24</v>
       </c>
       <c r="J24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1397,22 +1415,22 @@
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>323835</v>
       </c>
       <c r="H25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s">
         <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1432,22 +1450,22 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>323518</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1467,22 +1485,22 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27">
         <v>322776</v>
       </c>
       <c r="H27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I27" t="s">
         <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1502,22 +1520,22 @@
         <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>322970</v>
       </c>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I28" t="s">
         <v>25</v>
       </c>
       <c r="J28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1537,22 +1555,22 @@
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29">
         <v>323566</v>
       </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I29" t="s">
         <v>25</v>
       </c>
       <c r="J29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1572,22 +1590,22 @@
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30">
         <v>323716</v>
       </c>
       <c r="H30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I30" t="s">
         <v>25</v>
       </c>
       <c r="J30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1607,22 +1625,22 @@
         <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G31">
         <v>323717</v>
       </c>
       <c r="H31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I31" t="s">
         <v>25</v>
       </c>
       <c r="J31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1642,22 +1660,162 @@
         <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>323112</v>
       </c>
       <c r="H32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I32" t="s">
         <v>25</v>
       </c>
       <c r="J32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K32" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>2025</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33">
+        <v>324474</v>
+      </c>
+      <c r="H33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>2025</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <v>324885</v>
+      </c>
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>2025</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35">
+        <v>324818</v>
+      </c>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>2025</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>325086</v>
+      </c>
+      <c r="H36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1667,7 +1825,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1710,10 +1868,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>2025</v>
@@ -1725,30 +1883,30 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2">
         <v>317296</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>2025</v>
@@ -1760,30 +1918,30 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>318826</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>2025</v>
@@ -1795,30 +1953,30 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4">
         <v>319181</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>2025</v>
@@ -1830,30 +1988,30 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>319390</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>2025</v>
@@ -1865,30 +2023,30 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6">
         <v>316763</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>2025</v>
@@ -1900,30 +2058,30 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>315817</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>2025</v>
@@ -1935,30 +2093,30 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>319843</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>2025</v>
@@ -1970,30 +2128,30 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>319926</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>2025</v>
@@ -2005,30 +2163,30 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>319863</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>2025</v>
@@ -2040,30 +2198,30 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>319910</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>2025</v>
@@ -2075,30 +2233,30 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>320231</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C13">
         <v>2025</v>
@@ -2110,30 +2268,30 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G13">
         <v>319898</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s">
         <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>2025</v>
@@ -2145,30 +2303,30 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G14">
         <v>320974</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>2025</v>
@@ -2180,30 +2338,30 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G15">
         <v>320245</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
         <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>2025</v>
@@ -2215,30 +2373,30 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16">
         <v>320780</v>
       </c>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I16" t="s">
         <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17">
         <v>2025</v>
@@ -2250,30 +2408,30 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17">
         <v>320854</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18">
         <v>2025</v>
@@ -2285,30 +2443,30 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>313182</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>2025</v>
@@ -2320,30 +2478,30 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>320964</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I19" t="s">
         <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>2025</v>
@@ -2355,30 +2513,30 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G20">
         <v>320990</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I20" t="s">
         <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>2025</v>
@@ -2390,30 +2548,30 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G21">
         <v>321158</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
         <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K21" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>2025</v>
@@ -2425,30 +2583,30 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>320312</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I22" t="s">
         <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C23">
         <v>2025</v>
@@ -2460,30 +2618,30 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G23">
         <v>320458</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>2025</v>
@@ -2495,30 +2653,30 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G24">
         <v>320546</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>2025</v>
@@ -2530,30 +2688,30 @@
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G25">
         <v>320776</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I25" t="s">
         <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>2025</v>
@@ -2565,30 +2723,30 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G26">
         <v>320861</v>
       </c>
       <c r="H26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I26" t="s">
         <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>2025</v>
@@ -2600,30 +2758,30 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G27">
         <v>320895</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I27" t="s">
         <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>2025</v>
@@ -2635,30 +2793,30 @@
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>320916</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I28" t="s">
         <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>2025</v>
@@ -2670,30 +2828,30 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>320941</v>
       </c>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>2025</v>
@@ -2705,30 +2863,30 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G30">
         <v>320942</v>
       </c>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K30" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C31">
         <v>2025</v>
@@ -2740,30 +2898,30 @@
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G31">
         <v>320991</v>
       </c>
       <c r="H31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I31" t="s">
         <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C32">
         <v>2025</v>
@@ -2775,30 +2933,30 @@
         <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G32">
         <v>321068</v>
       </c>
       <c r="H32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K32" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <v>2025</v>
@@ -2810,30 +2968,30 @@
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <v>320583</v>
       </c>
       <c r="H33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I33" t="s">
         <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <v>2025</v>
@@ -2845,30 +3003,30 @@
         <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>321500</v>
       </c>
       <c r="H34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I34" t="s">
         <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C35">
         <v>2025</v>
@@ -2880,30 +3038,30 @@
         <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35">
         <v>321963</v>
       </c>
       <c r="H35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I35" t="s">
         <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K35" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C36">
         <v>2025</v>
@@ -2915,30 +3073,30 @@
         <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G36">
         <v>321861</v>
       </c>
       <c r="H36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I36" t="s">
         <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>2025</v>
@@ -2950,30 +3108,30 @@
         <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G37">
         <v>321648</v>
       </c>
       <c r="H37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I37" t="s">
         <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K37" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C38">
         <v>2025</v>
@@ -2985,30 +3143,30 @@
         <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38">
         <v>321596</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I38" t="s">
         <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K38" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C39">
         <v>2025</v>
@@ -3020,30 +3178,30 @@
         <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39">
         <v>322346</v>
       </c>
       <c r="H39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I39" t="s">
         <v>24</v>
       </c>
       <c r="J39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K39" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C40">
         <v>2025</v>
@@ -3055,30 +3213,30 @@
         <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G40">
         <v>321835</v>
       </c>
       <c r="H40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I40" t="s">
         <v>24</v>
       </c>
       <c r="J40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K40" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C41">
         <v>2025</v>
@@ -3090,30 +3248,30 @@
         <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41">
         <v>322897</v>
       </c>
       <c r="H41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I41" t="s">
         <v>24</v>
       </c>
       <c r="J41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K41" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>2025</v>
@@ -3125,30 +3283,30 @@
         <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G42">
         <v>322655</v>
       </c>
       <c r="H42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I42" t="s">
         <v>24</v>
       </c>
       <c r="J42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K42" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <v>2025</v>
@@ -3160,30 +3318,30 @@
         <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>322167</v>
       </c>
       <c r="H43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I43" t="s">
         <v>24</v>
       </c>
       <c r="J43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K43" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>2025</v>
@@ -3195,30 +3353,30 @@
         <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44">
         <v>322927</v>
       </c>
       <c r="H44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I44" t="s">
         <v>24</v>
       </c>
       <c r="J44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K44" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C45">
         <v>2025</v>
@@ -3230,30 +3388,30 @@
         <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>322759</v>
       </c>
       <c r="H45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I45" t="s">
         <v>24</v>
       </c>
       <c r="J45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K45" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C46">
         <v>2025</v>
@@ -3265,30 +3423,30 @@
         <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46">
         <v>322764</v>
       </c>
       <c r="H46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I46" t="s">
         <v>24</v>
       </c>
       <c r="J46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K46" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C47">
         <v>2025</v>
@@ -3300,30 +3458,30 @@
         <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G47">
         <v>322804</v>
       </c>
       <c r="H47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I47" t="s">
         <v>24</v>
       </c>
       <c r="J47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K47" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C48">
         <v>2025</v>
@@ -3335,30 +3493,30 @@
         <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48">
         <v>322946</v>
       </c>
       <c r="H48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I48" t="s">
         <v>25</v>
       </c>
       <c r="J48" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K48" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C49">
         <v>2025</v>
@@ -3370,30 +3528,30 @@
         <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49">
         <v>323235</v>
       </c>
       <c r="H49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I49" t="s">
         <v>25</v>
       </c>
       <c r="J49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K49" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C50">
         <v>2025</v>
@@ -3405,30 +3563,30 @@
         <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>323204</v>
       </c>
       <c r="H50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I50" t="s">
         <v>25</v>
       </c>
       <c r="J50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K50" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C51">
         <v>2025</v>
@@ -3440,30 +3598,30 @@
         <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G51">
         <v>323802</v>
       </c>
       <c r="H51" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I51" t="s">
         <v>25</v>
       </c>
       <c r="J51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K51" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C52">
         <v>2025</v>
@@ -3475,30 +3633,30 @@
         <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G52">
         <v>323062</v>
       </c>
       <c r="H52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I52" t="s">
         <v>25</v>
       </c>
       <c r="J52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K52" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C53">
         <v>2025</v>
@@ -3510,30 +3668,30 @@
         <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G53">
         <v>323208</v>
       </c>
       <c r="H53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I53" t="s">
         <v>25</v>
       </c>
       <c r="J53" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K53" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C54">
         <v>2025</v>
@@ -3545,30 +3703,30 @@
         <v>25</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G54">
         <v>322945</v>
       </c>
       <c r="H54" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I54" t="s">
         <v>25</v>
       </c>
       <c r="J54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K54" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C55">
         <v>2025</v>
@@ -3580,30 +3738,30 @@
         <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G55">
         <v>323224</v>
       </c>
       <c r="H55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
       </c>
       <c r="J55" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K55" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C56">
         <v>2025</v>
@@ -3615,30 +3773,30 @@
         <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G56">
         <v>323501</v>
       </c>
       <c r="H56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
       </c>
       <c r="J56" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K56" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C57">
         <v>2025</v>
@@ -3650,30 +3808,30 @@
         <v>25</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G57">
         <v>323513</v>
       </c>
       <c r="H57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
       </c>
       <c r="J57" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K57" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C58">
         <v>2025</v>
@@ -3682,33 +3840,33 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F58" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G58">
         <v>323755</v>
       </c>
       <c r="H58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I58" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K58" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C59">
         <v>2025</v>
@@ -3717,33 +3875,33 @@
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F59" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G59">
         <v>324249</v>
       </c>
       <c r="H59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I59" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J59" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K59" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C60">
         <v>2025</v>
@@ -3752,33 +3910,33 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F60" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G60">
         <v>324374</v>
       </c>
       <c r="H60" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I60" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J60" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K60" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C61">
         <v>2025</v>
@@ -3787,33 +3945,33 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F61" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G61">
         <v>324412</v>
       </c>
       <c r="H61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I61" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J61" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K61" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C62">
         <v>2025</v>
@@ -3822,33 +3980,33 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F62" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G62">
         <v>324452</v>
       </c>
       <c r="H62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I62" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J62" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K62" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C63">
         <v>2025</v>
@@ -3857,33 +4015,33 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G63">
         <v>324454</v>
       </c>
       <c r="H63" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K63" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C64">
         <v>2025</v>
@@ -3892,33 +4050,33 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F64" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G64">
         <v>324470</v>
       </c>
       <c r="H64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I64" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J64" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K64" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C65">
         <v>2025</v>
@@ -3927,33 +4085,33 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F65" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G65">
         <v>324061</v>
       </c>
       <c r="H65" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I65" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K65" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C66">
         <v>2025</v>
@@ -3962,33 +4120,33 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F66" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G66">
         <v>324124</v>
       </c>
       <c r="H66" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I66" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K66" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C67">
         <v>2025</v>
@@ -3997,33 +4155,33 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F67" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G67">
         <v>324349</v>
       </c>
       <c r="H67" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I67" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J67" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K67" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C68">
         <v>2025</v>
@@ -4032,33 +4190,33 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F68" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G68">
         <v>324521</v>
       </c>
       <c r="H68" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I68" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J68" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K68" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C69">
         <v>2025</v>
@@ -4067,33 +4225,33 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F69" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G69">
         <v>324156</v>
       </c>
       <c r="H69" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I69" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J69" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K69" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C70">
         <v>2025</v>
@@ -4102,33 +4260,33 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F70" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G70">
         <v>323946</v>
       </c>
       <c r="H70" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I70" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J70" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K70" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C71">
         <v>2025</v>
@@ -4137,33 +4295,33 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F71" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G71">
         <v>324268</v>
       </c>
       <c r="H71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I71" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K71" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C72">
         <v>2025</v>
@@ -4172,33 +4330,33 @@
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F72" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G72">
         <v>324445</v>
       </c>
       <c r="H72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I72" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J72" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K72" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C73">
         <v>2025</v>
@@ -4207,33 +4365,33 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F73" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G73">
         <v>324433</v>
       </c>
       <c r="H73" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I73" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J73" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K73" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C74">
         <v>2025</v>
@@ -4242,33 +4400,33 @@
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F74" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G74">
         <v>324537</v>
       </c>
       <c r="H74" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I74" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J74" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K74" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C75">
         <v>2025</v>
@@ -4277,33 +4435,33 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F75" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G75">
         <v>323804</v>
       </c>
       <c r="H75" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I75" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J75" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K75" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C76">
         <v>2025</v>
@@ -4312,33 +4470,33 @@
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F76" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G76">
         <v>324568</v>
       </c>
       <c r="H76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I76" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J76" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K76" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C77">
         <v>2025</v>
@@ -4347,25 +4505,760 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G77">
         <v>324458</v>
       </c>
       <c r="H77" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I77" t="s">
+        <v>53</v>
+      </c>
+      <c r="J77" t="s">
+        <v>37</v>
+      </c>
+      <c r="K77" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" t="s">
         <v>50</v>
       </c>
-      <c r="J77" t="s">
-        <v>35</v>
-      </c>
-      <c r="K77" t="s">
-        <v>53</v>
+      <c r="C78">
+        <v>2025</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" t="s">
+        <v>33</v>
+      </c>
+      <c r="G78">
+        <v>325459</v>
+      </c>
+      <c r="H78" t="s">
+        <v>36</v>
+      </c>
+      <c r="I78" t="s">
+        <v>26</v>
+      </c>
+      <c r="J78" t="s">
+        <v>38</v>
+      </c>
+      <c r="K78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79">
+        <v>2025</v>
+      </c>
+      <c r="D79">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" t="s">
+        <v>33</v>
+      </c>
+      <c r="G79">
+        <v>325426</v>
+      </c>
+      <c r="H79" t="s">
+        <v>36</v>
+      </c>
+      <c r="I79" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" t="s">
+        <v>37</v>
+      </c>
+      <c r="K79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80">
+        <v>2025</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80">
+        <v>324979</v>
+      </c>
+      <c r="H80" t="s">
+        <v>36</v>
+      </c>
+      <c r="I80" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" t="s">
+        <v>38</v>
+      </c>
+      <c r="K80" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81">
+        <v>2025</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81">
+        <v>325038</v>
+      </c>
+      <c r="H81" t="s">
+        <v>36</v>
+      </c>
+      <c r="I81" t="s">
+        <v>26</v>
+      </c>
+      <c r="J81" t="s">
+        <v>38</v>
+      </c>
+      <c r="K81" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82">
+        <v>2025</v>
+      </c>
+      <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82">
+        <v>324872</v>
+      </c>
+      <c r="H82" t="s">
+        <v>36</v>
+      </c>
+      <c r="I82" t="s">
+        <v>26</v>
+      </c>
+      <c r="J82" t="s">
+        <v>38</v>
+      </c>
+      <c r="K82" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83">
+        <v>2025</v>
+      </c>
+      <c r="D83">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>54</v>
+      </c>
+      <c r="F83" t="s">
+        <v>56</v>
+      </c>
+      <c r="G83">
+        <v>325533</v>
+      </c>
+      <c r="H83" t="s">
+        <v>36</v>
+      </c>
+      <c r="I83" t="s">
+        <v>54</v>
+      </c>
+      <c r="J83" t="s">
+        <v>37</v>
+      </c>
+      <c r="K83" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84">
+        <v>2025</v>
+      </c>
+      <c r="D84">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84" t="s">
+        <v>56</v>
+      </c>
+      <c r="G84">
+        <v>326568</v>
+      </c>
+      <c r="H84" t="s">
+        <v>58</v>
+      </c>
+      <c r="I84" t="s">
+        <v>54</v>
+      </c>
+      <c r="J84" t="s">
+        <v>37</v>
+      </c>
+      <c r="K84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B85" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85">
+        <v>2025</v>
+      </c>
+      <c r="D85">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>54</v>
+      </c>
+      <c r="F85" t="s">
+        <v>56</v>
+      </c>
+      <c r="G85">
+        <v>326746</v>
+      </c>
+      <c r="H85" t="s">
+        <v>58</v>
+      </c>
+      <c r="I85" t="s">
+        <v>54</v>
+      </c>
+      <c r="J85" t="s">
+        <v>37</v>
+      </c>
+      <c r="K85" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86">
+        <v>2025</v>
+      </c>
+      <c r="D86">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>54</v>
+      </c>
+      <c r="F86" t="s">
+        <v>56</v>
+      </c>
+      <c r="G86">
+        <v>326421</v>
+      </c>
+      <c r="H86" t="s">
+        <v>58</v>
+      </c>
+      <c r="I86" t="s">
+        <v>54</v>
+      </c>
+      <c r="J86" t="s">
+        <v>37</v>
+      </c>
+      <c r="K86" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87">
+        <v>2025</v>
+      </c>
+      <c r="D87">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>54</v>
+      </c>
+      <c r="F87" t="s">
+        <v>56</v>
+      </c>
+      <c r="G87">
+        <v>326239</v>
+      </c>
+      <c r="H87" t="s">
+        <v>36</v>
+      </c>
+      <c r="I87" t="s">
+        <v>54</v>
+      </c>
+      <c r="J87" t="s">
+        <v>37</v>
+      </c>
+      <c r="K87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88">
+        <v>2025</v>
+      </c>
+      <c r="D88">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>54</v>
+      </c>
+      <c r="F88" t="s">
+        <v>56</v>
+      </c>
+      <c r="G88">
+        <v>325743</v>
+      </c>
+      <c r="H88" t="s">
+        <v>36</v>
+      </c>
+      <c r="I88" t="s">
+        <v>54</v>
+      </c>
+      <c r="J88" t="s">
+        <v>37</v>
+      </c>
+      <c r="K88" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89">
+        <v>2025</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>54</v>
+      </c>
+      <c r="F89" t="s">
+        <v>56</v>
+      </c>
+      <c r="G89">
+        <v>326190</v>
+      </c>
+      <c r="H89" t="s">
+        <v>36</v>
+      </c>
+      <c r="I89" t="s">
+        <v>54</v>
+      </c>
+      <c r="J89" t="s">
+        <v>37</v>
+      </c>
+      <c r="K89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90">
+        <v>2025</v>
+      </c>
+      <c r="D90">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>54</v>
+      </c>
+      <c r="F90" t="s">
+        <v>56</v>
+      </c>
+      <c r="G90">
+        <v>326324</v>
+      </c>
+      <c r="H90" t="s">
+        <v>36</v>
+      </c>
+      <c r="I90" t="s">
+        <v>54</v>
+      </c>
+      <c r="J90" t="s">
+        <v>37</v>
+      </c>
+      <c r="K90" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91">
+        <v>2025</v>
+      </c>
+      <c r="D91">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>54</v>
+      </c>
+      <c r="F91" t="s">
+        <v>56</v>
+      </c>
+      <c r="G91">
+        <v>325610</v>
+      </c>
+      <c r="H91" t="s">
+        <v>36</v>
+      </c>
+      <c r="I91" t="s">
+        <v>54</v>
+      </c>
+      <c r="J91" t="s">
+        <v>37</v>
+      </c>
+      <c r="K91" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92">
+        <v>2025</v>
+      </c>
+      <c r="D92">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>54</v>
+      </c>
+      <c r="F92" t="s">
+        <v>56</v>
+      </c>
+      <c r="G92">
+        <v>325625</v>
+      </c>
+      <c r="H92" t="s">
+        <v>36</v>
+      </c>
+      <c r="I92" t="s">
+        <v>54</v>
+      </c>
+      <c r="J92" t="s">
+        <v>37</v>
+      </c>
+      <c r="K92" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93">
+        <v>2025</v>
+      </c>
+      <c r="D93">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>54</v>
+      </c>
+      <c r="F93" t="s">
+        <v>56</v>
+      </c>
+      <c r="G93">
+        <v>326272</v>
+      </c>
+      <c r="H93" t="s">
+        <v>36</v>
+      </c>
+      <c r="I93" t="s">
+        <v>54</v>
+      </c>
+      <c r="J93" t="s">
+        <v>37</v>
+      </c>
+      <c r="K93" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94">
+        <v>2025</v>
+      </c>
+      <c r="D94">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>54</v>
+      </c>
+      <c r="F94" t="s">
+        <v>56</v>
+      </c>
+      <c r="G94">
+        <v>326453</v>
+      </c>
+      <c r="H94" t="s">
+        <v>36</v>
+      </c>
+      <c r="I94" t="s">
+        <v>54</v>
+      </c>
+      <c r="J94" t="s">
+        <v>37</v>
+      </c>
+      <c r="K94" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95">
+        <v>2025</v>
+      </c>
+      <c r="D95">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>54</v>
+      </c>
+      <c r="F95" t="s">
+        <v>56</v>
+      </c>
+      <c r="G95">
+        <v>326395</v>
+      </c>
+      <c r="H95" t="s">
+        <v>36</v>
+      </c>
+      <c r="I95" t="s">
+        <v>54</v>
+      </c>
+      <c r="J95" t="s">
+        <v>37</v>
+      </c>
+      <c r="K95" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96">
+        <v>2025</v>
+      </c>
+      <c r="D96">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>54</v>
+      </c>
+      <c r="F96" t="s">
+        <v>56</v>
+      </c>
+      <c r="G96">
+        <v>326400</v>
+      </c>
+      <c r="H96" t="s">
+        <v>58</v>
+      </c>
+      <c r="I96" t="s">
+        <v>54</v>
+      </c>
+      <c r="J96" t="s">
+        <v>37</v>
+      </c>
+      <c r="K96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97">
+        <v>2025</v>
+      </c>
+      <c r="D97">
+        <v>9</v>
+      </c>
+      <c r="E97" t="s">
+        <v>54</v>
+      </c>
+      <c r="F97" t="s">
+        <v>56</v>
+      </c>
+      <c r="G97">
+        <v>326407</v>
+      </c>
+      <c r="H97" t="s">
+        <v>58</v>
+      </c>
+      <c r="I97" t="s">
+        <v>54</v>
+      </c>
+      <c r="J97" t="s">
+        <v>37</v>
+      </c>
+      <c r="K97" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98">
+        <v>2025</v>
+      </c>
+      <c r="D98">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>54</v>
+      </c>
+      <c r="F98" t="s">
+        <v>56</v>
+      </c>
+      <c r="G98">
+        <v>326337</v>
+      </c>
+      <c r="H98" t="s">
+        <v>36</v>
+      </c>
+      <c r="I98" t="s">
+        <v>54</v>
+      </c>
+      <c r="J98" t="s">
+        <v>37</v>
+      </c>
+      <c r="K98" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -3435,7 +3435,7 @@
         <v>24</v>
       </c>
       <c r="J46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K46" t="s">
         <v>59</v>
@@ -4520,7 +4520,7 @@
         <v>53</v>
       </c>
       <c r="J77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K77" t="s">
         <v>59</v>
@@ -4590,7 +4590,7 @@
         <v>26</v>
       </c>
       <c r="J79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K79" t="s">
         <v>59</v>
@@ -4765,7 +4765,7 @@
         <v>54</v>
       </c>
       <c r="J84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K84" t="s">
         <v>59</v>
@@ -4800,7 +4800,7 @@
         <v>54</v>
       </c>
       <c r="J85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K85" t="s">
         <v>59</v>
@@ -4870,7 +4870,7 @@
         <v>54</v>
       </c>
       <c r="J87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K87" t="s">
         <v>59</v>
@@ -4940,7 +4940,7 @@
         <v>54</v>
       </c>
       <c r="J89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K89" t="s">
         <v>59</v>
@@ -5010,7 +5010,7 @@
         <v>54</v>
       </c>
       <c r="J91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K91" t="s">
         <v>59</v>
@@ -5080,7 +5080,7 @@
         <v>54</v>
       </c>
       <c r="J93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K93" t="s">
         <v>59</v>
@@ -5115,7 +5115,7 @@
         <v>54</v>
       </c>
       <c r="J94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K94" t="s">
         <v>59</v>
@@ -5150,7 +5150,7 @@
         <v>54</v>
       </c>
       <c r="J95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K95" t="s">
         <v>59</v>
@@ -5185,7 +5185,7 @@
         <v>54</v>
       </c>
       <c r="J96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K96" t="s">
         <v>59</v>
@@ -5220,7 +5220,7 @@
         <v>54</v>
       </c>
       <c r="J97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K97" t="s">
         <v>59</v>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="66">
   <si>
     <t>Setor</t>
   </si>
@@ -98,6 +98,12 @@
     <t>24/02/2025</t>
   </si>
   <si>
+    <t>10/03/2025</t>
+  </si>
+  <si>
+    <t>17/03/2025</t>
+  </si>
+  <si>
     <t>10/01/2025</t>
   </si>
   <si>
@@ -119,6 +125,12 @@
     <t>28/02/2025</t>
   </si>
   <si>
+    <t>14/03/2025</t>
+  </si>
+  <si>
+    <t>21/03/2025</t>
+  </si>
+  <si>
     <t>12/2024</t>
   </si>
   <si>
@@ -128,6 +140,9 @@
     <t>02/2025</t>
   </si>
   <si>
+    <t>03/2025</t>
+  </si>
+  <si>
     <t>Pendente</t>
   </si>
   <si>
@@ -137,6 +152,9 @@
     <t>Willian Jones</t>
   </si>
   <si>
+    <t>Willian Rios</t>
+  </si>
+  <si>
     <t>ITI</t>
   </si>
   <si>
@@ -176,6 +194,9 @@
     <t>Emily Fabiano</t>
   </si>
   <si>
+    <t>Erick Silva</t>
+  </si>
+  <si>
     <t>17/02/2025</t>
   </si>
   <si>
@@ -189,9 +210,6 @@
   </si>
   <si>
     <t>11/2024</t>
-  </si>
-  <si>
-    <t>03/2025</t>
   </si>
   <si>
     <t>Emerson Simette</t>
@@ -552,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,22 +628,22 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2">
         <v>319336</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -645,22 +663,22 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3">
         <v>319567</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -680,22 +698,22 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>318959</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -715,22 +733,22 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <v>319462</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -750,22 +768,22 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>319177</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -785,22 +803,22 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>319857</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -820,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>319602</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -855,22 +873,22 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>320063</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -890,22 +908,22 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>320403</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -925,22 +943,22 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>320607</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -960,22 +978,22 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>320215</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -995,22 +1013,22 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>319786</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1030,22 +1048,22 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>321476</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1065,22 +1083,22 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>321694</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
         <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1100,22 +1118,22 @@
         <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>322731</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1135,22 +1153,22 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G17">
         <v>322526</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
         <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1170,22 +1188,22 @@
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G18">
         <v>321751</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
         <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1205,22 +1223,22 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>321760</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
         <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1240,22 +1258,22 @@
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G20">
         <v>322877</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s">
         <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1275,22 +1293,22 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G21">
         <v>322586</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s">
         <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1310,22 +1328,22 @@
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G22">
         <v>322053</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s">
         <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K22" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1345,22 +1363,22 @@
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G23">
         <v>322696</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
         <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1380,22 +1398,22 @@
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G24">
         <v>322164</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s">
         <v>24</v>
       </c>
       <c r="J24" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1415,22 +1433,22 @@
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G25">
         <v>323835</v>
       </c>
       <c r="H25" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I25" t="s">
         <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K25" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1450,22 +1468,22 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>323518</v>
       </c>
       <c r="H26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I26" t="s">
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K26" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1485,22 +1503,22 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>322776</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I27" t="s">
         <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K27" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1520,22 +1538,22 @@
         <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>322970</v>
       </c>
       <c r="H28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I28" t="s">
         <v>25</v>
       </c>
       <c r="J28" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K28" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1555,22 +1573,22 @@
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G29">
         <v>323566</v>
       </c>
       <c r="H29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I29" t="s">
         <v>25</v>
       </c>
       <c r="J29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K29" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1590,22 +1608,22 @@
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G30">
         <v>323716</v>
       </c>
       <c r="H30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I30" t="s">
         <v>25</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K30" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1625,22 +1643,22 @@
         <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>323717</v>
       </c>
       <c r="H31" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I31" t="s">
         <v>25</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K31" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1660,22 +1678,22 @@
         <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>323112</v>
       </c>
       <c r="H32" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I32" t="s">
         <v>25</v>
       </c>
       <c r="J32" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K32" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1695,22 +1713,22 @@
         <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>324474</v>
       </c>
       <c r="H33" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I33" t="s">
         <v>26</v>
       </c>
       <c r="J33" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K33" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1730,22 +1748,22 @@
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G34">
         <v>324885</v>
       </c>
       <c r="H34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I34" t="s">
         <v>26</v>
       </c>
       <c r="J34" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K34" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1765,22 +1783,22 @@
         <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>324818</v>
       </c>
       <c r="H35" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I35" t="s">
         <v>26</v>
       </c>
       <c r="J35" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K35" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1800,22 +1818,162 @@
         <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G36">
         <v>325086</v>
       </c>
       <c r="H36" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I36" t="s">
         <v>26</v>
       </c>
       <c r="J36" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K36" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>2025</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37">
+        <v>326665</v>
+      </c>
+      <c r="H37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>2025</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38">
+        <v>327188</v>
+      </c>
+      <c r="H38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>2025</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39">
+        <v>327157</v>
+      </c>
+      <c r="H39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>2025</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40">
+        <v>327605</v>
+      </c>
+      <c r="H40" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1825,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1868,10 +2026,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>2025</v>
@@ -1883,30 +2041,30 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2">
         <v>317296</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>2025</v>
@@ -1918,30 +2076,30 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3">
         <v>318826</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>2025</v>
@@ -1953,30 +2111,30 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4">
         <v>319181</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>2025</v>
@@ -1988,30 +2146,30 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <v>319390</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>2025</v>
@@ -2023,30 +2181,30 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6">
         <v>316763</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>2025</v>
@@ -2058,30 +2216,30 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>315817</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>2025</v>
@@ -2093,30 +2251,30 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>319843</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>2025</v>
@@ -2128,30 +2286,30 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>319926</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>2025</v>
@@ -2163,30 +2321,30 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>319863</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>2025</v>
@@ -2198,30 +2356,30 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G11">
         <v>319910</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>2025</v>
@@ -2233,30 +2391,30 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>320231</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>2025</v>
@@ -2268,30 +2426,30 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>319898</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
         <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>2025</v>
@@ -2303,30 +2461,30 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>320974</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>2025</v>
@@ -2338,30 +2496,30 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>320245</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
         <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>2025</v>
@@ -2373,30 +2531,30 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>320780</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
         <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>2025</v>
@@ -2408,30 +2566,30 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17">
         <v>320854</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>2025</v>
@@ -2443,30 +2601,30 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <v>313182</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>2025</v>
@@ -2478,30 +2636,30 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19">
         <v>320964</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
         <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>2025</v>
@@ -2513,30 +2671,30 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>320990</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s">
         <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C21">
         <v>2025</v>
@@ -2548,30 +2706,30 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>321158</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s">
         <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>2025</v>
@@ -2583,30 +2741,30 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>320312</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s">
         <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K22" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>2025</v>
@@ -2618,30 +2776,30 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>320458</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>2025</v>
@@ -2653,30 +2811,30 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>320546</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K24" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>2025</v>
@@ -2688,30 +2846,30 @@
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G25">
         <v>320776</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s">
         <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>2025</v>
@@ -2723,30 +2881,30 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G26">
         <v>320861</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s">
         <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>2025</v>
@@ -2758,30 +2916,30 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G27">
         <v>320895</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s">
         <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K27" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>2025</v>
@@ -2793,30 +2951,30 @@
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G28">
         <v>320916</v>
       </c>
       <c r="H28" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I28" t="s">
         <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K28" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C29">
         <v>2025</v>
@@ -2828,30 +2986,30 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G29">
         <v>320941</v>
       </c>
       <c r="H29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>2025</v>
@@ -2863,30 +3021,30 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G30">
         <v>320942</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K30" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>2025</v>
@@ -2898,30 +3056,30 @@
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G31">
         <v>320991</v>
       </c>
       <c r="H31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s">
         <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K31" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>2025</v>
@@ -2933,30 +3091,30 @@
         <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>321068</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K32" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>2025</v>
@@ -2968,30 +3126,30 @@
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>320583</v>
       </c>
       <c r="H33" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s">
         <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K33" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>2025</v>
@@ -3003,30 +3161,30 @@
         <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G34">
         <v>321500</v>
       </c>
       <c r="H34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I34" t="s">
         <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K34" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C35">
         <v>2025</v>
@@ -3038,30 +3196,30 @@
         <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G35">
         <v>321963</v>
       </c>
       <c r="H35" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I35" t="s">
         <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K35" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>2025</v>
@@ -3073,30 +3231,30 @@
         <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>321861</v>
       </c>
       <c r="H36" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I36" t="s">
         <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K36" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>2025</v>
@@ -3108,30 +3266,30 @@
         <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G37">
         <v>321648</v>
       </c>
       <c r="H37" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I37" t="s">
         <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K37" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>2025</v>
@@ -3143,30 +3301,30 @@
         <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G38">
         <v>321596</v>
       </c>
       <c r="H38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I38" t="s">
         <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K38" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>2025</v>
@@ -3178,30 +3336,30 @@
         <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G39">
         <v>322346</v>
       </c>
       <c r="H39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I39" t="s">
         <v>24</v>
       </c>
       <c r="J39" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K39" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <v>2025</v>
@@ -3213,30 +3371,30 @@
         <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G40">
         <v>321835</v>
       </c>
       <c r="H40" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I40" t="s">
         <v>24</v>
       </c>
       <c r="J40" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K40" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>2025</v>
@@ -3248,30 +3406,30 @@
         <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G41">
         <v>322897</v>
       </c>
       <c r="H41" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I41" t="s">
         <v>24</v>
       </c>
       <c r="J41" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K41" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C42">
         <v>2025</v>
@@ -3283,30 +3441,30 @@
         <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G42">
         <v>322655</v>
       </c>
       <c r="H42" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I42" t="s">
         <v>24</v>
       </c>
       <c r="J42" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K42" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C43">
         <v>2025</v>
@@ -3318,30 +3476,30 @@
         <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G43">
         <v>322167</v>
       </c>
       <c r="H43" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I43" t="s">
         <v>24</v>
       </c>
       <c r="J43" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K43" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C44">
         <v>2025</v>
@@ -3353,30 +3511,30 @@
         <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G44">
         <v>322927</v>
       </c>
       <c r="H44" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I44" t="s">
         <v>24</v>
       </c>
       <c r="J44" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K44" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C45">
         <v>2025</v>
@@ -3388,30 +3546,30 @@
         <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G45">
         <v>322759</v>
       </c>
       <c r="H45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I45" t="s">
         <v>24</v>
       </c>
       <c r="J45" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K45" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C46">
         <v>2025</v>
@@ -3423,30 +3581,30 @@
         <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G46">
         <v>322764</v>
       </c>
       <c r="H46" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I46" t="s">
         <v>24</v>
       </c>
       <c r="J46" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K46" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C47">
         <v>2025</v>
@@ -3458,30 +3616,30 @@
         <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G47">
         <v>322804</v>
       </c>
       <c r="H47" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I47" t="s">
         <v>24</v>
       </c>
       <c r="J47" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K47" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C48">
         <v>2025</v>
@@ -3493,30 +3651,30 @@
         <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G48">
         <v>322946</v>
       </c>
       <c r="H48" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I48" t="s">
         <v>25</v>
       </c>
       <c r="J48" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K48" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C49">
         <v>2025</v>
@@ -3528,30 +3686,30 @@
         <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G49">
         <v>323235</v>
       </c>
       <c r="H49" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I49" t="s">
         <v>25</v>
       </c>
       <c r="J49" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K49" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>2025</v>
@@ -3563,30 +3721,30 @@
         <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G50">
         <v>323204</v>
       </c>
       <c r="H50" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I50" t="s">
         <v>25</v>
       </c>
       <c r="J50" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K50" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C51">
         <v>2025</v>
@@ -3598,30 +3756,30 @@
         <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G51">
         <v>323802</v>
       </c>
       <c r="H51" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I51" t="s">
         <v>25</v>
       </c>
       <c r="J51" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K51" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C52">
         <v>2025</v>
@@ -3633,30 +3791,30 @@
         <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G52">
         <v>323062</v>
       </c>
       <c r="H52" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I52" t="s">
         <v>25</v>
       </c>
       <c r="J52" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K52" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C53">
         <v>2025</v>
@@ -3668,30 +3826,30 @@
         <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G53">
         <v>323208</v>
       </c>
       <c r="H53" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I53" t="s">
         <v>25</v>
       </c>
       <c r="J53" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K53" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C54">
         <v>2025</v>
@@ -3703,30 +3861,30 @@
         <v>25</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>322945</v>
       </c>
       <c r="H54" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I54" t="s">
         <v>25</v>
       </c>
       <c r="J54" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K54" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C55">
         <v>2025</v>
@@ -3738,30 +3896,30 @@
         <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G55">
         <v>323224</v>
       </c>
       <c r="H55" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
       </c>
       <c r="J55" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K55" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C56">
         <v>2025</v>
@@ -3773,30 +3931,30 @@
         <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G56">
         <v>323501</v>
       </c>
       <c r="H56" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
       </c>
       <c r="J56" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K56" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>2025</v>
@@ -3808,30 +3966,30 @@
         <v>25</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G57">
         <v>323513</v>
       </c>
       <c r="H57" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
       </c>
       <c r="J57" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K57" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C58">
         <v>2025</v>
@@ -3840,33 +3998,33 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G58">
         <v>323755</v>
       </c>
       <c r="H58" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I58" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J58" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K58" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C59">
         <v>2025</v>
@@ -3875,33 +4033,33 @@
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F59" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G59">
         <v>324249</v>
       </c>
       <c r="H59" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I59" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J59" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K59" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C60">
         <v>2025</v>
@@ -3910,33 +4068,33 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G60">
         <v>324374</v>
       </c>
       <c r="H60" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I60" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J60" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K60" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C61">
         <v>2025</v>
@@ -3945,33 +4103,33 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G61">
         <v>324412</v>
       </c>
       <c r="H61" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I61" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J61" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K61" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C62">
         <v>2025</v>
@@ -3980,33 +4138,33 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F62" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G62">
         <v>324452</v>
       </c>
       <c r="H62" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I62" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J62" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K62" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C63">
         <v>2025</v>
@@ -4015,33 +4173,33 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F63" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G63">
         <v>324454</v>
       </c>
       <c r="H63" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I63" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J63" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K63" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C64">
         <v>2025</v>
@@ -4050,33 +4208,33 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F64" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G64">
         <v>324470</v>
       </c>
       <c r="H64" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I64" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J64" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K64" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C65">
         <v>2025</v>
@@ -4085,33 +4243,33 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F65" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G65">
         <v>324061</v>
       </c>
       <c r="H65" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I65" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J65" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K65" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C66">
         <v>2025</v>
@@ -4120,33 +4278,33 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F66" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G66">
         <v>324124</v>
       </c>
       <c r="H66" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I66" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J66" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K66" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C67">
         <v>2025</v>
@@ -4155,33 +4313,33 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F67" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G67">
         <v>324349</v>
       </c>
       <c r="H67" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I67" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J67" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K67" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C68">
         <v>2025</v>
@@ -4190,33 +4348,33 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F68" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G68">
         <v>324521</v>
       </c>
       <c r="H68" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I68" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J68" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K68" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C69">
         <v>2025</v>
@@ -4225,33 +4383,33 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F69" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G69">
         <v>324156</v>
       </c>
       <c r="H69" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I69" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J69" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K69" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C70">
         <v>2025</v>
@@ -4260,33 +4418,33 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F70" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G70">
         <v>323946</v>
       </c>
       <c r="H70" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I70" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J70" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K70" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C71">
         <v>2025</v>
@@ -4295,33 +4453,33 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F71" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G71">
         <v>324268</v>
       </c>
       <c r="H71" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I71" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J71" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K71" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C72">
         <v>2025</v>
@@ -4330,33 +4488,33 @@
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F72" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G72">
         <v>324445</v>
       </c>
       <c r="H72" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I72" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J72" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K72" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C73">
         <v>2025</v>
@@ -4365,33 +4523,33 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F73" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G73">
         <v>324433</v>
       </c>
       <c r="H73" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J73" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K73" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C74">
         <v>2025</v>
@@ -4400,33 +4558,33 @@
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F74" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G74">
         <v>324537</v>
       </c>
       <c r="H74" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I74" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J74" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K74" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C75">
         <v>2025</v>
@@ -4435,33 +4593,33 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F75" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G75">
         <v>323804</v>
       </c>
       <c r="H75" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I75" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J75" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K75" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C76">
         <v>2025</v>
@@ -4470,33 +4628,33 @@
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F76" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G76">
         <v>324568</v>
       </c>
       <c r="H76" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I76" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J76" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K76" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C77">
         <v>2025</v>
@@ -4505,33 +4663,33 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F77" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G77">
         <v>324458</v>
       </c>
       <c r="H77" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I77" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J77" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K77" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C78">
         <v>2025</v>
@@ -4543,30 +4701,30 @@
         <v>26</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>325459</v>
       </c>
       <c r="H78" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I78" t="s">
         <v>26</v>
       </c>
       <c r="J78" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K78" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C79">
         <v>2025</v>
@@ -4578,30 +4736,30 @@
         <v>26</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G79">
         <v>325426</v>
       </c>
       <c r="H79" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I79" t="s">
         <v>26</v>
       </c>
       <c r="J79" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K79" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C80">
         <v>2025</v>
@@ -4613,30 +4771,30 @@
         <v>26</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G80">
         <v>324979</v>
       </c>
       <c r="H80" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I80" t="s">
         <v>26</v>
       </c>
       <c r="J80" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K80" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C81">
         <v>2025</v>
@@ -4648,30 +4806,30 @@
         <v>26</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G81">
         <v>325038</v>
       </c>
       <c r="H81" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I81" t="s">
         <v>26</v>
       </c>
       <c r="J81" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K81" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C82">
         <v>2025</v>
@@ -4683,30 +4841,30 @@
         <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>324872</v>
       </c>
       <c r="H82" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I82" t="s">
         <v>26</v>
       </c>
       <c r="J82" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K82" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C83">
         <v>2025</v>
@@ -4715,33 +4873,33 @@
         <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F83" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G83">
         <v>325533</v>
       </c>
       <c r="H83" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I83" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J83" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K83" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C84">
         <v>2025</v>
@@ -4750,33 +4908,33 @@
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F84" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G84">
         <v>326568</v>
       </c>
       <c r="H84" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I84" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J84" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K84" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C85">
         <v>2025</v>
@@ -4785,33 +4943,33 @@
         <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F85" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G85">
         <v>326746</v>
       </c>
       <c r="H85" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I85" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J85" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K85" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C86">
         <v>2025</v>
@@ -4820,33 +4978,33 @@
         <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F86" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G86">
         <v>326421</v>
       </c>
       <c r="H86" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I86" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J86" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K86" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C87">
         <v>2025</v>
@@ -4855,33 +5013,33 @@
         <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F87" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G87">
         <v>326239</v>
       </c>
       <c r="H87" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I87" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J87" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K87" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C88">
         <v>2025</v>
@@ -4890,33 +5048,33 @@
         <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F88" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G88">
         <v>325743</v>
       </c>
       <c r="H88" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I88" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J88" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K88" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C89">
         <v>2025</v>
@@ -4925,33 +5083,33 @@
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F89" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G89">
         <v>326190</v>
       </c>
       <c r="H89" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I89" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J89" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K89" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B90" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C90">
         <v>2025</v>
@@ -4960,33 +5118,33 @@
         <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F90" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G90">
         <v>326324</v>
       </c>
       <c r="H90" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I90" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J90" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K90" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C91">
         <v>2025</v>
@@ -4995,33 +5153,33 @@
         <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F91" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G91">
         <v>325610</v>
       </c>
       <c r="H91" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I91" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J91" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K91" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C92">
         <v>2025</v>
@@ -5030,33 +5188,33 @@
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F92" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G92">
         <v>325625</v>
       </c>
       <c r="H92" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I92" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J92" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K92" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B93" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C93">
         <v>2025</v>
@@ -5065,33 +5223,33 @@
         <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F93" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G93">
         <v>326272</v>
       </c>
       <c r="H93" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I93" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J93" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K93" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B94" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C94">
         <v>2025</v>
@@ -5100,33 +5258,33 @@
         <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F94" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G94">
         <v>326453</v>
       </c>
       <c r="H94" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I94" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J94" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K94" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B95" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C95">
         <v>2025</v>
@@ -5135,33 +5293,33 @@
         <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F95" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G95">
         <v>326395</v>
       </c>
       <c r="H95" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I95" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J95" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K95" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C96">
         <v>2025</v>
@@ -5170,33 +5328,33 @@
         <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F96" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G96">
         <v>326400</v>
       </c>
       <c r="H96" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I96" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J96" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K96" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B97" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C97">
         <v>2025</v>
@@ -5205,33 +5363,33 @@
         <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F97" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G97">
         <v>326407</v>
       </c>
       <c r="H97" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I97" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J97" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K97" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B98" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C98">
         <v>2025</v>
@@ -5240,25 +5398,900 @@
         <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F98" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G98">
         <v>326337</v>
       </c>
       <c r="H98" t="s">
+        <v>40</v>
+      </c>
+      <c r="I98" t="s">
+        <v>61</v>
+      </c>
+      <c r="J98" t="s">
+        <v>42</v>
+      </c>
+      <c r="K98" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99">
+        <v>2025</v>
+      </c>
+      <c r="D99">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" t="s">
         <v>36</v>
       </c>
-      <c r="I98" t="s">
-        <v>54</v>
-      </c>
-      <c r="J98" t="s">
+      <c r="G99">
+        <v>326610</v>
+      </c>
+      <c r="H99" t="s">
+        <v>41</v>
+      </c>
+      <c r="I99" t="s">
+        <v>27</v>
+      </c>
+      <c r="J99" t="s">
+        <v>43</v>
+      </c>
+      <c r="K99" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100">
+        <v>2025</v>
+      </c>
+      <c r="D100">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100">
+        <v>326729</v>
+      </c>
+      <c r="H100" t="s">
+        <v>41</v>
+      </c>
+      <c r="I100" t="s">
+        <v>27</v>
+      </c>
+      <c r="J100" t="s">
+        <v>43</v>
+      </c>
+      <c r="K100" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101">
+        <v>2025</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" t="s">
+        <v>36</v>
+      </c>
+      <c r="G101">
+        <v>327344</v>
+      </c>
+      <c r="H101" t="s">
+        <v>41</v>
+      </c>
+      <c r="I101" t="s">
+        <v>27</v>
+      </c>
+      <c r="J101" t="s">
+        <v>43</v>
+      </c>
+      <c r="K101" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102">
+        <v>2025</v>
+      </c>
+      <c r="D102">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102" t="s">
+        <v>36</v>
+      </c>
+      <c r="G102">
+        <v>327101</v>
+      </c>
+      <c r="H102" t="s">
+        <v>41</v>
+      </c>
+      <c r="I102" t="s">
+        <v>27</v>
+      </c>
+      <c r="J102" t="s">
+        <v>43</v>
+      </c>
+      <c r="K102" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103">
+        <v>2025</v>
+      </c>
+      <c r="D103">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>27</v>
+      </c>
+      <c r="F103" t="s">
+        <v>36</v>
+      </c>
+      <c r="G103">
+        <v>327168</v>
+      </c>
+      <c r="H103" t="s">
+        <v>41</v>
+      </c>
+      <c r="I103" t="s">
+        <v>27</v>
+      </c>
+      <c r="J103" t="s">
+        <v>43</v>
+      </c>
+      <c r="K103" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104">
+        <v>2025</v>
+      </c>
+      <c r="D104">
+        <v>10</v>
+      </c>
+      <c r="E104" t="s">
+        <v>27</v>
+      </c>
+      <c r="F104" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104">
+        <v>327056</v>
+      </c>
+      <c r="H104" t="s">
+        <v>41</v>
+      </c>
+      <c r="I104" t="s">
+        <v>27</v>
+      </c>
+      <c r="J104" t="s">
+        <v>43</v>
+      </c>
+      <c r="K104" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" t="s">
+        <v>49</v>
+      </c>
+      <c r="C105">
+        <v>2025</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
+        <v>27</v>
+      </c>
+      <c r="F105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105">
+        <v>327214</v>
+      </c>
+      <c r="H105" t="s">
+        <v>41</v>
+      </c>
+      <c r="I105" t="s">
+        <v>27</v>
+      </c>
+      <c r="J105" t="s">
+        <v>43</v>
+      </c>
+      <c r="K105" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106">
+        <v>2025</v>
+      </c>
+      <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s">
+        <v>27</v>
+      </c>
+      <c r="F106" t="s">
+        <v>36</v>
+      </c>
+      <c r="G106">
+        <v>327239</v>
+      </c>
+      <c r="H106" t="s">
+        <v>41</v>
+      </c>
+      <c r="I106" t="s">
+        <v>27</v>
+      </c>
+      <c r="J106" t="s">
+        <v>43</v>
+      </c>
+      <c r="K106" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>46</v>
+      </c>
+      <c r="B107" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107">
+        <v>2025</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" t="s">
+        <v>36</v>
+      </c>
+      <c r="G107">
+        <v>325722</v>
+      </c>
+      <c r="H107" t="s">
+        <v>41</v>
+      </c>
+      <c r="I107" t="s">
+        <v>27</v>
+      </c>
+      <c r="J107" t="s">
+        <v>43</v>
+      </c>
+      <c r="K107" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>46</v>
+      </c>
+      <c r="B108" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108">
+        <v>2025</v>
+      </c>
+      <c r="D108">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
+        <v>27</v>
+      </c>
+      <c r="F108" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108">
+        <v>327031</v>
+      </c>
+      <c r="H108" t="s">
+        <v>41</v>
+      </c>
+      <c r="I108" t="s">
+        <v>27</v>
+      </c>
+      <c r="J108" t="s">
+        <v>43</v>
+      </c>
+      <c r="K108" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>46</v>
+      </c>
+      <c r="B109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C109">
+        <v>2025</v>
+      </c>
+      <c r="D109">
+        <v>11</v>
+      </c>
+      <c r="E109" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" t="s">
         <v>37</v>
       </c>
-      <c r="K98" t="s">
+      <c r="G109">
+        <v>327975</v>
+      </c>
+      <c r="H109" t="s">
+        <v>41</v>
+      </c>
+      <c r="I109" t="s">
+        <v>28</v>
+      </c>
+      <c r="J109" t="s">
+        <v>43</v>
+      </c>
+      <c r="K109" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" t="s">
+        <v>51</v>
+      </c>
+      <c r="C110">
+        <v>2025</v>
+      </c>
+      <c r="D110">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110">
+        <v>328086</v>
+      </c>
+      <c r="H110" t="s">
+        <v>41</v>
+      </c>
+      <c r="I110" t="s">
+        <v>28</v>
+      </c>
+      <c r="J110" t="s">
+        <v>43</v>
+      </c>
+      <c r="K110" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111">
+        <v>2025</v>
+      </c>
+      <c r="D111">
+        <v>11</v>
+      </c>
+      <c r="E111" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111" t="s">
+        <v>37</v>
+      </c>
+      <c r="G111">
+        <v>328100</v>
+      </c>
+      <c r="H111" t="s">
+        <v>41</v>
+      </c>
+      <c r="I111" t="s">
+        <v>28</v>
+      </c>
+      <c r="J111" t="s">
+        <v>43</v>
+      </c>
+      <c r="K111" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112">
+        <v>2025</v>
+      </c>
+      <c r="D112">
+        <v>11</v>
+      </c>
+      <c r="E112" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" t="s">
+        <v>37</v>
+      </c>
+      <c r="G112">
+        <v>327866</v>
+      </c>
+      <c r="H112" t="s">
+        <v>41</v>
+      </c>
+      <c r="I112" t="s">
+        <v>28</v>
+      </c>
+      <c r="J112" t="s">
+        <v>43</v>
+      </c>
+      <c r="K112" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>46</v>
+      </c>
+      <c r="B113" t="s">
+        <v>51</v>
+      </c>
+      <c r="C113">
+        <v>2025</v>
+      </c>
+      <c r="D113">
+        <v>11</v>
+      </c>
+      <c r="E113" t="s">
+        <v>28</v>
+      </c>
+      <c r="F113" t="s">
+        <v>37</v>
+      </c>
+      <c r="G113">
+        <v>327870</v>
+      </c>
+      <c r="H113" t="s">
+        <v>41</v>
+      </c>
+      <c r="I113" t="s">
+        <v>28</v>
+      </c>
+      <c r="J113" t="s">
+        <v>43</v>
+      </c>
+      <c r="K113" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>46</v>
+      </c>
+      <c r="B114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C114">
+        <v>2025</v>
+      </c>
+      <c r="D114">
+        <v>11</v>
+      </c>
+      <c r="E114" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114">
+        <v>327929</v>
+      </c>
+      <c r="H114" t="s">
+        <v>41</v>
+      </c>
+      <c r="I114" t="s">
+        <v>28</v>
+      </c>
+      <c r="J114" t="s">
+        <v>43</v>
+      </c>
+      <c r="K114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>46</v>
+      </c>
+      <c r="B115" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115">
+        <v>2025</v>
+      </c>
+      <c r="D115">
+        <v>11</v>
+      </c>
+      <c r="E115" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115">
+        <v>327978</v>
+      </c>
+      <c r="H115" t="s">
+        <v>41</v>
+      </c>
+      <c r="I115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J115" t="s">
+        <v>43</v>
+      </c>
+      <c r="K115" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>46</v>
+      </c>
+      <c r="B116" t="s">
         <v>59</v>
+      </c>
+      <c r="C116">
+        <v>2025</v>
+      </c>
+      <c r="D116">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>28</v>
+      </c>
+      <c r="F116" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116">
+        <v>327969</v>
+      </c>
+      <c r="H116" t="s">
+        <v>41</v>
+      </c>
+      <c r="I116" t="s">
+        <v>28</v>
+      </c>
+      <c r="J116" t="s">
+        <v>43</v>
+      </c>
+      <c r="K116" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
+        <v>46</v>
+      </c>
+      <c r="B117" t="s">
+        <v>59</v>
+      </c>
+      <c r="C117">
+        <v>2025</v>
+      </c>
+      <c r="D117">
+        <v>11</v>
+      </c>
+      <c r="E117" t="s">
+        <v>28</v>
+      </c>
+      <c r="F117" t="s">
+        <v>37</v>
+      </c>
+      <c r="G117">
+        <v>327762</v>
+      </c>
+      <c r="H117" t="s">
+        <v>41</v>
+      </c>
+      <c r="I117" t="s">
+        <v>28</v>
+      </c>
+      <c r="J117" t="s">
+        <v>43</v>
+      </c>
+      <c r="K117" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>46</v>
+      </c>
+      <c r="B118" t="s">
+        <v>59</v>
+      </c>
+      <c r="C118">
+        <v>2025</v>
+      </c>
+      <c r="D118">
+        <v>11</v>
+      </c>
+      <c r="E118" t="s">
+        <v>28</v>
+      </c>
+      <c r="F118" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118">
+        <v>327752</v>
+      </c>
+      <c r="H118" t="s">
+        <v>41</v>
+      </c>
+      <c r="I118" t="s">
+        <v>28</v>
+      </c>
+      <c r="J118" t="s">
+        <v>42</v>
+      </c>
+      <c r="K118" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119">
+        <v>2025</v>
+      </c>
+      <c r="D119">
+        <v>11</v>
+      </c>
+      <c r="E119" t="s">
+        <v>28</v>
+      </c>
+      <c r="F119" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119">
+        <v>327907</v>
+      </c>
+      <c r="H119" t="s">
+        <v>41</v>
+      </c>
+      <c r="I119" t="s">
+        <v>28</v>
+      </c>
+      <c r="J119" t="s">
+        <v>43</v>
+      </c>
+      <c r="K119" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" t="s">
+        <v>48</v>
+      </c>
+      <c r="C120">
+        <v>2025</v>
+      </c>
+      <c r="D120">
+        <v>11</v>
+      </c>
+      <c r="E120" t="s">
+        <v>28</v>
+      </c>
+      <c r="F120" t="s">
+        <v>37</v>
+      </c>
+      <c r="G120">
+        <v>327725</v>
+      </c>
+      <c r="H120" t="s">
+        <v>41</v>
+      </c>
+      <c r="I120" t="s">
+        <v>28</v>
+      </c>
+      <c r="J120" t="s">
+        <v>43</v>
+      </c>
+      <c r="K120" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" t="s">
+        <v>49</v>
+      </c>
+      <c r="C121">
+        <v>2025</v>
+      </c>
+      <c r="D121">
+        <v>11</v>
+      </c>
+      <c r="E121" t="s">
+        <v>28</v>
+      </c>
+      <c r="F121" t="s">
+        <v>37</v>
+      </c>
+      <c r="G121">
+        <v>328365</v>
+      </c>
+      <c r="H121" t="s">
+        <v>41</v>
+      </c>
+      <c r="I121" t="s">
+        <v>28</v>
+      </c>
+      <c r="J121" t="s">
+        <v>42</v>
+      </c>
+      <c r="K121" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" t="s">
+        <v>46</v>
+      </c>
+      <c r="B122" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122">
+        <v>2025</v>
+      </c>
+      <c r="D122">
+        <v>11</v>
+      </c>
+      <c r="E122" t="s">
+        <v>28</v>
+      </c>
+      <c r="F122" t="s">
+        <v>37</v>
+      </c>
+      <c r="G122">
+        <v>327746</v>
+      </c>
+      <c r="H122" t="s">
+        <v>41</v>
+      </c>
+      <c r="I122" t="s">
+        <v>28</v>
+      </c>
+      <c r="J122" t="s">
+        <v>43</v>
+      </c>
+      <c r="K122" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" t="s">
+        <v>46</v>
+      </c>
+      <c r="B123" t="s">
+        <v>50</v>
+      </c>
+      <c r="C123">
+        <v>2025</v>
+      </c>
+      <c r="D123">
+        <v>11</v>
+      </c>
+      <c r="E123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F123" t="s">
+        <v>37</v>
+      </c>
+      <c r="G123">
+        <v>327872</v>
+      </c>
+      <c r="H123" t="s">
+        <v>41</v>
+      </c>
+      <c r="I123" t="s">
+        <v>28</v>
+      </c>
+      <c r="J123" t="s">
+        <v>42</v>
+      </c>
+      <c r="K123" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="69">
   <si>
     <t>Setor</t>
   </si>
@@ -104,6 +104,9 @@
     <t>17/03/2025</t>
   </si>
   <si>
+    <t>24/03/2025</t>
+  </si>
+  <si>
     <t>10/01/2025</t>
   </si>
   <si>
@@ -129,6 +132,9 @@
   </si>
   <si>
     <t>21/03/2025</t>
+  </si>
+  <si>
+    <t>28/03/2025</t>
   </si>
   <si>
     <t>12/2024</t>
@@ -195,6 +201,9 @@
   </si>
   <si>
     <t>Erick Silva</t>
+  </si>
+  <si>
+    <t>Jacyr Popenda</t>
   </si>
   <si>
     <t>17/02/2025</t>
@@ -570,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,22 +637,22 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>319336</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -663,22 +672,22 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>319567</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -698,22 +707,22 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>318959</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -733,22 +742,22 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <v>319462</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -768,22 +777,22 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>319177</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -803,22 +812,22 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>319857</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -838,22 +847,22 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>319602</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -873,22 +882,22 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>320063</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -908,22 +917,22 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>320403</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -943,22 +952,22 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>320607</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -978,22 +987,22 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>320215</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1013,22 +1022,22 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13">
         <v>319786</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1048,22 +1057,22 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>321476</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1083,22 +1092,22 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>321694</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
         <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1118,22 +1127,22 @@
         <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>322731</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1153,22 +1162,22 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>322526</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
         <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1188,22 +1197,22 @@
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G18">
         <v>321751</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
         <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1223,22 +1232,22 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>321760</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s">
         <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1258,22 +1267,22 @@
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>322877</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s">
         <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1293,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>322586</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
         <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1328,22 +1337,22 @@
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>322053</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s">
         <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1363,22 +1372,22 @@
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>322696</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s">
         <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1398,22 +1407,22 @@
         <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24">
         <v>322164</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
         <v>24</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1433,22 +1442,22 @@
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>323835</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I25" t="s">
         <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1468,22 +1477,22 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G26">
         <v>323518</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s">
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1503,22 +1512,22 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>322776</v>
       </c>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
         <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1538,22 +1547,22 @@
         <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>322970</v>
       </c>
       <c r="H28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I28" t="s">
         <v>25</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1573,22 +1582,22 @@
         <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>323566</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I29" t="s">
         <v>25</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1608,22 +1617,22 @@
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>323716</v>
       </c>
       <c r="H30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I30" t="s">
         <v>25</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1643,22 +1652,22 @@
         <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>323717</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I31" t="s">
         <v>25</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1678,22 +1687,22 @@
         <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>323112</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I32" t="s">
         <v>25</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1713,22 +1722,22 @@
         <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>324474</v>
       </c>
       <c r="H33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I33" t="s">
         <v>26</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1748,22 +1757,22 @@
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G34">
         <v>324885</v>
       </c>
       <c r="H34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I34" t="s">
         <v>26</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1783,22 +1792,22 @@
         <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35">
         <v>324818</v>
       </c>
       <c r="H35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I35" t="s">
         <v>26</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1818,22 +1827,22 @@
         <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36">
         <v>325086</v>
       </c>
       <c r="H36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I36" t="s">
         <v>26</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1853,22 +1862,22 @@
         <v>27</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G37">
         <v>326665</v>
       </c>
       <c r="H37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1888,22 +1897,22 @@
         <v>27</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>327188</v>
       </c>
       <c r="H38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1923,22 +1932,22 @@
         <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G39">
         <v>327157</v>
       </c>
       <c r="H39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I39" t="s">
         <v>28</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1958,22 +1967,232 @@
         <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40">
         <v>327605</v>
       </c>
       <c r="H40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I40" t="s">
         <v>28</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K40" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>2025</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41">
+        <v>328259</v>
+      </c>
+      <c r="H41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>2025</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42">
+        <v>328609</v>
+      </c>
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>2025</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43">
+        <v>328466</v>
+      </c>
+      <c r="H43" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>2025</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44">
+        <v>329152</v>
+      </c>
+      <c r="H44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="s">
+        <v>45</v>
+      </c>
+      <c r="K44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>2025</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45">
+        <v>328925</v>
+      </c>
+      <c r="H45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>2025</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46">
+        <v>328456</v>
+      </c>
+      <c r="H46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +2202,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2026,10 +2245,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>2025</v>
@@ -2041,30 +2260,30 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>317296</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>2025</v>
@@ -2076,30 +2295,30 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>318826</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>2025</v>
@@ -2111,30 +2330,30 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>319181</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>2025</v>
@@ -2146,30 +2365,30 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <v>319390</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>2025</v>
@@ -2181,30 +2400,30 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>316763</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>2025</v>
@@ -2216,30 +2435,30 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>315817</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>2025</v>
@@ -2251,30 +2470,30 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>319843</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9">
         <v>2025</v>
@@ -2286,30 +2505,30 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>319926</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>2025</v>
@@ -2321,30 +2540,30 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>319863</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>2025</v>
@@ -2356,30 +2575,30 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>319910</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
         <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>2025</v>
@@ -2391,30 +2610,30 @@
         <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12">
         <v>320231</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
         <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>2025</v>
@@ -2426,30 +2645,30 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>319898</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
         <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>2025</v>
@@ -2461,30 +2680,30 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>320974</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>2025</v>
@@ -2496,30 +2715,30 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15">
         <v>320245</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
         <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>2025</v>
@@ -2531,30 +2750,30 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>320780</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
         <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>2025</v>
@@ -2566,30 +2785,30 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>320854</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
         <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>2025</v>
@@ -2601,30 +2820,30 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>313182</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C19">
         <v>2025</v>
@@ -2636,30 +2855,30 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19">
         <v>320964</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s">
         <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20">
         <v>2025</v>
@@ -2671,30 +2890,30 @@
         <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20">
         <v>320990</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s">
         <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>2025</v>
@@ -2706,30 +2925,30 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>321158</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
         <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>2025</v>
@@ -2741,30 +2960,30 @@
         <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>320312</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s">
         <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>2025</v>
@@ -2776,30 +2995,30 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23">
         <v>320458</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s">
         <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>2025</v>
@@ -2811,30 +3030,30 @@
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24">
         <v>320546</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25">
         <v>2025</v>
@@ -2846,30 +3065,30 @@
         <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>320776</v>
       </c>
       <c r="H25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
         <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>2025</v>
@@ -2881,30 +3100,30 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26">
         <v>320861</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s">
         <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C27">
         <v>2025</v>
@@ -2916,30 +3135,30 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27">
         <v>320895</v>
       </c>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
         <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C28">
         <v>2025</v>
@@ -2951,30 +3170,30 @@
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>320916</v>
       </c>
       <c r="H28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s">
         <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C29">
         <v>2025</v>
@@ -2986,30 +3205,30 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29">
         <v>320941</v>
       </c>
       <c r="H29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>2025</v>
@@ -3021,30 +3240,30 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30">
         <v>320942</v>
       </c>
       <c r="H30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>2025</v>
@@ -3056,30 +3275,30 @@
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G31">
         <v>320991</v>
       </c>
       <c r="H31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s">
         <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>2025</v>
@@ -3091,30 +3310,30 @@
         <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>321068</v>
       </c>
       <c r="H32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s">
         <v>22</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C33">
         <v>2025</v>
@@ -3126,30 +3345,30 @@
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33">
         <v>320583</v>
       </c>
       <c r="H33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s">
         <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C34">
         <v>2025</v>
@@ -3161,30 +3380,30 @@
         <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34">
         <v>321500</v>
       </c>
       <c r="H34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s">
         <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C35">
         <v>2025</v>
@@ -3196,30 +3415,30 @@
         <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35">
         <v>321963</v>
       </c>
       <c r="H35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s">
         <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>2025</v>
@@ -3231,30 +3450,30 @@
         <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G36">
         <v>321861</v>
       </c>
       <c r="H36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s">
         <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>2025</v>
@@ -3266,30 +3485,30 @@
         <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37">
         <v>321648</v>
       </c>
       <c r="H37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s">
         <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>2025</v>
@@ -3301,30 +3520,30 @@
         <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G38">
         <v>321596</v>
       </c>
       <c r="H38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I38" t="s">
         <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>2025</v>
@@ -3336,30 +3555,30 @@
         <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G39">
         <v>322346</v>
       </c>
       <c r="H39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I39" t="s">
         <v>24</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>2025</v>
@@ -3371,30 +3590,30 @@
         <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>321835</v>
       </c>
       <c r="H40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s">
         <v>24</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>2025</v>
@@ -3406,30 +3625,30 @@
         <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G41">
         <v>322897</v>
       </c>
       <c r="H41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I41" t="s">
         <v>24</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <v>2025</v>
@@ -3441,30 +3660,30 @@
         <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>322655</v>
       </c>
       <c r="H42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s">
         <v>24</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C43">
         <v>2025</v>
@@ -3476,30 +3695,30 @@
         <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>322167</v>
       </c>
       <c r="H43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I43" t="s">
         <v>24</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K43" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C44">
         <v>2025</v>
@@ -3511,30 +3730,30 @@
         <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G44">
         <v>322927</v>
       </c>
       <c r="H44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I44" t="s">
         <v>24</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C45">
         <v>2025</v>
@@ -3546,30 +3765,30 @@
         <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G45">
         <v>322759</v>
       </c>
       <c r="H45" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I45" t="s">
         <v>24</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C46">
         <v>2025</v>
@@ -3581,30 +3800,30 @@
         <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>322764</v>
       </c>
       <c r="H46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I46" t="s">
         <v>24</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>2025</v>
@@ -3616,30 +3835,30 @@
         <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G47">
         <v>322804</v>
       </c>
       <c r="H47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I47" t="s">
         <v>24</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C48">
         <v>2025</v>
@@ -3651,30 +3870,30 @@
         <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G48">
         <v>322946</v>
       </c>
       <c r="H48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I48" t="s">
         <v>25</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K48" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C49">
         <v>2025</v>
@@ -3686,30 +3905,30 @@
         <v>25</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>323235</v>
       </c>
       <c r="H49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I49" t="s">
         <v>25</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K49" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C50">
         <v>2025</v>
@@ -3721,30 +3940,30 @@
         <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>323204</v>
       </c>
       <c r="H50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I50" t="s">
         <v>25</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K50" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C51">
         <v>2025</v>
@@ -3756,30 +3975,30 @@
         <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G51">
         <v>323802</v>
       </c>
       <c r="H51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I51" t="s">
         <v>25</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K51" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C52">
         <v>2025</v>
@@ -3791,30 +4010,30 @@
         <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G52">
         <v>323062</v>
       </c>
       <c r="H52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I52" t="s">
         <v>25</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K52" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C53">
         <v>2025</v>
@@ -3826,30 +4045,30 @@
         <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>323208</v>
       </c>
       <c r="H53" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I53" t="s">
         <v>25</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C54">
         <v>2025</v>
@@ -3861,30 +4080,30 @@
         <v>25</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G54">
         <v>322945</v>
       </c>
       <c r="H54" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I54" t="s">
         <v>25</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K54" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C55">
         <v>2025</v>
@@ -3896,30 +4115,30 @@
         <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G55">
         <v>323224</v>
       </c>
       <c r="H55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K55" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C56">
         <v>2025</v>
@@ -3931,30 +4150,30 @@
         <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G56">
         <v>323501</v>
       </c>
       <c r="H56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K56" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C57">
         <v>2025</v>
@@ -3966,30 +4185,30 @@
         <v>25</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G57">
         <v>323513</v>
       </c>
       <c r="H57" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K57" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C58">
         <v>2025</v>
@@ -3998,33 +4217,33 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G58">
         <v>323755</v>
       </c>
       <c r="H58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I58" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K58" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C59">
         <v>2025</v>
@@ -4033,33 +4252,33 @@
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G59">
         <v>324249</v>
       </c>
       <c r="H59" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I59" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K59" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C60">
         <v>2025</v>
@@ -4068,33 +4287,33 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G60">
         <v>324374</v>
       </c>
       <c r="H60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I60" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K60" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C61">
         <v>2025</v>
@@ -4103,33 +4322,33 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G61">
         <v>324412</v>
       </c>
       <c r="H61" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I61" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K61" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C62">
         <v>2025</v>
@@ -4138,33 +4357,33 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G62">
         <v>324452</v>
       </c>
       <c r="H62" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I62" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K62" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C63">
         <v>2025</v>
@@ -4173,33 +4392,33 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G63">
         <v>324454</v>
       </c>
       <c r="H63" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I63" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K63" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C64">
         <v>2025</v>
@@ -4208,33 +4427,33 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G64">
         <v>324470</v>
       </c>
       <c r="H64" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I64" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K64" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C65">
         <v>2025</v>
@@ -4243,33 +4462,33 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G65">
         <v>324061</v>
       </c>
       <c r="H65" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I65" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K65" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C66">
         <v>2025</v>
@@ -4278,33 +4497,33 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G66">
         <v>324124</v>
       </c>
       <c r="H66" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I66" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C67">
         <v>2025</v>
@@ -4313,33 +4532,33 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G67">
         <v>324349</v>
       </c>
       <c r="H67" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I67" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K67" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C68">
         <v>2025</v>
@@ -4348,33 +4567,33 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F68" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G68">
         <v>324521</v>
       </c>
       <c r="H68" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I68" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K68" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C69">
         <v>2025</v>
@@ -4383,33 +4602,33 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F69" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G69">
         <v>324156</v>
       </c>
       <c r="H69" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I69" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K69" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C70">
         <v>2025</v>
@@ -4418,33 +4637,33 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F70" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G70">
         <v>323946</v>
       </c>
       <c r="H70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I70" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K70" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C71">
         <v>2025</v>
@@ -4453,33 +4672,33 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G71">
         <v>324268</v>
       </c>
       <c r="H71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I71" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K71" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C72">
         <v>2025</v>
@@ -4488,33 +4707,33 @@
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F72" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G72">
         <v>324445</v>
       </c>
       <c r="H72" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I72" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K72" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C73">
         <v>2025</v>
@@ -4523,33 +4742,33 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F73" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G73">
         <v>324433</v>
       </c>
       <c r="H73" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I73" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K73" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C74">
         <v>2025</v>
@@ -4558,33 +4777,33 @@
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F74" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G74">
         <v>324537</v>
       </c>
       <c r="H74" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I74" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K74" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C75">
         <v>2025</v>
@@ -4593,33 +4812,33 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F75" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G75">
         <v>323804</v>
       </c>
       <c r="H75" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I75" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K75" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C76">
         <v>2025</v>
@@ -4628,33 +4847,33 @@
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F76" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G76">
         <v>324568</v>
       </c>
       <c r="H76" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I76" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K76" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C77">
         <v>2025</v>
@@ -4663,33 +4882,33 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F77" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G77">
         <v>324458</v>
       </c>
       <c r="H77" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I77" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K77" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C78">
         <v>2025</v>
@@ -4701,30 +4920,30 @@
         <v>26</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G78">
         <v>325459</v>
       </c>
       <c r="H78" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I78" t="s">
         <v>26</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K78" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C79">
         <v>2025</v>
@@ -4736,30 +4955,30 @@
         <v>26</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79">
         <v>325426</v>
       </c>
       <c r="H79" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I79" t="s">
         <v>26</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K79" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C80">
         <v>2025</v>
@@ -4771,30 +4990,30 @@
         <v>26</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G80">
         <v>324979</v>
       </c>
       <c r="H80" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I80" t="s">
         <v>26</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K80" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C81">
         <v>2025</v>
@@ -4806,30 +5025,30 @@
         <v>26</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81">
         <v>325038</v>
       </c>
       <c r="H81" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I81" t="s">
         <v>26</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K81" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C82">
         <v>2025</v>
@@ -4841,30 +5060,30 @@
         <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>324872</v>
       </c>
       <c r="H82" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I82" t="s">
         <v>26</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K82" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B83" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C83">
         <v>2025</v>
@@ -4873,33 +5092,33 @@
         <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F83" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G83">
         <v>325533</v>
       </c>
       <c r="H83" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I83" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K83" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C84">
         <v>2025</v>
@@ -4908,33 +5127,33 @@
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F84" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G84">
         <v>326568</v>
       </c>
       <c r="H84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I84" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K84" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C85">
         <v>2025</v>
@@ -4943,33 +5162,33 @@
         <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F85" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G85">
         <v>326746</v>
       </c>
       <c r="H85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I85" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K85" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C86">
         <v>2025</v>
@@ -4978,33 +5197,33 @@
         <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F86" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G86">
         <v>326421</v>
       </c>
       <c r="H86" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I86" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K86" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C87">
         <v>2025</v>
@@ -5013,33 +5232,33 @@
         <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F87" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G87">
         <v>326239</v>
       </c>
       <c r="H87" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I87" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K87" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C88">
         <v>2025</v>
@@ -5048,33 +5267,33 @@
         <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G88">
         <v>325743</v>
       </c>
       <c r="H88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I88" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K88" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C89">
         <v>2025</v>
@@ -5083,33 +5302,33 @@
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F89" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G89">
         <v>326190</v>
       </c>
       <c r="H89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I89" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K89" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C90">
         <v>2025</v>
@@ -5118,33 +5337,33 @@
         <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F90" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G90">
         <v>326324</v>
       </c>
       <c r="H90" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I90" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K90" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C91">
         <v>2025</v>
@@ -5153,33 +5372,33 @@
         <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F91" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G91">
         <v>325610</v>
       </c>
       <c r="H91" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I91" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K91" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B92" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C92">
         <v>2025</v>
@@ -5188,33 +5407,33 @@
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F92" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G92">
         <v>325625</v>
       </c>
       <c r="H92" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I92" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K92" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C93">
         <v>2025</v>
@@ -5223,33 +5442,33 @@
         <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F93" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G93">
         <v>326272</v>
       </c>
       <c r="H93" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I93" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K93" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B94" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C94">
         <v>2025</v>
@@ -5258,33 +5477,33 @@
         <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F94" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G94">
         <v>326453</v>
       </c>
       <c r="H94" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I94" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K94" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C95">
         <v>2025</v>
@@ -5293,33 +5512,33 @@
         <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F95" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G95">
         <v>326395</v>
       </c>
       <c r="H95" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I95" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K95" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C96">
         <v>2025</v>
@@ -5328,33 +5547,33 @@
         <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F96" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G96">
         <v>326400</v>
       </c>
       <c r="H96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I96" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K96" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B97" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C97">
         <v>2025</v>
@@ -5363,33 +5582,33 @@
         <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F97" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G97">
         <v>326407</v>
       </c>
       <c r="H97" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I97" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K97" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B98" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C98">
         <v>2025</v>
@@ -5398,33 +5617,33 @@
         <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F98" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G98">
         <v>326337</v>
       </c>
       <c r="H98" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I98" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K98" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C99">
         <v>2025</v>
@@ -5436,30 +5655,30 @@
         <v>27</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G99">
         <v>326610</v>
       </c>
       <c r="H99" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I99" t="s">
         <v>27</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K99" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B100" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C100">
         <v>2025</v>
@@ -5471,30 +5690,30 @@
         <v>27</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G100">
         <v>326729</v>
       </c>
       <c r="H100" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I100" t="s">
         <v>27</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K100" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C101">
         <v>2025</v>
@@ -5506,30 +5725,30 @@
         <v>27</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G101">
         <v>327344</v>
       </c>
       <c r="H101" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I101" t="s">
         <v>27</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K101" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B102" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C102">
         <v>2025</v>
@@ -5541,30 +5760,30 @@
         <v>27</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G102">
         <v>327101</v>
       </c>
       <c r="H102" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I102" t="s">
         <v>27</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K102" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B103" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C103">
         <v>2025</v>
@@ -5576,30 +5795,30 @@
         <v>27</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G103">
         <v>327168</v>
       </c>
       <c r="H103" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I103" t="s">
         <v>27</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K103" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B104" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C104">
         <v>2025</v>
@@ -5611,30 +5830,30 @@
         <v>27</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>327056</v>
       </c>
       <c r="H104" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I104" t="s">
         <v>27</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K104" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B105" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C105">
         <v>2025</v>
@@ -5646,30 +5865,30 @@
         <v>27</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G105">
         <v>327214</v>
       </c>
       <c r="H105" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I105" t="s">
         <v>27</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K105" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B106" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C106">
         <v>2025</v>
@@ -5681,30 +5900,30 @@
         <v>27</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G106">
         <v>327239</v>
       </c>
       <c r="H106" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I106" t="s">
         <v>27</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K106" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B107" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C107">
         <v>2025</v>
@@ -5716,30 +5935,30 @@
         <v>27</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107">
         <v>325722</v>
       </c>
       <c r="H107" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I107" t="s">
         <v>27</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K107" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B108" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C108">
         <v>2025</v>
@@ -5751,30 +5970,30 @@
         <v>27</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G108">
         <v>327031</v>
       </c>
       <c r="H108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I108" t="s">
         <v>27</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K108" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B109" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C109">
         <v>2025</v>
@@ -5786,30 +6005,30 @@
         <v>28</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G109">
         <v>327975</v>
       </c>
       <c r="H109" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I109" t="s">
         <v>28</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K109" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B110" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C110">
         <v>2025</v>
@@ -5821,30 +6040,30 @@
         <v>28</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G110">
         <v>328086</v>
       </c>
       <c r="H110" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I110" t="s">
         <v>28</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K110" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B111" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C111">
         <v>2025</v>
@@ -5856,30 +6075,30 @@
         <v>28</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G111">
         <v>328100</v>
       </c>
       <c r="H111" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I111" t="s">
         <v>28</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K111" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B112" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C112">
         <v>2025</v>
@@ -5891,30 +6110,30 @@
         <v>28</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G112">
         <v>327866</v>
       </c>
       <c r="H112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I112" t="s">
         <v>28</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K112" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B113" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C113">
         <v>2025</v>
@@ -5926,30 +6145,30 @@
         <v>28</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G113">
         <v>327870</v>
       </c>
       <c r="H113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I113" t="s">
         <v>28</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K113" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C114">
         <v>2025</v>
@@ -5961,30 +6180,30 @@
         <v>28</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G114">
         <v>327929</v>
       </c>
       <c r="H114" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I114" t="s">
         <v>28</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K114" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B115" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C115">
         <v>2025</v>
@@ -5996,30 +6215,30 @@
         <v>28</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G115">
         <v>327978</v>
       </c>
       <c r="H115" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I115" t="s">
         <v>28</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K115" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B116" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C116">
         <v>2025</v>
@@ -6031,30 +6250,30 @@
         <v>28</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G116">
         <v>327969</v>
       </c>
       <c r="H116" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I116" t="s">
         <v>28</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K116" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B117" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C117">
         <v>2025</v>
@@ -6066,30 +6285,30 @@
         <v>28</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G117">
         <v>327762</v>
       </c>
       <c r="H117" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I117" t="s">
         <v>28</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K117" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B118" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C118">
         <v>2025</v>
@@ -6101,30 +6320,30 @@
         <v>28</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G118">
         <v>327752</v>
       </c>
       <c r="H118" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I118" t="s">
         <v>28</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K118" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B119" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C119">
         <v>2025</v>
@@ -6136,30 +6355,30 @@
         <v>28</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G119">
         <v>327907</v>
       </c>
       <c r="H119" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I119" t="s">
         <v>28</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K119" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B120" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C120">
         <v>2025</v>
@@ -6171,30 +6390,30 @@
         <v>28</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G120">
         <v>327725</v>
       </c>
       <c r="H120" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I120" t="s">
         <v>28</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K120" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B121" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C121">
         <v>2025</v>
@@ -6206,30 +6425,30 @@
         <v>28</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G121">
         <v>328365</v>
       </c>
       <c r="H121" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I121" t="s">
         <v>28</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K121" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B122" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C122">
         <v>2025</v>
@@ -6241,30 +6460,30 @@
         <v>28</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G122">
         <v>327746</v>
       </c>
       <c r="H122" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I122" t="s">
         <v>28</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K122" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B123" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C123">
         <v>2025</v>
@@ -6276,22 +6495,1037 @@
         <v>28</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G123">
         <v>327872</v>
       </c>
       <c r="H123" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I123" t="s">
         <v>28</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K123" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
+        <v>48</v>
+      </c>
+      <c r="B124" t="s">
+        <v>53</v>
+      </c>
+      <c r="C124">
+        <v>2025</v>
+      </c>
+      <c r="D124">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>29</v>
+      </c>
+      <c r="F124" t="s">
+        <v>39</v>
+      </c>
+      <c r="G124">
+        <v>328250</v>
+      </c>
+      <c r="H124" t="s">
+        <v>43</v>
+      </c>
+      <c r="I124" t="s">
+        <v>29</v>
+      </c>
+      <c r="J124" t="s">
+        <v>45</v>
+      </c>
+      <c r="K124" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125" t="s">
+        <v>61</v>
+      </c>
+      <c r="C125">
+        <v>2025</v>
+      </c>
+      <c r="D125">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>29</v>
+      </c>
+      <c r="F125" t="s">
+        <v>39</v>
+      </c>
+      <c r="G125">
+        <v>329157</v>
+      </c>
+      <c r="H125" t="s">
+        <v>43</v>
+      </c>
+      <c r="I125" t="s">
+        <v>29</v>
+      </c>
+      <c r="J125" t="s">
+        <v>45</v>
+      </c>
+      <c r="K125" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" t="s">
+        <v>48</v>
+      </c>
+      <c r="B126" t="s">
+        <v>61</v>
+      </c>
+      <c r="C126">
+        <v>2025</v>
+      </c>
+      <c r="D126">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>29</v>
+      </c>
+      <c r="F126" t="s">
+        <v>39</v>
+      </c>
+      <c r="G126">
+        <v>329158</v>
+      </c>
+      <c r="H126" t="s">
+        <v>43</v>
+      </c>
+      <c r="I126" t="s">
+        <v>29</v>
+      </c>
+      <c r="J126" t="s">
+        <v>45</v>
+      </c>
+      <c r="K126" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" t="s">
+        <v>48</v>
+      </c>
+      <c r="B127" t="s">
+        <v>61</v>
+      </c>
+      <c r="C127">
+        <v>2025</v>
+      </c>
+      <c r="D127">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>29</v>
+      </c>
+      <c r="F127" t="s">
+        <v>39</v>
+      </c>
+      <c r="G127">
+        <v>329159</v>
+      </c>
+      <c r="H127" t="s">
+        <v>43</v>
+      </c>
+      <c r="I127" t="s">
+        <v>29</v>
+      </c>
+      <c r="J127" t="s">
+        <v>45</v>
+      </c>
+      <c r="K127" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" t="s">
+        <v>48</v>
+      </c>
+      <c r="B128" t="s">
+        <v>61</v>
+      </c>
+      <c r="C128">
+        <v>2025</v>
+      </c>
+      <c r="D128">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>29</v>
+      </c>
+      <c r="F128" t="s">
+        <v>39</v>
+      </c>
+      <c r="G128">
+        <v>329184</v>
+      </c>
+      <c r="H128" t="s">
+        <v>43</v>
+      </c>
+      <c r="I128" t="s">
+        <v>29</v>
+      </c>
+      <c r="J128" t="s">
+        <v>45</v>
+      </c>
+      <c r="K128" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" t="s">
+        <v>48</v>
+      </c>
+      <c r="B129" t="s">
+        <v>61</v>
+      </c>
+      <c r="C129">
+        <v>2025</v>
+      </c>
+      <c r="D129">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" t="s">
+        <v>39</v>
+      </c>
+      <c r="G129">
+        <v>329211</v>
+      </c>
+      <c r="H129" t="s">
+        <v>43</v>
+      </c>
+      <c r="I129" t="s">
+        <v>29</v>
+      </c>
+      <c r="J129" t="s">
+        <v>45</v>
+      </c>
+      <c r="K129" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" t="s">
+        <v>48</v>
+      </c>
+      <c r="B130" t="s">
+        <v>61</v>
+      </c>
+      <c r="C130">
+        <v>2025</v>
+      </c>
+      <c r="D130">
+        <v>12</v>
+      </c>
+      <c r="E130" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" t="s">
+        <v>39</v>
+      </c>
+      <c r="G130">
+        <v>329212</v>
+      </c>
+      <c r="H130" t="s">
+        <v>43</v>
+      </c>
+      <c r="I130" t="s">
+        <v>29</v>
+      </c>
+      <c r="J130" t="s">
+        <v>45</v>
+      </c>
+      <c r="K130" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" t="s">
+        <v>48</v>
+      </c>
+      <c r="B131" t="s">
+        <v>61</v>
+      </c>
+      <c r="C131">
+        <v>2025</v>
+      </c>
+      <c r="D131">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
+        <v>29</v>
+      </c>
+      <c r="F131" t="s">
+        <v>39</v>
+      </c>
+      <c r="G131">
+        <v>328837</v>
+      </c>
+      <c r="H131" t="s">
+        <v>43</v>
+      </c>
+      <c r="I131" t="s">
+        <v>29</v>
+      </c>
+      <c r="J131" t="s">
+        <v>45</v>
+      </c>
+      <c r="K131" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" t="s">
+        <v>48</v>
+      </c>
+      <c r="B132" t="s">
+        <v>61</v>
+      </c>
+      <c r="C132">
+        <v>2025</v>
+      </c>
+      <c r="D132">
+        <v>12</v>
+      </c>
+      <c r="E132" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" t="s">
+        <v>39</v>
+      </c>
+      <c r="G132">
+        <v>328838</v>
+      </c>
+      <c r="H132" t="s">
+        <v>43</v>
+      </c>
+      <c r="I132" t="s">
+        <v>29</v>
+      </c>
+      <c r="J132" t="s">
+        <v>45</v>
+      </c>
+      <c r="K132" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" t="s">
+        <v>48</v>
+      </c>
+      <c r="B133" t="s">
+        <v>61</v>
+      </c>
+      <c r="C133">
+        <v>2025</v>
+      </c>
+      <c r="D133">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" t="s">
+        <v>39</v>
+      </c>
+      <c r="G133">
+        <v>328843</v>
+      </c>
+      <c r="H133" t="s">
+        <v>43</v>
+      </c>
+      <c r="I133" t="s">
+        <v>29</v>
+      </c>
+      <c r="J133" t="s">
+        <v>45</v>
+      </c>
+      <c r="K133" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" t="s">
+        <v>48</v>
+      </c>
+      <c r="B134" t="s">
+        <v>61</v>
+      </c>
+      <c r="C134">
+        <v>2025</v>
+      </c>
+      <c r="D134">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>29</v>
+      </c>
+      <c r="F134" t="s">
+        <v>39</v>
+      </c>
+      <c r="G134">
+        <v>328855</v>
+      </c>
+      <c r="H134" t="s">
+        <v>43</v>
+      </c>
+      <c r="I134" t="s">
+        <v>29</v>
+      </c>
+      <c r="J134" t="s">
+        <v>45</v>
+      </c>
+      <c r="K134" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" t="s">
+        <v>48</v>
+      </c>
+      <c r="B135" t="s">
+        <v>61</v>
+      </c>
+      <c r="C135">
+        <v>2025</v>
+      </c>
+      <c r="D135">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>29</v>
+      </c>
+      <c r="F135" t="s">
+        <v>39</v>
+      </c>
+      <c r="G135">
+        <v>328856</v>
+      </c>
+      <c r="H135" t="s">
+        <v>43</v>
+      </c>
+      <c r="I135" t="s">
+        <v>29</v>
+      </c>
+      <c r="J135" t="s">
+        <v>45</v>
+      </c>
+      <c r="K135" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" t="s">
+        <v>48</v>
+      </c>
+      <c r="B136" t="s">
+        <v>61</v>
+      </c>
+      <c r="C136">
+        <v>2025</v>
+      </c>
+      <c r="D136">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>29</v>
+      </c>
+      <c r="F136" t="s">
+        <v>39</v>
+      </c>
+      <c r="G136">
+        <v>328858</v>
+      </c>
+      <c r="H136" t="s">
+        <v>43</v>
+      </c>
+      <c r="I136" t="s">
+        <v>29</v>
+      </c>
+      <c r="J136" t="s">
+        <v>45</v>
+      </c>
+      <c r="K136" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" t="s">
+        <v>48</v>
+      </c>
+      <c r="B137" t="s">
+        <v>61</v>
+      </c>
+      <c r="C137">
+        <v>2025</v>
+      </c>
+      <c r="D137">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>29</v>
+      </c>
+      <c r="F137" t="s">
+        <v>39</v>
+      </c>
+      <c r="G137">
+        <v>328900</v>
+      </c>
+      <c r="H137" t="s">
+        <v>43</v>
+      </c>
+      <c r="I137" t="s">
+        <v>29</v>
+      </c>
+      <c r="J137" t="s">
+        <v>45</v>
+      </c>
+      <c r="K137" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" t="s">
+        <v>48</v>
+      </c>
+      <c r="B138" t="s">
+        <v>61</v>
+      </c>
+      <c r="C138">
+        <v>2025</v>
+      </c>
+      <c r="D138">
+        <v>12</v>
+      </c>
+      <c r="E138" t="s">
+        <v>29</v>
+      </c>
+      <c r="F138" t="s">
+        <v>39</v>
+      </c>
+      <c r="G138">
+        <v>328940</v>
+      </c>
+      <c r="H138" t="s">
+        <v>43</v>
+      </c>
+      <c r="I138" t="s">
+        <v>29</v>
+      </c>
+      <c r="J138" t="s">
+        <v>45</v>
+      </c>
+      <c r="K138" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139">
+        <v>2025</v>
+      </c>
+      <c r="D139">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>29</v>
+      </c>
+      <c r="F139" t="s">
+        <v>39</v>
+      </c>
+      <c r="G139">
+        <v>328994</v>
+      </c>
+      <c r="H139" t="s">
+        <v>43</v>
+      </c>
+      <c r="I139" t="s">
+        <v>29</v>
+      </c>
+      <c r="J139" t="s">
+        <v>45</v>
+      </c>
+      <c r="K139" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" t="s">
+        <v>48</v>
+      </c>
+      <c r="B140" t="s">
+        <v>61</v>
+      </c>
+      <c r="C140">
+        <v>2025</v>
+      </c>
+      <c r="D140">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
+        <v>29</v>
+      </c>
+      <c r="F140" t="s">
+        <v>39</v>
+      </c>
+      <c r="G140">
+        <v>329011</v>
+      </c>
+      <c r="H140" t="s">
+        <v>43</v>
+      </c>
+      <c r="I140" t="s">
+        <v>29</v>
+      </c>
+      <c r="J140" t="s">
+        <v>45</v>
+      </c>
+      <c r="K140" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" t="s">
+        <v>48</v>
+      </c>
+      <c r="B141" t="s">
+        <v>61</v>
+      </c>
+      <c r="C141">
+        <v>2025</v>
+      </c>
+      <c r="D141">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
+        <v>29</v>
+      </c>
+      <c r="F141" t="s">
+        <v>39</v>
+      </c>
+      <c r="G141">
+        <v>329027</v>
+      </c>
+      <c r="H141" t="s">
+        <v>43</v>
+      </c>
+      <c r="I141" t="s">
+        <v>29</v>
+      </c>
+      <c r="J141" t="s">
+        <v>45</v>
+      </c>
+      <c r="K141" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" t="s">
+        <v>48</v>
+      </c>
+      <c r="B142" t="s">
+        <v>61</v>
+      </c>
+      <c r="C142">
+        <v>2025</v>
+      </c>
+      <c r="D142">
+        <v>12</v>
+      </c>
+      <c r="E142" t="s">
+        <v>29</v>
+      </c>
+      <c r="F142" t="s">
+        <v>39</v>
+      </c>
+      <c r="G142">
+        <v>329032</v>
+      </c>
+      <c r="H142" t="s">
+        <v>43</v>
+      </c>
+      <c r="I142" t="s">
+        <v>29</v>
+      </c>
+      <c r="J142" t="s">
+        <v>45</v>
+      </c>
+      <c r="K142" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" t="s">
+        <v>48</v>
+      </c>
+      <c r="B143" t="s">
+        <v>61</v>
+      </c>
+      <c r="C143">
+        <v>2025</v>
+      </c>
+      <c r="D143">
+        <v>12</v>
+      </c>
+      <c r="E143" t="s">
+        <v>29</v>
+      </c>
+      <c r="F143" t="s">
+        <v>39</v>
+      </c>
+      <c r="G143">
+        <v>329118</v>
+      </c>
+      <c r="H143" t="s">
+        <v>43</v>
+      </c>
+      <c r="I143" t="s">
+        <v>29</v>
+      </c>
+      <c r="J143" t="s">
+        <v>45</v>
+      </c>
+      <c r="K143" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" t="s">
+        <v>48</v>
+      </c>
+      <c r="B144" t="s">
+        <v>61</v>
+      </c>
+      <c r="C144">
+        <v>2025</v>
+      </c>
+      <c r="D144">
+        <v>12</v>
+      </c>
+      <c r="E144" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144" t="s">
+        <v>39</v>
+      </c>
+      <c r="G144">
+        <v>329119</v>
+      </c>
+      <c r="H144" t="s">
+        <v>43</v>
+      </c>
+      <c r="I144" t="s">
+        <v>29</v>
+      </c>
+      <c r="J144" t="s">
+        <v>45</v>
+      </c>
+      <c r="K144" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" t="s">
+        <v>48</v>
+      </c>
+      <c r="B145" t="s">
+        <v>61</v>
+      </c>
+      <c r="C145">
+        <v>2025</v>
+      </c>
+      <c r="D145">
+        <v>12</v>
+      </c>
+      <c r="E145" t="s">
+        <v>29</v>
+      </c>
+      <c r="F145" t="s">
+        <v>39</v>
+      </c>
+      <c r="G145">
+        <v>329120</v>
+      </c>
+      <c r="H145" t="s">
+        <v>43</v>
+      </c>
+      <c r="I145" t="s">
+        <v>29</v>
+      </c>
+      <c r="J145" t="s">
+        <v>45</v>
+      </c>
+      <c r="K145" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" t="s">
+        <v>48</v>
+      </c>
+      <c r="B146" t="s">
+        <v>58</v>
+      </c>
+      <c r="C146">
+        <v>2025</v>
+      </c>
+      <c r="D146">
+        <v>12</v>
+      </c>
+      <c r="E146" t="s">
+        <v>29</v>
+      </c>
+      <c r="F146" t="s">
+        <v>39</v>
+      </c>
+      <c r="G146">
+        <v>329363</v>
+      </c>
+      <c r="H146" t="s">
+        <v>43</v>
+      </c>
+      <c r="I146" t="s">
+        <v>29</v>
+      </c>
+      <c r="J146" t="s">
+        <v>44</v>
+      </c>
+      <c r="K146" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" t="s">
+        <v>62</v>
+      </c>
+      <c r="C147">
+        <v>2025</v>
+      </c>
+      <c r="D147">
+        <v>12</v>
+      </c>
+      <c r="E147" t="s">
+        <v>29</v>
+      </c>
+      <c r="F147" t="s">
+        <v>39</v>
+      </c>
+      <c r="G147">
+        <v>328068</v>
+      </c>
+      <c r="H147" t="s">
+        <v>43</v>
+      </c>
+      <c r="I147" t="s">
+        <v>29</v>
+      </c>
+      <c r="J147" t="s">
+        <v>45</v>
+      </c>
+      <c r="K147" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" t="s">
+        <v>48</v>
+      </c>
+      <c r="B148" t="s">
+        <v>51</v>
+      </c>
+      <c r="C148">
+        <v>2025</v>
+      </c>
+      <c r="D148">
+        <v>12</v>
+      </c>
+      <c r="E148" t="s">
+        <v>29</v>
+      </c>
+      <c r="F148" t="s">
+        <v>39</v>
+      </c>
+      <c r="G148">
+        <v>328549</v>
+      </c>
+      <c r="H148" t="s">
+        <v>43</v>
+      </c>
+      <c r="I148" t="s">
+        <v>29</v>
+      </c>
+      <c r="J148" t="s">
+        <v>45</v>
+      </c>
+      <c r="K148" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" t="s">
+        <v>48</v>
+      </c>
+      <c r="B149" t="s">
+        <v>51</v>
+      </c>
+      <c r="C149">
+        <v>2025</v>
+      </c>
+      <c r="D149">
+        <v>12</v>
+      </c>
+      <c r="E149" t="s">
+        <v>29</v>
+      </c>
+      <c r="F149" t="s">
+        <v>39</v>
+      </c>
+      <c r="G149">
+        <v>328559</v>
+      </c>
+      <c r="H149" t="s">
+        <v>43</v>
+      </c>
+      <c r="I149" t="s">
+        <v>29</v>
+      </c>
+      <c r="J149" t="s">
+        <v>45</v>
+      </c>
+      <c r="K149" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" t="s">
+        <v>48</v>
+      </c>
+      <c r="B150" t="s">
+        <v>51</v>
+      </c>
+      <c r="C150">
+        <v>2025</v>
+      </c>
+      <c r="D150">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>29</v>
+      </c>
+      <c r="F150" t="s">
+        <v>39</v>
+      </c>
+      <c r="G150">
+        <v>328565</v>
+      </c>
+      <c r="H150" t="s">
+        <v>43</v>
+      </c>
+      <c r="I150" t="s">
+        <v>29</v>
+      </c>
+      <c r="J150" t="s">
+        <v>45</v>
+      </c>
+      <c r="K150" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" t="s">
+        <v>48</v>
+      </c>
+      <c r="B151" t="s">
+        <v>51</v>
+      </c>
+      <c r="C151">
+        <v>2025</v>
+      </c>
+      <c r="D151">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
+        <v>29</v>
+      </c>
+      <c r="F151" t="s">
+        <v>39</v>
+      </c>
+      <c r="G151">
+        <v>328252</v>
+      </c>
+      <c r="H151" t="s">
+        <v>43</v>
+      </c>
+      <c r="I151" t="s">
+        <v>29</v>
+      </c>
+      <c r="J151" t="s">
+        <v>45</v>
+      </c>
+      <c r="K151" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" t="s">
+        <v>48</v>
+      </c>
+      <c r="B152" t="s">
+        <v>51</v>
+      </c>
+      <c r="C152">
+        <v>2025</v>
+      </c>
+      <c r="D152">
+        <v>12</v>
+      </c>
+      <c r="E152" t="s">
+        <v>29</v>
+      </c>
+      <c r="F152" t="s">
+        <v>39</v>
+      </c>
+      <c r="G152">
+        <v>328672</v>
+      </c>
+      <c r="H152" t="s">
+        <v>43</v>
+      </c>
+      <c r="I152" t="s">
+        <v>29</v>
+      </c>
+      <c r="J152" t="s">
+        <v>45</v>
+      </c>
+      <c r="K152" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="73">
   <si>
     <t>Setor</t>
   </si>
@@ -77,6 +77,9 @@
     <t>Kleberson Mathias</t>
   </si>
   <si>
+    <t>Mara neves</t>
+  </si>
+  <si>
     <t>06/01/2025</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
     <t>24/03/2025</t>
   </si>
   <si>
+    <t>31/03/2025</t>
+  </si>
+  <si>
     <t>10/01/2025</t>
   </si>
   <si>
@@ -135,6 +141,9 @@
   </si>
   <si>
     <t>28/03/2025</t>
+  </si>
+  <si>
+    <t>04/04/2025</t>
   </si>
   <si>
     <t>12/2024</t>
@@ -204,6 +213,9 @@
   </si>
   <si>
     <t>Jacyr Popenda</t>
+  </si>
+  <si>
+    <t>Sostenes Simoes</t>
   </si>
   <si>
     <t>17/02/2025</t>
@@ -579,7 +591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -634,25 +646,25 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2">
         <v>319336</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -669,25 +681,25 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>319567</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -704,25 +716,25 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4">
         <v>318959</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -739,25 +751,25 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5">
         <v>319462</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -774,25 +786,25 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>319177</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -809,25 +821,25 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7">
         <v>319857</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -844,25 +856,25 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>319602</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -879,25 +891,25 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>320063</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -914,25 +926,25 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>320403</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -949,25 +961,25 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>320607</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -984,25 +996,25 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>320215</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1019,25 +1031,25 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>319786</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1054,25 +1066,25 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>321476</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1089,25 +1101,25 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>321694</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1124,25 +1136,25 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G16">
         <v>322731</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1159,25 +1171,25 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G17">
         <v>322526</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1194,25 +1206,25 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <v>321751</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1229,25 +1241,25 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19">
         <v>321760</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1264,25 +1276,25 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G20">
         <v>322877</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1299,25 +1311,25 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G21">
         <v>322586</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1334,25 +1346,25 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>322053</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1369,25 +1381,25 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>322696</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1404,25 +1416,25 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>322164</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1439,25 +1451,25 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>323835</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1474,25 +1486,25 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G26">
         <v>323518</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1509,25 +1521,25 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>322776</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1544,25 +1556,25 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>322970</v>
       </c>
       <c r="H28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1579,25 +1591,25 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G29">
         <v>323566</v>
       </c>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1614,25 +1626,25 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>323716</v>
       </c>
       <c r="H30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1649,25 +1661,25 @@
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G31">
         <v>323717</v>
       </c>
       <c r="H31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1684,25 +1696,25 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G32">
         <v>323112</v>
       </c>
       <c r="H32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1719,25 +1731,25 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G33">
         <v>324474</v>
       </c>
       <c r="H33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1754,25 +1766,25 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G34">
         <v>324885</v>
       </c>
       <c r="H34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1789,25 +1801,25 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>324818</v>
       </c>
       <c r="H35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1824,25 +1836,25 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G36">
         <v>325086</v>
       </c>
       <c r="H36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1859,25 +1871,25 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>326665</v>
       </c>
       <c r="H37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K37" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1894,25 +1906,25 @@
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>327188</v>
       </c>
       <c r="H38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1929,25 +1941,25 @@
         <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G39">
         <v>327157</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1964,25 +1976,25 @@
         <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G40">
         <v>327605</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1999,25 +2011,25 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>328259</v>
       </c>
       <c r="H41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2034,25 +2046,25 @@
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G42">
         <v>328609</v>
       </c>
       <c r="H42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2069,25 +2081,25 @@
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G43">
         <v>328466</v>
       </c>
       <c r="H43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K43" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2104,25 +2116,25 @@
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G44">
         <v>329152</v>
       </c>
       <c r="H44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2139,25 +2151,25 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G45">
         <v>328925</v>
       </c>
       <c r="H45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2174,25 +2186,165 @@
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G46">
         <v>328456</v>
       </c>
       <c r="H46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>2025</v>
+      </c>
+      <c r="D47">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47">
+        <v>329259</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" t="s">
+        <v>48</v>
+      </c>
+      <c r="K47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>2025</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48">
+        <v>329279</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" t="s">
+        <v>48</v>
+      </c>
+      <c r="K48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>2025</v>
+      </c>
+      <c r="D49">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49">
+        <v>329831</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" t="s">
+        <v>48</v>
+      </c>
+      <c r="K49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>2025</v>
+      </c>
+      <c r="D50">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50">
+        <v>330421</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2202,7 +2354,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2245,10 +2397,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>2025</v>
@@ -2257,33 +2409,33 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2">
         <v>317296</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>2025</v>
@@ -2292,33 +2444,33 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>318826</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>2025</v>
@@ -2327,33 +2479,33 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4">
         <v>319181</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>2025</v>
@@ -2362,33 +2514,33 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G5">
         <v>319390</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>2025</v>
@@ -2397,33 +2549,33 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>316763</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>2025</v>
@@ -2432,33 +2584,33 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>315817</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>2025</v>
@@ -2467,33 +2619,33 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>319843</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>2025</v>
@@ -2502,33 +2654,33 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>319926</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>2025</v>
@@ -2537,33 +2689,33 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>319863</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>2025</v>
@@ -2572,33 +2724,33 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>319910</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>2025</v>
@@ -2607,33 +2759,33 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>320231</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>2025</v>
@@ -2642,33 +2794,33 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>319898</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>2025</v>
@@ -2677,33 +2829,33 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>320974</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>2025</v>
@@ -2712,33 +2864,33 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15">
         <v>320245</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>2025</v>
@@ -2747,33 +2899,33 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>320780</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C17">
         <v>2025</v>
@@ -2782,33 +2934,33 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>320854</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>2025</v>
@@ -2817,33 +2969,33 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G18">
         <v>313182</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>2025</v>
@@ -2852,33 +3004,33 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>320964</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>2025</v>
@@ -2887,33 +3039,33 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>320990</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C21">
         <v>2025</v>
@@ -2922,33 +3074,33 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G21">
         <v>321158</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>2025</v>
@@ -2957,33 +3109,33 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>320312</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>2025</v>
@@ -2992,33 +3144,33 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G23">
         <v>320458</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>2025</v>
@@ -3027,33 +3179,33 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G24">
         <v>320546</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C25">
         <v>2025</v>
@@ -3062,33 +3214,33 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G25">
         <v>320776</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C26">
         <v>2025</v>
@@ -3097,33 +3249,33 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>320861</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C27">
         <v>2025</v>
@@ -3132,33 +3284,33 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>320895</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C28">
         <v>2025</v>
@@ -3167,33 +3319,33 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>320916</v>
       </c>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <v>2025</v>
@@ -3202,33 +3354,33 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G29">
         <v>320941</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C30">
         <v>2025</v>
@@ -3237,33 +3389,33 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G30">
         <v>320942</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K30" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C31">
         <v>2025</v>
@@ -3272,33 +3424,33 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>320991</v>
       </c>
       <c r="H31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C32">
         <v>2025</v>
@@ -3307,33 +3459,33 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>321068</v>
       </c>
       <c r="H32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K32" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C33">
         <v>2025</v>
@@ -3342,33 +3494,33 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>320583</v>
       </c>
       <c r="H33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>2025</v>
@@ -3377,33 +3529,33 @@
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G34">
         <v>321500</v>
       </c>
       <c r="H34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <v>2025</v>
@@ -3412,33 +3564,33 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>321963</v>
       </c>
       <c r="H35" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C36">
         <v>2025</v>
@@ -3447,33 +3599,33 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G36">
         <v>321861</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>2025</v>
@@ -3482,33 +3634,33 @@
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>321648</v>
       </c>
       <c r="H37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K37" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>2025</v>
@@ -3517,33 +3669,33 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>321596</v>
       </c>
       <c r="H38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C39">
         <v>2025</v>
@@ -3552,33 +3704,33 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>322346</v>
       </c>
       <c r="H39" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K39" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C40">
         <v>2025</v>
@@ -3587,33 +3739,33 @@
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>321835</v>
       </c>
       <c r="H40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C41">
         <v>2025</v>
@@ -3622,33 +3774,33 @@
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>322897</v>
       </c>
       <c r="H41" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C42">
         <v>2025</v>
@@ -3657,33 +3809,33 @@
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G42">
         <v>322655</v>
       </c>
       <c r="H42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>2025</v>
@@ -3692,33 +3844,33 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G43">
         <v>322167</v>
       </c>
       <c r="H43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>2025</v>
@@ -3727,33 +3879,33 @@
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G44">
         <v>322927</v>
       </c>
       <c r="H44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C45">
         <v>2025</v>
@@ -3762,33 +3914,33 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G45">
         <v>322759</v>
       </c>
       <c r="H45" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K45" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C46">
         <v>2025</v>
@@ -3797,33 +3949,33 @@
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G46">
         <v>322764</v>
       </c>
       <c r="H46" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C47">
         <v>2025</v>
@@ -3832,33 +3984,33 @@
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>322804</v>
       </c>
       <c r="H47" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C48">
         <v>2025</v>
@@ -3867,33 +4019,33 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G48">
         <v>322946</v>
       </c>
       <c r="H48" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K48" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C49">
         <v>2025</v>
@@ -3902,33 +4054,33 @@
         <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G49">
         <v>323235</v>
       </c>
       <c r="H49" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K49" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C50">
         <v>2025</v>
@@ -3937,33 +4089,33 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G50">
         <v>323204</v>
       </c>
       <c r="H50" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K50" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C51">
         <v>2025</v>
@@ -3972,33 +4124,33 @@
         <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G51">
         <v>323802</v>
       </c>
       <c r="H51" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K51" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C52">
         <v>2025</v>
@@ -4007,33 +4159,33 @@
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G52">
         <v>323062</v>
       </c>
       <c r="H52" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K52" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C53">
         <v>2025</v>
@@ -4042,33 +4194,33 @@
         <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G53">
         <v>323208</v>
       </c>
       <c r="H53" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C54">
         <v>2025</v>
@@ -4077,33 +4229,33 @@
         <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G54">
         <v>322945</v>
       </c>
       <c r="H54" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K54" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C55">
         <v>2025</v>
@@ -4112,33 +4264,33 @@
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G55">
         <v>323224</v>
       </c>
       <c r="H55" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K55" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C56">
         <v>2025</v>
@@ -4147,33 +4299,33 @@
         <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>323501</v>
       </c>
       <c r="H56" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K56" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <v>2025</v>
@@ -4182,33 +4334,33 @@
         <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>323513</v>
       </c>
       <c r="H57" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K57" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C58">
         <v>2025</v>
@@ -4217,33 +4369,33 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G58">
         <v>323755</v>
       </c>
       <c r="H58" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I58" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K58" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C59">
         <v>2025</v>
@@ -4252,33 +4404,33 @@
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G59">
         <v>324249</v>
       </c>
       <c r="H59" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I59" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K59" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C60">
         <v>2025</v>
@@ -4287,33 +4439,33 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G60">
         <v>324374</v>
       </c>
       <c r="H60" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I60" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K60" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C61">
         <v>2025</v>
@@ -4322,33 +4474,33 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G61">
         <v>324412</v>
       </c>
       <c r="H61" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I61" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K61" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C62">
         <v>2025</v>
@@ -4357,33 +4509,33 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G62">
         <v>324452</v>
       </c>
       <c r="H62" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I62" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K62" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C63">
         <v>2025</v>
@@ -4392,33 +4544,33 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G63">
         <v>324454</v>
       </c>
       <c r="H63" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I63" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K63" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C64">
         <v>2025</v>
@@ -4427,33 +4579,33 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G64">
         <v>324470</v>
       </c>
       <c r="H64" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I64" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K64" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C65">
         <v>2025</v>
@@ -4462,33 +4614,33 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G65">
         <v>324061</v>
       </c>
       <c r="H65" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I65" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K65" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C66">
         <v>2025</v>
@@ -4497,33 +4649,33 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G66">
         <v>324124</v>
       </c>
       <c r="H66" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I66" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K66" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C67">
         <v>2025</v>
@@ -4532,33 +4684,33 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F67" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G67">
         <v>324349</v>
       </c>
       <c r="H67" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I67" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K67" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C68">
         <v>2025</v>
@@ -4567,33 +4719,33 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G68">
         <v>324521</v>
       </c>
       <c r="H68" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I68" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K68" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C69">
         <v>2025</v>
@@ -4602,33 +4754,33 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F69" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G69">
         <v>324156</v>
       </c>
       <c r="H69" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I69" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K69" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C70">
         <v>2025</v>
@@ -4637,33 +4789,33 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G70">
         <v>323946</v>
       </c>
       <c r="H70" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I70" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K70" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C71">
         <v>2025</v>
@@ -4672,33 +4824,33 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F71" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G71">
         <v>324268</v>
       </c>
       <c r="H71" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I71" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K71" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C72">
         <v>2025</v>
@@ -4707,33 +4859,33 @@
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G72">
         <v>324445</v>
       </c>
       <c r="H72" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I72" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K72" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C73">
         <v>2025</v>
@@ -4742,33 +4894,33 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F73" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G73">
         <v>324433</v>
       </c>
       <c r="H73" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I73" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K73" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C74">
         <v>2025</v>
@@ -4777,33 +4929,33 @@
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G74">
         <v>324537</v>
       </c>
       <c r="H74" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I74" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K74" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C75">
         <v>2025</v>
@@ -4812,33 +4964,33 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F75" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G75">
         <v>323804</v>
       </c>
       <c r="H75" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I75" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K75" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C76">
         <v>2025</v>
@@ -4847,33 +4999,33 @@
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F76" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G76">
         <v>324568</v>
       </c>
       <c r="H76" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I76" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K76" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C77">
         <v>2025</v>
@@ -4882,33 +5034,33 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F77" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G77">
         <v>324458</v>
       </c>
       <c r="H77" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I77" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K77" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C78">
         <v>2025</v>
@@ -4917,33 +5069,33 @@
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G78">
         <v>325459</v>
       </c>
       <c r="H78" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K78" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C79">
         <v>2025</v>
@@ -4952,33 +5104,33 @@
         <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G79">
         <v>325426</v>
       </c>
       <c r="H79" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I79" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K79" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C80">
         <v>2025</v>
@@ -4987,33 +5139,33 @@
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>324979</v>
       </c>
       <c r="H80" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I80" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K80" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C81">
         <v>2025</v>
@@ -5022,33 +5174,33 @@
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G81">
         <v>325038</v>
       </c>
       <c r="H81" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K81" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C82">
         <v>2025</v>
@@ -5057,33 +5209,33 @@
         <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G82">
         <v>324872</v>
       </c>
       <c r="H82" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K82" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C83">
         <v>2025</v>
@@ -5092,33 +5244,33 @@
         <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F83" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G83">
         <v>325533</v>
       </c>
       <c r="H83" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I83" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K83" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C84">
         <v>2025</v>
@@ -5127,33 +5279,33 @@
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F84" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G84">
         <v>326568</v>
       </c>
       <c r="H84" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I84" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K84" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B85" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C85">
         <v>2025</v>
@@ -5162,33 +5314,33 @@
         <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F85" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G85">
         <v>326746</v>
       </c>
       <c r="H85" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I85" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K85" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C86">
         <v>2025</v>
@@ -5197,33 +5349,33 @@
         <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F86" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G86">
         <v>326421</v>
       </c>
       <c r="H86" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I86" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K86" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C87">
         <v>2025</v>
@@ -5232,33 +5384,33 @@
         <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F87" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G87">
         <v>326239</v>
       </c>
       <c r="H87" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I87" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K87" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C88">
         <v>2025</v>
@@ -5267,33 +5419,33 @@
         <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G88">
         <v>325743</v>
       </c>
       <c r="H88" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I88" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K88" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C89">
         <v>2025</v>
@@ -5302,33 +5454,33 @@
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F89" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G89">
         <v>326190</v>
       </c>
       <c r="H89" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I89" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K89" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B90" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C90">
         <v>2025</v>
@@ -5337,33 +5489,33 @@
         <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F90" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G90">
         <v>326324</v>
       </c>
       <c r="H90" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I90" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K90" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B91" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C91">
         <v>2025</v>
@@ -5372,33 +5524,33 @@
         <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F91" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G91">
         <v>325610</v>
       </c>
       <c r="H91" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I91" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K91" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B92" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C92">
         <v>2025</v>
@@ -5407,33 +5559,33 @@
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F92" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G92">
         <v>325625</v>
       </c>
       <c r="H92" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I92" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K92" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B93" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C93">
         <v>2025</v>
@@ -5442,33 +5594,33 @@
         <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F93" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G93">
         <v>326272</v>
       </c>
       <c r="H93" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I93" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K93" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B94" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C94">
         <v>2025</v>
@@ -5477,33 +5629,33 @@
         <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F94" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G94">
         <v>326453</v>
       </c>
       <c r="H94" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I94" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K94" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B95" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C95">
         <v>2025</v>
@@ -5512,33 +5664,33 @@
         <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F95" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G95">
         <v>326395</v>
       </c>
       <c r="H95" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I95" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K95" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B96" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C96">
         <v>2025</v>
@@ -5547,33 +5699,33 @@
         <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F96" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G96">
         <v>326400</v>
       </c>
       <c r="H96" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I96" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K96" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B97" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C97">
         <v>2025</v>
@@ -5582,33 +5734,33 @@
         <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F97" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G97">
         <v>326407</v>
       </c>
       <c r="H97" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I97" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K97" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C98">
         <v>2025</v>
@@ -5617,33 +5769,33 @@
         <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F98" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G98">
         <v>326337</v>
       </c>
       <c r="H98" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I98" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K98" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C99">
         <v>2025</v>
@@ -5652,33 +5804,33 @@
         <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G99">
         <v>326610</v>
       </c>
       <c r="H99" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K99" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B100" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C100">
         <v>2025</v>
@@ -5687,33 +5839,33 @@
         <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G100">
         <v>326729</v>
       </c>
       <c r="H100" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K100" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C101">
         <v>2025</v>
@@ -5722,33 +5874,33 @@
         <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G101">
         <v>327344</v>
       </c>
       <c r="H101" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K101" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B102" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C102">
         <v>2025</v>
@@ -5757,33 +5909,33 @@
         <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G102">
         <v>327101</v>
       </c>
       <c r="H102" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K102" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B103" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C103">
         <v>2025</v>
@@ -5792,33 +5944,33 @@
         <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G103">
         <v>327168</v>
       </c>
       <c r="H103" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K103" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B104" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C104">
         <v>2025</v>
@@ -5827,33 +5979,33 @@
         <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G104">
         <v>327056</v>
       </c>
       <c r="H104" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K104" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B105" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C105">
         <v>2025</v>
@@ -5862,33 +6014,33 @@
         <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G105">
         <v>327214</v>
       </c>
       <c r="H105" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K105" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B106" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C106">
         <v>2025</v>
@@ -5897,33 +6049,33 @@
         <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <v>327239</v>
       </c>
       <c r="H106" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K106" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B107" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C107">
         <v>2025</v>
@@ -5932,33 +6084,33 @@
         <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G107">
         <v>325722</v>
       </c>
       <c r="H107" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K107" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B108" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C108">
         <v>2025</v>
@@ -5967,33 +6119,33 @@
         <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G108">
         <v>327031</v>
       </c>
       <c r="H108" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K108" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B109" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C109">
         <v>2025</v>
@@ -6002,33 +6154,33 @@
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G109">
         <v>327975</v>
       </c>
       <c r="H109" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K109" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B110" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C110">
         <v>2025</v>
@@ -6037,33 +6189,33 @@
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G110">
         <v>328086</v>
       </c>
       <c r="H110" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K110" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B111" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C111">
         <v>2025</v>
@@ -6072,33 +6224,33 @@
         <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G111">
         <v>328100</v>
       </c>
       <c r="H111" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K111" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B112" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C112">
         <v>2025</v>
@@ -6107,33 +6259,33 @@
         <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G112">
         <v>327866</v>
       </c>
       <c r="H112" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K112" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C113">
         <v>2025</v>
@@ -6142,33 +6294,33 @@
         <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G113">
         <v>327870</v>
       </c>
       <c r="H113" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I113" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K113" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B114" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C114">
         <v>2025</v>
@@ -6177,33 +6329,33 @@
         <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G114">
         <v>327929</v>
       </c>
       <c r="H114" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K114" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B115" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C115">
         <v>2025</v>
@@ -6212,33 +6364,33 @@
         <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G115">
         <v>327978</v>
       </c>
       <c r="H115" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K115" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B116" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C116">
         <v>2025</v>
@@ -6247,33 +6399,33 @@
         <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G116">
         <v>327969</v>
       </c>
       <c r="H116" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K116" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C117">
         <v>2025</v>
@@ -6282,33 +6434,33 @@
         <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F117" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G117">
         <v>327762</v>
       </c>
       <c r="H117" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I117" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K117" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B118" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C118">
         <v>2025</v>
@@ -6317,33 +6469,33 @@
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G118">
         <v>327752</v>
       </c>
       <c r="H118" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K118" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B119" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C119">
         <v>2025</v>
@@ -6352,33 +6504,33 @@
         <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G119">
         <v>327907</v>
       </c>
       <c r="H119" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K119" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B120" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C120">
         <v>2025</v>
@@ -6387,33 +6539,33 @@
         <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G120">
         <v>327725</v>
       </c>
       <c r="H120" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I120" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K120" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B121" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C121">
         <v>2025</v>
@@ -6422,33 +6574,33 @@
         <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G121">
         <v>328365</v>
       </c>
       <c r="H121" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K121" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B122" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C122">
         <v>2025</v>
@@ -6457,33 +6609,33 @@
         <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G122">
         <v>327746</v>
       </c>
       <c r="H122" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K122" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B123" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C123">
         <v>2025</v>
@@ -6492,33 +6644,33 @@
         <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G123">
         <v>327872</v>
       </c>
       <c r="H123" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K123" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B124" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C124">
         <v>2025</v>
@@ -6527,33 +6679,33 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G124">
         <v>328250</v>
       </c>
       <c r="H124" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K124" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B125" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C125">
         <v>2025</v>
@@ -6562,33 +6714,33 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G125">
         <v>329157</v>
       </c>
       <c r="H125" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K125" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B126" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C126">
         <v>2025</v>
@@ -6597,33 +6749,33 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G126">
         <v>329158</v>
       </c>
       <c r="H126" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K126" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B127" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C127">
         <v>2025</v>
@@ -6632,33 +6784,33 @@
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G127">
         <v>329159</v>
       </c>
       <c r="H127" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K127" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B128" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C128">
         <v>2025</v>
@@ -6667,33 +6819,33 @@
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G128">
         <v>329184</v>
       </c>
       <c r="H128" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K128" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B129" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C129">
         <v>2025</v>
@@ -6702,33 +6854,33 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G129">
         <v>329211</v>
       </c>
       <c r="H129" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K129" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B130" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C130">
         <v>2025</v>
@@ -6737,33 +6889,33 @@
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G130">
         <v>329212</v>
       </c>
       <c r="H130" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K130" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B131" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C131">
         <v>2025</v>
@@ -6772,33 +6924,33 @@
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G131">
         <v>328837</v>
       </c>
       <c r="H131" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K131" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B132" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C132">
         <v>2025</v>
@@ -6807,33 +6959,33 @@
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G132">
         <v>328838</v>
       </c>
       <c r="H132" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K132" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B133" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C133">
         <v>2025</v>
@@ -6842,33 +6994,33 @@
         <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G133">
         <v>328843</v>
       </c>
       <c r="H133" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K133" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B134" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C134">
         <v>2025</v>
@@ -6877,33 +7029,33 @@
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G134">
         <v>328855</v>
       </c>
       <c r="H134" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K134" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B135" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C135">
         <v>2025</v>
@@ -6912,33 +7064,33 @@
         <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G135">
         <v>328856</v>
       </c>
       <c r="H135" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K135" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B136" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C136">
         <v>2025</v>
@@ -6947,33 +7099,33 @@
         <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G136">
         <v>328858</v>
       </c>
       <c r="H136" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I136" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K136" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B137" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C137">
         <v>2025</v>
@@ -6982,33 +7134,33 @@
         <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G137">
         <v>328900</v>
       </c>
       <c r="H137" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K137" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B138" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C138">
         <v>2025</v>
@@ -7017,33 +7169,33 @@
         <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G138">
         <v>328940</v>
       </c>
       <c r="H138" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I138" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K138" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B139" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C139">
         <v>2025</v>
@@ -7052,33 +7204,33 @@
         <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G139">
         <v>328994</v>
       </c>
       <c r="H139" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I139" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K139" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B140" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C140">
         <v>2025</v>
@@ -7087,33 +7239,33 @@
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G140">
         <v>329011</v>
       </c>
       <c r="H140" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K140" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B141" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C141">
         <v>2025</v>
@@ -7122,33 +7274,33 @@
         <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G141">
         <v>329027</v>
       </c>
       <c r="H141" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K141" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B142" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C142">
         <v>2025</v>
@@ -7157,33 +7309,33 @@
         <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G142">
         <v>329032</v>
       </c>
       <c r="H142" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K142" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B143" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C143">
         <v>2025</v>
@@ -7192,33 +7344,33 @@
         <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G143">
         <v>329118</v>
       </c>
       <c r="H143" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I143" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K143" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B144" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C144">
         <v>2025</v>
@@ -7227,33 +7379,33 @@
         <v>12</v>
       </c>
       <c r="E144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G144">
         <v>329119</v>
       </c>
       <c r="H144" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K144" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B145" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C145">
         <v>2025</v>
@@ -7262,33 +7414,33 @@
         <v>12</v>
       </c>
       <c r="E145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G145">
         <v>329120</v>
       </c>
       <c r="H145" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K145" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B146" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C146">
         <v>2025</v>
@@ -7297,33 +7449,33 @@
         <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G146">
         <v>329363</v>
       </c>
       <c r="H146" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J146" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K146" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B147" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C147">
         <v>2025</v>
@@ -7332,33 +7484,33 @@
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G147">
         <v>328068</v>
       </c>
       <c r="H147" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K147" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B148" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C148">
         <v>2025</v>
@@ -7367,33 +7519,33 @@
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G148">
         <v>328549</v>
       </c>
       <c r="H148" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K148" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B149" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C149">
         <v>2025</v>
@@ -7402,33 +7554,33 @@
         <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G149">
         <v>328559</v>
       </c>
       <c r="H149" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I149" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K149" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B150" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C150">
         <v>2025</v>
@@ -7437,33 +7589,33 @@
         <v>12</v>
       </c>
       <c r="E150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G150">
         <v>328565</v>
       </c>
       <c r="H150" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K150" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B151" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C151">
         <v>2025</v>
@@ -7472,33 +7624,33 @@
         <v>12</v>
       </c>
       <c r="E151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G151">
         <v>328252</v>
       </c>
       <c r="H151" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K151" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B152" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C152">
         <v>2025</v>
@@ -7507,25 +7659,305 @@
         <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G152">
         <v>328672</v>
       </c>
       <c r="H152" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K152" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" t="s">
+        <v>51</v>
+      </c>
+      <c r="B153" t="s">
+        <v>64</v>
+      </c>
+      <c r="C153">
+        <v>2025</v>
+      </c>
+      <c r="D153">
+        <v>13</v>
+      </c>
+      <c r="E153" t="s">
+        <v>31</v>
+      </c>
+      <c r="F153" t="s">
+        <v>42</v>
+      </c>
+      <c r="G153">
+        <v>329559</v>
+      </c>
+      <c r="H153" t="s">
+        <v>46</v>
+      </c>
+      <c r="I153" t="s">
+        <v>31</v>
+      </c>
+      <c r="J153" t="s">
+        <v>48</v>
+      </c>
+      <c r="K153" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" t="s">
+        <v>51</v>
+      </c>
+      <c r="B154" t="s">
+        <v>52</v>
+      </c>
+      <c r="C154">
+        <v>2025</v>
+      </c>
+      <c r="D154">
+        <v>13</v>
+      </c>
+      <c r="E154" t="s">
+        <v>31</v>
+      </c>
+      <c r="F154" t="s">
+        <v>42</v>
+      </c>
+      <c r="G154">
+        <v>330101</v>
+      </c>
+      <c r="H154" t="s">
+        <v>46</v>
+      </c>
+      <c r="I154" t="s">
+        <v>31</v>
+      </c>
+      <c r="J154" t="s">
+        <v>48</v>
+      </c>
+      <c r="K154" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" t="s">
+        <v>51</v>
+      </c>
+      <c r="B155" t="s">
+        <v>53</v>
+      </c>
+      <c r="C155">
+        <v>2025</v>
+      </c>
+      <c r="D155">
+        <v>13</v>
+      </c>
+      <c r="E155" t="s">
+        <v>31</v>
+      </c>
+      <c r="F155" t="s">
+        <v>42</v>
+      </c>
+      <c r="G155">
+        <v>329439</v>
+      </c>
+      <c r="H155" t="s">
+        <v>46</v>
+      </c>
+      <c r="I155" t="s">
+        <v>31</v>
+      </c>
+      <c r="J155" t="s">
+        <v>47</v>
+      </c>
+      <c r="K155" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" t="s">
+        <v>51</v>
+      </c>
+      <c r="B156" t="s">
+        <v>55</v>
+      </c>
+      <c r="C156">
+        <v>2025</v>
+      </c>
+      <c r="D156">
+        <v>13</v>
+      </c>
+      <c r="E156" t="s">
+        <v>31</v>
+      </c>
+      <c r="F156" t="s">
+        <v>42</v>
+      </c>
+      <c r="G156">
+        <v>329517</v>
+      </c>
+      <c r="H156" t="s">
+        <v>46</v>
+      </c>
+      <c r="I156" t="s">
+        <v>31</v>
+      </c>
+      <c r="J156" t="s">
+        <v>48</v>
+      </c>
+      <c r="K156" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" t="s">
+        <v>51</v>
+      </c>
+      <c r="B157" t="s">
+        <v>55</v>
+      </c>
+      <c r="C157">
+        <v>2025</v>
+      </c>
+      <c r="D157">
+        <v>13</v>
+      </c>
+      <c r="E157" t="s">
+        <v>31</v>
+      </c>
+      <c r="F157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G157">
+        <v>330241</v>
+      </c>
+      <c r="H157" t="s">
+        <v>46</v>
+      </c>
+      <c r="I157" t="s">
+        <v>31</v>
+      </c>
+      <c r="J157" t="s">
+        <v>48</v>
+      </c>
+      <c r="K157" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" t="s">
+        <v>51</v>
+      </c>
+      <c r="B158" t="s">
+        <v>66</v>
+      </c>
+      <c r="C158">
+        <v>2025</v>
+      </c>
+      <c r="D158">
+        <v>13</v>
+      </c>
+      <c r="E158" t="s">
+        <v>31</v>
+      </c>
+      <c r="F158" t="s">
+        <v>42</v>
+      </c>
+      <c r="G158">
+        <v>329432</v>
+      </c>
+      <c r="H158" t="s">
+        <v>46</v>
+      </c>
+      <c r="I158" t="s">
+        <v>31</v>
+      </c>
+      <c r="J158" t="s">
+        <v>48</v>
+      </c>
+      <c r="K158" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" t="s">
+        <v>51</v>
+      </c>
+      <c r="B159" t="s">
+        <v>66</v>
+      </c>
+      <c r="C159">
+        <v>2025</v>
+      </c>
+      <c r="D159">
+        <v>13</v>
+      </c>
+      <c r="E159" t="s">
+        <v>31</v>
+      </c>
+      <c r="F159" t="s">
+        <v>42</v>
+      </c>
+      <c r="G159">
+        <v>329854</v>
+      </c>
+      <c r="H159" t="s">
+        <v>46</v>
+      </c>
+      <c r="I159" t="s">
+        <v>31</v>
+      </c>
+      <c r="J159" t="s">
+        <v>47</v>
+      </c>
+      <c r="K159" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" t="s">
+        <v>51</v>
+      </c>
+      <c r="B160" t="s">
+        <v>66</v>
+      </c>
+      <c r="C160">
+        <v>2025</v>
+      </c>
+      <c r="D160">
+        <v>13</v>
+      </c>
+      <c r="E160" t="s">
+        <v>31</v>
+      </c>
+      <c r="F160" t="s">
+        <v>42</v>
+      </c>
+      <c r="G160">
+        <v>329889</v>
+      </c>
+      <c r="H160" t="s">
+        <v>46</v>
+      </c>
+      <c r="I160" t="s">
+        <v>31</v>
+      </c>
+      <c r="J160" t="s">
+        <v>48</v>
+      </c>
+      <c r="K160" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -221,10 +221,10 @@
     <t>05/2025</t>
   </si>
   <si>
-    <t>Pendente</t>
+    <t>Resolvido</t>
   </si>
   <si>
-    <t>Resolvido</t>
+    <t>Pendente</t>
   </si>
   <si>
     <t>Willian Jones</t>
@@ -809,7 +809,7 @@
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
         <v>70</v>
@@ -844,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
         <v>70</v>
@@ -879,7 +879,7 @@
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s">
         <v>70</v>
@@ -914,7 +914,7 @@
         <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7" t="s">
         <v>70</v>
@@ -949,7 +949,7 @@
         <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
         <v>70</v>
@@ -984,7 +984,7 @@
         <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
         <v>70</v>
@@ -1019,7 +1019,7 @@
         <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s">
         <v>70</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s">
         <v>70</v>
@@ -1159,7 +1159,7 @@
         <v>27</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K14" t="s">
         <v>70</v>
@@ -1194,7 +1194,7 @@
         <v>27</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K15" t="s">
         <v>70</v>
@@ -1229,7 +1229,7 @@
         <v>28</v>
       </c>
       <c r="J16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K16" t="s">
         <v>70</v>
@@ -1264,7 +1264,7 @@
         <v>28</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s">
         <v>70</v>
@@ -1299,7 +1299,7 @@
         <v>28</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18" t="s">
         <v>70</v>
@@ -1334,7 +1334,7 @@
         <v>28</v>
       </c>
       <c r="J19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s">
         <v>70</v>
@@ -1369,7 +1369,7 @@
         <v>28</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
         <v>70</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s">
         <v>70</v>
@@ -1439,7 +1439,7 @@
         <v>28</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K22" t="s">
         <v>70</v>
@@ -1474,7 +1474,7 @@
         <v>28</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s">
         <v>70</v>
@@ -1509,7 +1509,7 @@
         <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K24" t="s">
         <v>70</v>
@@ -1544,7 +1544,7 @@
         <v>29</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K25" t="s">
         <v>70</v>
@@ -1579,7 +1579,7 @@
         <v>29</v>
       </c>
       <c r="J26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K26" t="s">
         <v>70</v>
@@ -1614,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K27" t="s">
         <v>70</v>
@@ -1684,7 +1684,7 @@
         <v>29</v>
       </c>
       <c r="J29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K29" t="s">
         <v>70</v>
@@ -1719,7 +1719,7 @@
         <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K30" t="s">
         <v>70</v>
@@ -1754,7 +1754,7 @@
         <v>29</v>
       </c>
       <c r="J31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K31" t="s">
         <v>70</v>
@@ -1789,7 +1789,7 @@
         <v>29</v>
       </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K32" t="s">
         <v>70</v>
@@ -1824,7 +1824,7 @@
         <v>30</v>
       </c>
       <c r="J33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K33" t="s">
         <v>70</v>
@@ -1859,7 +1859,7 @@
         <v>30</v>
       </c>
       <c r="J34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K34" t="s">
         <v>70</v>
@@ -1894,7 +1894,7 @@
         <v>30</v>
       </c>
       <c r="J35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K35" t="s">
         <v>70</v>
@@ -1929,7 +1929,7 @@
         <v>30</v>
       </c>
       <c r="J36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K36" t="s">
         <v>70</v>
@@ -1964,7 +1964,7 @@
         <v>31</v>
       </c>
       <c r="J37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K37" t="s">
         <v>20</v>
@@ -2034,7 +2034,7 @@
         <v>32</v>
       </c>
       <c r="J39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K39" t="s">
         <v>20</v>
@@ -2104,7 +2104,7 @@
         <v>33</v>
       </c>
       <c r="J41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K41" t="s">
         <v>20</v>
@@ -2139,7 +2139,7 @@
         <v>33</v>
       </c>
       <c r="J42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K42" t="s">
         <v>20</v>
@@ -2174,7 +2174,7 @@
         <v>33</v>
       </c>
       <c r="J43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K43" t="s">
         <v>20</v>
@@ -2209,7 +2209,7 @@
         <v>33</v>
       </c>
       <c r="J44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K44" t="s">
         <v>20</v>
@@ -2244,7 +2244,7 @@
         <v>33</v>
       </c>
       <c r="J45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K45" t="s">
         <v>20</v>
@@ -2279,7 +2279,7 @@
         <v>33</v>
       </c>
       <c r="J46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K46" t="s">
         <v>20</v>
@@ -2314,7 +2314,7 @@
         <v>34</v>
       </c>
       <c r="J47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K47" t="s">
         <v>20</v>
@@ -2349,7 +2349,7 @@
         <v>34</v>
       </c>
       <c r="J48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K48" t="s">
         <v>20</v>
@@ -2384,7 +2384,7 @@
         <v>34</v>
       </c>
       <c r="J49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K49" t="s">
         <v>20</v>
@@ -2419,7 +2419,7 @@
         <v>34</v>
       </c>
       <c r="J50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K50" t="s">
         <v>20</v>
@@ -2454,7 +2454,7 @@
         <v>35</v>
       </c>
       <c r="J51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K51" t="s">
         <v>20</v>
@@ -2489,7 +2489,7 @@
         <v>35</v>
       </c>
       <c r="J52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K52" t="s">
         <v>20</v>
@@ -2524,7 +2524,7 @@
         <v>35</v>
       </c>
       <c r="J53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K53" t="s">
         <v>20</v>
@@ -2559,7 +2559,7 @@
         <v>35</v>
       </c>
       <c r="J54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K54" t="s">
         <v>20</v>
@@ -2594,7 +2594,7 @@
         <v>35</v>
       </c>
       <c r="J55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K55" t="s">
         <v>20</v>
@@ -2629,7 +2629,7 @@
         <v>36</v>
       </c>
       <c r="J56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K56" t="s">
         <v>20</v>
@@ -2664,7 +2664,7 @@
         <v>36</v>
       </c>
       <c r="J57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K57" t="s">
         <v>20</v>
@@ -2699,7 +2699,7 @@
         <v>36</v>
       </c>
       <c r="J58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K58" t="s">
         <v>20</v>
@@ -2734,7 +2734,7 @@
         <v>36</v>
       </c>
       <c r="J59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K59" t="s">
         <v>20</v>
@@ -2769,7 +2769,7 @@
         <v>37</v>
       </c>
       <c r="J60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K60" t="s">
         <v>20</v>
@@ -2804,7 +2804,7 @@
         <v>37</v>
       </c>
       <c r="J61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K61" t="s">
         <v>20</v>
@@ -2839,7 +2839,7 @@
         <v>37</v>
       </c>
       <c r="J62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K62" t="s">
         <v>20</v>
@@ -2874,7 +2874,7 @@
         <v>37</v>
       </c>
       <c r="J63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K63" t="s">
         <v>20</v>
@@ -2909,7 +2909,7 @@
         <v>37</v>
       </c>
       <c r="J64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K64" t="s">
         <v>20</v>
@@ -2944,7 +2944,7 @@
         <v>37</v>
       </c>
       <c r="J65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K65" t="s">
         <v>20</v>
@@ -2979,7 +2979,7 @@
         <v>38</v>
       </c>
       <c r="J66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K66" t="s">
         <v>20</v>
@@ -3049,7 +3049,7 @@
         <v>39</v>
       </c>
       <c r="J68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K68" t="s">
         <v>20</v>
@@ -3084,7 +3084,7 @@
         <v>39</v>
       </c>
       <c r="J69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K69" t="s">
         <v>20</v>
@@ -3119,7 +3119,7 @@
         <v>39</v>
       </c>
       <c r="J70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K70" t="s">
         <v>20</v>
@@ -3189,7 +3189,7 @@
         <v>39</v>
       </c>
       <c r="J72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K72" t="s">
         <v>20</v>
@@ -3224,7 +3224,7 @@
         <v>39</v>
       </c>
       <c r="J73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K73" t="s">
         <v>20</v>
@@ -3259,7 +3259,7 @@
         <v>39</v>
       </c>
       <c r="J74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K74" t="s">
         <v>20</v>
@@ -3294,7 +3294,7 @@
         <v>39</v>
       </c>
       <c r="J75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K75" t="s">
         <v>20</v>
@@ -3329,7 +3329,7 @@
         <v>39</v>
       </c>
       <c r="J76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K76" t="s">
         <v>20</v>
@@ -3364,7 +3364,7 @@
         <v>39</v>
       </c>
       <c r="J77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K77" t="s">
         <v>20</v>
@@ -3399,7 +3399,7 @@
         <v>39</v>
       </c>
       <c r="J78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K78" t="s">
         <v>20</v>
@@ -3434,7 +3434,7 @@
         <v>39</v>
       </c>
       <c r="J79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K79" t="s">
         <v>20</v>
@@ -3469,7 +3469,7 @@
         <v>41</v>
       </c>
       <c r="J80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K80" t="s">
         <v>20</v>
@@ -3504,7 +3504,7 @@
         <v>41</v>
       </c>
       <c r="J81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K81" t="s">
         <v>20</v>
@@ -3539,7 +3539,7 @@
         <v>41</v>
       </c>
       <c r="J82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K82" t="s">
         <v>20</v>
@@ -3574,7 +3574,7 @@
         <v>41</v>
       </c>
       <c r="J83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K83" t="s">
         <v>20</v>
@@ -3609,7 +3609,7 @@
         <v>41</v>
       </c>
       <c r="J84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K84" t="s">
         <v>20</v>
@@ -3644,7 +3644,7 @@
         <v>41</v>
       </c>
       <c r="J85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K85" t="s">
         <v>20</v>
@@ -3679,7 +3679,7 @@
         <v>42</v>
       </c>
       <c r="J86" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K86" t="s">
         <v>20</v>
@@ -3714,7 +3714,7 @@
         <v>42</v>
       </c>
       <c r="J87" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K87" t="s">
         <v>20</v>
@@ -3749,7 +3749,7 @@
         <v>42</v>
       </c>
       <c r="J88" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K88" t="s">
         <v>20</v>
@@ -3784,7 +3784,7 @@
         <v>42</v>
       </c>
       <c r="J89" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K89" t="s">
         <v>20</v>
@@ -3867,7 +3867,7 @@
         <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K2" t="s">
         <v>98</v>
@@ -3902,7 +3902,7 @@
         <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s">
         <v>98</v>
@@ -3937,7 +3937,7 @@
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
         <v>98</v>
@@ -3972,7 +3972,7 @@
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
         <v>98</v>
@@ -4077,7 +4077,7 @@
         <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
         <v>98</v>
@@ -4112,7 +4112,7 @@
         <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
         <v>98</v>
@@ -4147,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s">
         <v>98</v>
@@ -4217,7 +4217,7 @@
         <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s">
         <v>98</v>
@@ -4252,7 +4252,7 @@
         <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s">
         <v>98</v>
@@ -4287,7 +4287,7 @@
         <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K14" t="s">
         <v>98</v>
@@ -4322,7 +4322,7 @@
         <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K15" t="s">
         <v>98</v>
@@ -4357,7 +4357,7 @@
         <v>26</v>
       </c>
       <c r="J16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K16" t="s">
         <v>98</v>
@@ -4392,7 +4392,7 @@
         <v>26</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K17" t="s">
         <v>98</v>
@@ -4427,7 +4427,7 @@
         <v>26</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18" t="s">
         <v>98</v>
@@ -4462,7 +4462,7 @@
         <v>26</v>
       </c>
       <c r="J19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s">
         <v>98</v>
@@ -4497,7 +4497,7 @@
         <v>26</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
         <v>98</v>
@@ -4532,7 +4532,7 @@
         <v>26</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s">
         <v>98</v>
@@ -4602,7 +4602,7 @@
         <v>26</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K23" t="s">
         <v>98</v>
@@ -4637,7 +4637,7 @@
         <v>26</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K24" t="s">
         <v>98</v>
@@ -4672,7 +4672,7 @@
         <v>26</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K25" t="s">
         <v>98</v>
@@ -4707,7 +4707,7 @@
         <v>26</v>
       </c>
       <c r="J26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K26" t="s">
         <v>98</v>
@@ -4742,7 +4742,7 @@
         <v>26</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K27" t="s">
         <v>98</v>
@@ -4777,7 +4777,7 @@
         <v>26</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K28" t="s">
         <v>98</v>
@@ -4812,7 +4812,7 @@
         <v>26</v>
       </c>
       <c r="J29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K29" t="s">
         <v>98</v>
@@ -4847,7 +4847,7 @@
         <v>26</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K30" t="s">
         <v>98</v>
@@ -4882,7 +4882,7 @@
         <v>26</v>
       </c>
       <c r="J31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K31" t="s">
         <v>98</v>
@@ -4917,7 +4917,7 @@
         <v>26</v>
       </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K32" t="s">
         <v>98</v>
@@ -4952,7 +4952,7 @@
         <v>26</v>
       </c>
       <c r="J33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K33" t="s">
         <v>98</v>
@@ -4987,7 +4987,7 @@
         <v>27</v>
       </c>
       <c r="J34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K34" t="s">
         <v>98</v>
@@ -5022,7 +5022,7 @@
         <v>27</v>
       </c>
       <c r="J35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K35" t="s">
         <v>98</v>
@@ -5057,7 +5057,7 @@
         <v>27</v>
       </c>
       <c r="J36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K36" t="s">
         <v>98</v>
@@ -5092,7 +5092,7 @@
         <v>27</v>
       </c>
       <c r="J37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K37" t="s">
         <v>98</v>
@@ -5127,7 +5127,7 @@
         <v>27</v>
       </c>
       <c r="J38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K38" t="s">
         <v>98</v>
@@ -5162,7 +5162,7 @@
         <v>28</v>
       </c>
       <c r="J39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K39" t="s">
         <v>98</v>
@@ -5197,7 +5197,7 @@
         <v>28</v>
       </c>
       <c r="J40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K40" t="s">
         <v>98</v>
@@ -5232,7 +5232,7 @@
         <v>28</v>
       </c>
       <c r="J41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K41" t="s">
         <v>98</v>
@@ -5267,7 +5267,7 @@
         <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K42" t="s">
         <v>98</v>
@@ -5302,7 +5302,7 @@
         <v>28</v>
       </c>
       <c r="J43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K43" t="s">
         <v>98</v>
@@ -5337,7 +5337,7 @@
         <v>28</v>
       </c>
       <c r="J44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K44" t="s">
         <v>98</v>
@@ -5372,7 +5372,7 @@
         <v>28</v>
       </c>
       <c r="J45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K45" t="s">
         <v>98</v>
@@ -5407,7 +5407,7 @@
         <v>28</v>
       </c>
       <c r="J46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K46" t="s">
         <v>98</v>
@@ -5442,7 +5442,7 @@
         <v>28</v>
       </c>
       <c r="J47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K47" t="s">
         <v>98</v>
@@ -5477,7 +5477,7 @@
         <v>29</v>
       </c>
       <c r="J48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K48" t="s">
         <v>98</v>
@@ -5512,7 +5512,7 @@
         <v>29</v>
       </c>
       <c r="J49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K49" t="s">
         <v>98</v>
@@ -5547,7 +5547,7 @@
         <v>29</v>
       </c>
       <c r="J50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K50" t="s">
         <v>98</v>
@@ -5582,7 +5582,7 @@
         <v>29</v>
       </c>
       <c r="J51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K51" t="s">
         <v>98</v>
@@ -5617,7 +5617,7 @@
         <v>29</v>
       </c>
       <c r="J52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K52" t="s">
         <v>98</v>
@@ -5652,7 +5652,7 @@
         <v>29</v>
       </c>
       <c r="J53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K53" t="s">
         <v>98</v>
@@ -5687,7 +5687,7 @@
         <v>29</v>
       </c>
       <c r="J54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K54" t="s">
         <v>98</v>
@@ -5722,7 +5722,7 @@
         <v>29</v>
       </c>
       <c r="J55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K55" t="s">
         <v>98</v>
@@ -5757,7 +5757,7 @@
         <v>29</v>
       </c>
       <c r="J56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K56" t="s">
         <v>98</v>
@@ -5792,7 +5792,7 @@
         <v>29</v>
       </c>
       <c r="J57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K57" t="s">
         <v>98</v>
@@ -5862,7 +5862,7 @@
         <v>93</v>
       </c>
       <c r="J59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K59" t="s">
         <v>98</v>
@@ -5897,7 +5897,7 @@
         <v>93</v>
       </c>
       <c r="J60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K60" t="s">
         <v>98</v>
@@ -5932,7 +5932,7 @@
         <v>93</v>
       </c>
       <c r="J61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K61" t="s">
         <v>98</v>
@@ -5967,7 +5967,7 @@
         <v>93</v>
       </c>
       <c r="J62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K62" t="s">
         <v>98</v>
@@ -6002,7 +6002,7 @@
         <v>93</v>
       </c>
       <c r="J63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K63" t="s">
         <v>98</v>
@@ -6037,7 +6037,7 @@
         <v>93</v>
       </c>
       <c r="J64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K64" t="s">
         <v>98</v>
@@ -6072,7 +6072,7 @@
         <v>93</v>
       </c>
       <c r="J65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K65" t="s">
         <v>98</v>
@@ -6107,7 +6107,7 @@
         <v>93</v>
       </c>
       <c r="J66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K66" t="s">
         <v>98</v>
@@ -6142,7 +6142,7 @@
         <v>93</v>
       </c>
       <c r="J67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K67" t="s">
         <v>98</v>
@@ -6177,7 +6177,7 @@
         <v>93</v>
       </c>
       <c r="J68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K68" t="s">
         <v>98</v>
@@ -6212,7 +6212,7 @@
         <v>93</v>
       </c>
       <c r="J69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K69" t="s">
         <v>98</v>
@@ -6247,7 +6247,7 @@
         <v>93</v>
       </c>
       <c r="J70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K70" t="s">
         <v>98</v>
@@ -6282,7 +6282,7 @@
         <v>93</v>
       </c>
       <c r="J71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K71" t="s">
         <v>98</v>
@@ -6317,7 +6317,7 @@
         <v>93</v>
       </c>
       <c r="J72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K72" t="s">
         <v>98</v>
@@ -6352,7 +6352,7 @@
         <v>93</v>
       </c>
       <c r="J73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K73" t="s">
         <v>98</v>
@@ -6387,7 +6387,7 @@
         <v>93</v>
       </c>
       <c r="J74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K74" t="s">
         <v>98</v>
@@ -6422,7 +6422,7 @@
         <v>93</v>
       </c>
       <c r="J75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K75" t="s">
         <v>98</v>
@@ -6457,7 +6457,7 @@
         <v>93</v>
       </c>
       <c r="J76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K76" t="s">
         <v>98</v>
@@ -6492,7 +6492,7 @@
         <v>93</v>
       </c>
       <c r="J77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K77" t="s">
         <v>98</v>
@@ -6527,7 +6527,7 @@
         <v>30</v>
       </c>
       <c r="J78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K78" t="s">
         <v>98</v>
@@ -6562,7 +6562,7 @@
         <v>30</v>
       </c>
       <c r="J79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K79" t="s">
         <v>98</v>
@@ -6597,7 +6597,7 @@
         <v>30</v>
       </c>
       <c r="J80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K80" t="s">
         <v>98</v>
@@ -6632,7 +6632,7 @@
         <v>30</v>
       </c>
       <c r="J81" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K81" t="s">
         <v>98</v>
@@ -6667,7 +6667,7 @@
         <v>30</v>
       </c>
       <c r="J82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K82" t="s">
         <v>98</v>
@@ -6702,7 +6702,7 @@
         <v>94</v>
       </c>
       <c r="J83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K83" t="s">
         <v>98</v>
@@ -6737,7 +6737,7 @@
         <v>94</v>
       </c>
       <c r="J84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K84" t="s">
         <v>98</v>
@@ -6772,7 +6772,7 @@
         <v>94</v>
       </c>
       <c r="J85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K85" t="s">
         <v>98</v>
@@ -6807,7 +6807,7 @@
         <v>94</v>
       </c>
       <c r="J86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K86" t="s">
         <v>98</v>
@@ -6842,7 +6842,7 @@
         <v>94</v>
       </c>
       <c r="J87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K87" t="s">
         <v>98</v>
@@ -6877,7 +6877,7 @@
         <v>94</v>
       </c>
       <c r="J88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K88" t="s">
         <v>98</v>
@@ -6912,7 +6912,7 @@
         <v>94</v>
       </c>
       <c r="J89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K89" t="s">
         <v>98</v>
@@ -6947,7 +6947,7 @@
         <v>94</v>
       </c>
       <c r="J90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K90" t="s">
         <v>98</v>
@@ -6982,7 +6982,7 @@
         <v>94</v>
       </c>
       <c r="J91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K91" t="s">
         <v>98</v>
@@ -7017,7 +7017,7 @@
         <v>94</v>
       </c>
       <c r="J92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K92" t="s">
         <v>98</v>
@@ -7052,7 +7052,7 @@
         <v>94</v>
       </c>
       <c r="J93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K93" t="s">
         <v>98</v>
@@ -7087,7 +7087,7 @@
         <v>94</v>
       </c>
       <c r="J94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K94" t="s">
         <v>98</v>
@@ -7122,7 +7122,7 @@
         <v>94</v>
       </c>
       <c r="J95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K95" t="s">
         <v>98</v>
@@ -7157,7 +7157,7 @@
         <v>94</v>
       </c>
       <c r="J96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K96" t="s">
         <v>98</v>
@@ -7192,7 +7192,7 @@
         <v>94</v>
       </c>
       <c r="J97" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K97" t="s">
         <v>98</v>
@@ -7262,7 +7262,7 @@
         <v>31</v>
       </c>
       <c r="J99" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K99" t="s">
         <v>98</v>
@@ -7297,7 +7297,7 @@
         <v>31</v>
       </c>
       <c r="J100" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K100" t="s">
         <v>98</v>
@@ -7332,7 +7332,7 @@
         <v>31</v>
       </c>
       <c r="J101" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K101" t="s">
         <v>98</v>
@@ -7367,7 +7367,7 @@
         <v>31</v>
       </c>
       <c r="J102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K102" t="s">
         <v>98</v>
@@ -7402,7 +7402,7 @@
         <v>31</v>
       </c>
       <c r="J103" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K103" t="s">
         <v>98</v>
@@ -7437,7 +7437,7 @@
         <v>31</v>
       </c>
       <c r="J104" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K104" t="s">
         <v>98</v>
@@ -7472,7 +7472,7 @@
         <v>31</v>
       </c>
       <c r="J105" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K105" t="s">
         <v>98</v>
@@ -7507,7 +7507,7 @@
         <v>31</v>
       </c>
       <c r="J106" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K106" t="s">
         <v>98</v>
@@ -7542,7 +7542,7 @@
         <v>31</v>
       </c>
       <c r="J107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K107" t="s">
         <v>98</v>
@@ -7577,7 +7577,7 @@
         <v>31</v>
       </c>
       <c r="J108" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K108" t="s">
         <v>98</v>
@@ -7612,7 +7612,7 @@
         <v>32</v>
       </c>
       <c r="J109" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K109" t="s">
         <v>98</v>
@@ -7647,7 +7647,7 @@
         <v>32</v>
       </c>
       <c r="J110" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K110" t="s">
         <v>98</v>
@@ -7682,7 +7682,7 @@
         <v>32</v>
       </c>
       <c r="J111" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K111" t="s">
         <v>98</v>
@@ -7717,7 +7717,7 @@
         <v>32</v>
       </c>
       <c r="J112" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K112" t="s">
         <v>98</v>
@@ -7752,7 +7752,7 @@
         <v>32</v>
       </c>
       <c r="J113" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K113" t="s">
         <v>98</v>
@@ -7787,7 +7787,7 @@
         <v>32</v>
       </c>
       <c r="J114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K114" t="s">
         <v>98</v>
@@ -7822,7 +7822,7 @@
         <v>32</v>
       </c>
       <c r="J115" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K115" t="s">
         <v>98</v>
@@ -7857,7 +7857,7 @@
         <v>32</v>
       </c>
       <c r="J116" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K116" t="s">
         <v>98</v>
@@ -7892,7 +7892,7 @@
         <v>32</v>
       </c>
       <c r="J117" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K117" t="s">
         <v>98</v>
@@ -7927,7 +7927,7 @@
         <v>32</v>
       </c>
       <c r="J118" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K118" t="s">
         <v>98</v>
@@ -7962,7 +7962,7 @@
         <v>32</v>
       </c>
       <c r="J119" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K119" t="s">
         <v>98</v>
@@ -7997,7 +7997,7 @@
         <v>32</v>
       </c>
       <c r="J120" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K120" t="s">
         <v>98</v>
@@ -8032,7 +8032,7 @@
         <v>32</v>
       </c>
       <c r="J121" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K121" t="s">
         <v>98</v>
@@ -8067,7 +8067,7 @@
         <v>32</v>
       </c>
       <c r="J122" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K122" t="s">
         <v>98</v>
@@ -8102,7 +8102,7 @@
         <v>32</v>
       </c>
       <c r="J123" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K123" t="s">
         <v>98</v>
@@ -8137,7 +8137,7 @@
         <v>33</v>
       </c>
       <c r="J124" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K124" t="s">
         <v>98</v>
@@ -8172,7 +8172,7 @@
         <v>33</v>
       </c>
       <c r="J125" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K125" t="s">
         <v>98</v>
@@ -8207,7 +8207,7 @@
         <v>33</v>
       </c>
       <c r="J126" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K126" t="s">
         <v>98</v>
@@ -8242,7 +8242,7 @@
         <v>33</v>
       </c>
       <c r="J127" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K127" t="s">
         <v>98</v>
@@ -8277,7 +8277,7 @@
         <v>33</v>
       </c>
       <c r="J128" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K128" t="s">
         <v>98</v>
@@ -8312,7 +8312,7 @@
         <v>33</v>
       </c>
       <c r="J129" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K129" t="s">
         <v>98</v>
@@ -8347,7 +8347,7 @@
         <v>33</v>
       </c>
       <c r="J130" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K130" t="s">
         <v>98</v>
@@ -8382,7 +8382,7 @@
         <v>33</v>
       </c>
       <c r="J131" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K131" t="s">
         <v>98</v>
@@ -8417,7 +8417,7 @@
         <v>33</v>
       </c>
       <c r="J132" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K132" t="s">
         <v>98</v>
@@ -8452,7 +8452,7 @@
         <v>33</v>
       </c>
       <c r="J133" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K133" t="s">
         <v>98</v>
@@ -8487,7 +8487,7 @@
         <v>33</v>
       </c>
       <c r="J134" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K134" t="s">
         <v>98</v>
@@ -8522,7 +8522,7 @@
         <v>33</v>
       </c>
       <c r="J135" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K135" t="s">
         <v>98</v>
@@ -8557,7 +8557,7 @@
         <v>33</v>
       </c>
       <c r="J136" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K136" t="s">
         <v>98</v>
@@ -8592,7 +8592,7 @@
         <v>33</v>
       </c>
       <c r="J137" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K137" t="s">
         <v>98</v>
@@ -8627,7 +8627,7 @@
         <v>33</v>
       </c>
       <c r="J138" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K138" t="s">
         <v>98</v>
@@ -8662,7 +8662,7 @@
         <v>33</v>
       </c>
       <c r="J139" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K139" t="s">
         <v>98</v>
@@ -8697,7 +8697,7 @@
         <v>33</v>
       </c>
       <c r="J140" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K140" t="s">
         <v>98</v>
@@ -8732,7 +8732,7 @@
         <v>33</v>
       </c>
       <c r="J141" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K141" t="s">
         <v>98</v>
@@ -8767,7 +8767,7 @@
         <v>33</v>
       </c>
       <c r="J142" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K142" t="s">
         <v>98</v>
@@ -8802,7 +8802,7 @@
         <v>33</v>
       </c>
       <c r="J143" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K143" t="s">
         <v>98</v>
@@ -8837,7 +8837,7 @@
         <v>33</v>
       </c>
       <c r="J144" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K144" t="s">
         <v>98</v>
@@ -8872,7 +8872,7 @@
         <v>33</v>
       </c>
       <c r="J145" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K145" t="s">
         <v>98</v>
@@ -8942,7 +8942,7 @@
         <v>33</v>
       </c>
       <c r="J147" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K147" t="s">
         <v>98</v>
@@ -8977,7 +8977,7 @@
         <v>33</v>
       </c>
       <c r="J148" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K148" t="s">
         <v>98</v>
@@ -9012,7 +9012,7 @@
         <v>33</v>
       </c>
       <c r="J149" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K149" t="s">
         <v>98</v>
@@ -9047,7 +9047,7 @@
         <v>33</v>
       </c>
       <c r="J150" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K150" t="s">
         <v>98</v>
@@ -9082,7 +9082,7 @@
         <v>33</v>
       </c>
       <c r="J151" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K151" t="s">
         <v>98</v>
@@ -9117,7 +9117,7 @@
         <v>33</v>
       </c>
       <c r="J152" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K152" t="s">
         <v>98</v>
@@ -9152,7 +9152,7 @@
         <v>34</v>
       </c>
       <c r="J153" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K153" t="s">
         <v>98</v>
@@ -9187,7 +9187,7 @@
         <v>34</v>
       </c>
       <c r="J154" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K154" t="s">
         <v>98</v>
@@ -9222,7 +9222,7 @@
         <v>34</v>
       </c>
       <c r="J155" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K155" t="s">
         <v>98</v>
@@ -9257,7 +9257,7 @@
         <v>34</v>
       </c>
       <c r="J156" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K156" t="s">
         <v>98</v>
@@ -9292,7 +9292,7 @@
         <v>34</v>
       </c>
       <c r="J157" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K157" t="s">
         <v>98</v>
@@ -9327,7 +9327,7 @@
         <v>34</v>
       </c>
       <c r="J158" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K158" t="s">
         <v>98</v>
@@ -9397,7 +9397,7 @@
         <v>34</v>
       </c>
       <c r="J160" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K160" t="s">
         <v>98</v>
@@ -9432,7 +9432,7 @@
         <v>35</v>
       </c>
       <c r="J161" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K161" t="s">
         <v>98</v>
@@ -9537,7 +9537,7 @@
         <v>35</v>
       </c>
       <c r="J164" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K164" t="s">
         <v>98</v>
@@ -9572,7 +9572,7 @@
         <v>35</v>
       </c>
       <c r="J165" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K165" t="s">
         <v>98</v>
@@ -9607,7 +9607,7 @@
         <v>35</v>
       </c>
       <c r="J166" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K166" t="s">
         <v>98</v>
@@ -9642,7 +9642,7 @@
         <v>35</v>
       </c>
       <c r="J167" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K167" t="s">
         <v>98</v>
@@ -9677,7 +9677,7 @@
         <v>35</v>
       </c>
       <c r="J168" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K168" t="s">
         <v>98</v>
@@ -9712,7 +9712,7 @@
         <v>35</v>
       </c>
       <c r="J169" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K169" t="s">
         <v>98</v>
@@ -9747,7 +9747,7 @@
         <v>35</v>
       </c>
       <c r="J170" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K170" t="s">
         <v>98</v>
@@ -9782,7 +9782,7 @@
         <v>35</v>
       </c>
       <c r="J171" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K171" t="s">
         <v>98</v>
@@ -9817,7 +9817,7 @@
         <v>35</v>
       </c>
       <c r="J172" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K172" t="s">
         <v>98</v>
@@ -9852,7 +9852,7 @@
         <v>35</v>
       </c>
       <c r="J173" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K173" t="s">
         <v>98</v>
@@ -9922,7 +9922,7 @@
         <v>35</v>
       </c>
       <c r="J175" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K175" t="s">
         <v>98</v>
@@ -9957,7 +9957,7 @@
         <v>35</v>
       </c>
       <c r="J176" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K176" t="s">
         <v>98</v>
@@ -10027,7 +10027,7 @@
         <v>35</v>
       </c>
       <c r="J178" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K178" t="s">
         <v>98</v>
@@ -10062,7 +10062,7 @@
         <v>36</v>
       </c>
       <c r="J179" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K179" t="s">
         <v>98</v>
@@ -10237,7 +10237,7 @@
         <v>36</v>
       </c>
       <c r="J184" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K184" t="s">
         <v>98</v>
@@ -10272,7 +10272,7 @@
         <v>36</v>
       </c>
       <c r="J185" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K185" t="s">
         <v>98</v>
@@ -10307,7 +10307,7 @@
         <v>36</v>
       </c>
       <c r="J186" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K186" t="s">
         <v>98</v>
@@ -10342,7 +10342,7 @@
         <v>36</v>
       </c>
       <c r="J187" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K187" t="s">
         <v>98</v>
@@ -10517,7 +10517,7 @@
         <v>36</v>
       </c>
       <c r="J192" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K192" t="s">
         <v>98</v>
@@ -10552,7 +10552,7 @@
         <v>36</v>
       </c>
       <c r="J193" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K193" t="s">
         <v>98</v>
@@ -10587,7 +10587,7 @@
         <v>36</v>
       </c>
       <c r="J194" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K194" t="s">
         <v>98</v>
@@ -10762,7 +10762,7 @@
         <v>36</v>
       </c>
       <c r="J199" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K199" t="s">
         <v>98</v>
@@ -10832,7 +10832,7 @@
         <v>36</v>
       </c>
       <c r="J201" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K201" t="s">
         <v>98</v>
@@ -10867,7 +10867,7 @@
         <v>36</v>
       </c>
       <c r="J202" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K202" t="s">
         <v>98</v>
@@ -10902,7 +10902,7 @@
         <v>36</v>
       </c>
       <c r="J203" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K203" t="s">
         <v>98</v>
@@ -10937,7 +10937,7 @@
         <v>36</v>
       </c>
       <c r="J204" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K204" t="s">
         <v>98</v>
@@ -10972,7 +10972,7 @@
         <v>36</v>
       </c>
       <c r="J205" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K205" t="s">
         <v>98</v>
@@ -11007,7 +11007,7 @@
         <v>36</v>
       </c>
       <c r="J206" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K206" t="s">
         <v>98</v>
@@ -11077,7 +11077,7 @@
         <v>36</v>
       </c>
       <c r="J208" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K208" t="s">
         <v>98</v>
@@ -11112,7 +11112,7 @@
         <v>36</v>
       </c>
       <c r="J209" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K209" t="s">
         <v>98</v>
@@ -11147,7 +11147,7 @@
         <v>36</v>
       </c>
       <c r="J210" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K210" t="s">
         <v>98</v>
@@ -11182,7 +11182,7 @@
         <v>36</v>
       </c>
       <c r="J211" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K211" t="s">
         <v>98</v>
@@ -11217,7 +11217,7 @@
         <v>37</v>
       </c>
       <c r="J212" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K212" t="s">
         <v>98</v>
@@ -11252,7 +11252,7 @@
         <v>37</v>
       </c>
       <c r="J213" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K213" t="s">
         <v>98</v>
@@ -11287,7 +11287,7 @@
         <v>37</v>
       </c>
       <c r="J214" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K214" t="s">
         <v>98</v>
@@ -11322,7 +11322,7 @@
         <v>37</v>
       </c>
       <c r="J215" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K215" t="s">
         <v>98</v>
@@ -11357,7 +11357,7 @@
         <v>37</v>
       </c>
       <c r="J216" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K216" t="s">
         <v>98</v>
@@ -11392,7 +11392,7 @@
         <v>37</v>
       </c>
       <c r="J217" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K217" t="s">
         <v>98</v>
@@ -11427,7 +11427,7 @@
         <v>37</v>
       </c>
       <c r="J218" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K218" t="s">
         <v>98</v>
@@ -11462,7 +11462,7 @@
         <v>37</v>
       </c>
       <c r="J219" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K219" t="s">
         <v>98</v>
@@ -11497,7 +11497,7 @@
         <v>37</v>
       </c>
       <c r="J220" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K220" t="s">
         <v>98</v>
@@ -11532,7 +11532,7 @@
         <v>37</v>
       </c>
       <c r="J221" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K221" t="s">
         <v>98</v>
@@ -11567,7 +11567,7 @@
         <v>37</v>
       </c>
       <c r="J222" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K222" t="s">
         <v>98</v>
@@ -11602,7 +11602,7 @@
         <v>37</v>
       </c>
       <c r="J223" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K223" t="s">
         <v>98</v>
@@ -11637,7 +11637,7 @@
         <v>37</v>
       </c>
       <c r="J224" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K224" t="s">
         <v>98</v>
@@ -11672,7 +11672,7 @@
         <v>37</v>
       </c>
       <c r="J225" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K225" t="s">
         <v>98</v>
@@ -11707,7 +11707,7 @@
         <v>37</v>
       </c>
       <c r="J226" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K226" t="s">
         <v>98</v>
@@ -11742,7 +11742,7 @@
         <v>37</v>
       </c>
       <c r="J227" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K227" t="s">
         <v>98</v>
@@ -11777,7 +11777,7 @@
         <v>37</v>
       </c>
       <c r="J228" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K228" t="s">
         <v>98</v>
@@ -11847,7 +11847,7 @@
         <v>37</v>
       </c>
       <c r="J230" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K230" t="s">
         <v>98</v>
@@ -11917,7 +11917,7 @@
         <v>37</v>
       </c>
       <c r="J232" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K232" t="s">
         <v>98</v>
@@ -11987,7 +11987,7 @@
         <v>38</v>
       </c>
       <c r="J234" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K234" t="s">
         <v>98</v>
@@ -12022,7 +12022,7 @@
         <v>38</v>
       </c>
       <c r="J235" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K235" t="s">
         <v>98</v>
@@ -12127,7 +12127,7 @@
         <v>38</v>
       </c>
       <c r="J238" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K238" t="s">
         <v>98</v>
@@ -12162,7 +12162,7 @@
         <v>38</v>
       </c>
       <c r="J239" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K239" t="s">
         <v>98</v>
@@ -12197,7 +12197,7 @@
         <v>38</v>
       </c>
       <c r="J240" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K240" t="s">
         <v>98</v>
@@ -12232,7 +12232,7 @@
         <v>38</v>
       </c>
       <c r="J241" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K241" t="s">
         <v>98</v>
@@ -12267,7 +12267,7 @@
         <v>38</v>
       </c>
       <c r="J242" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K242" t="s">
         <v>98</v>
@@ -12302,7 +12302,7 @@
         <v>38</v>
       </c>
       <c r="J243" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K243" t="s">
         <v>98</v>
@@ -12337,7 +12337,7 @@
         <v>38</v>
       </c>
       <c r="J244" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K244" t="s">
         <v>98</v>
@@ -12372,7 +12372,7 @@
         <v>39</v>
       </c>
       <c r="J245" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K245" t="s">
         <v>98</v>
@@ -12407,7 +12407,7 @@
         <v>39</v>
       </c>
       <c r="J246" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K246" t="s">
         <v>98</v>
@@ -12442,7 +12442,7 @@
         <v>39</v>
       </c>
       <c r="J247" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K247" t="s">
         <v>98</v>
@@ -12477,7 +12477,7 @@
         <v>39</v>
       </c>
       <c r="J248" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K248" t="s">
         <v>98</v>
@@ -12512,7 +12512,7 @@
         <v>39</v>
       </c>
       <c r="J249" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K249" t="s">
         <v>98</v>
@@ -12547,7 +12547,7 @@
         <v>39</v>
       </c>
       <c r="J250" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K250" t="s">
         <v>98</v>
@@ -12582,7 +12582,7 @@
         <v>39</v>
       </c>
       <c r="J251" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K251" t="s">
         <v>98</v>
@@ -12617,7 +12617,7 @@
         <v>39</v>
       </c>
       <c r="J252" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K252" t="s">
         <v>98</v>
@@ -12652,7 +12652,7 @@
         <v>39</v>
       </c>
       <c r="J253" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K253" t="s">
         <v>98</v>
@@ -12687,7 +12687,7 @@
         <v>39</v>
       </c>
       <c r="J254" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K254" t="s">
         <v>98</v>
@@ -12722,7 +12722,7 @@
         <v>40</v>
       </c>
       <c r="J255" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K255" t="s">
         <v>98</v>
@@ -12757,7 +12757,7 @@
         <v>40</v>
       </c>
       <c r="J256" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K256" t="s">
         <v>98</v>
@@ -12792,7 +12792,7 @@
         <v>40</v>
       </c>
       <c r="J257" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K257" t="s">
         <v>98</v>
@@ -12827,7 +12827,7 @@
         <v>40</v>
       </c>
       <c r="J258" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K258" t="s">
         <v>98</v>
@@ -12862,7 +12862,7 @@
         <v>40</v>
       </c>
       <c r="J259" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K259" t="s">
         <v>98</v>
@@ -12897,7 +12897,7 @@
         <v>40</v>
       </c>
       <c r="J260" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K260" t="s">
         <v>98</v>
@@ -12932,7 +12932,7 @@
         <v>40</v>
       </c>
       <c r="J261" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K261" t="s">
         <v>98</v>
@@ -12967,7 +12967,7 @@
         <v>40</v>
       </c>
       <c r="J262" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K262" t="s">
         <v>98</v>
@@ -13002,7 +13002,7 @@
         <v>40</v>
       </c>
       <c r="J263" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K263" t="s">
         <v>98</v>
@@ -13037,7 +13037,7 @@
         <v>40</v>
       </c>
       <c r="J264" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K264" t="s">
         <v>98</v>
@@ -13072,7 +13072,7 @@
         <v>41</v>
       </c>
       <c r="J265" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K265" t="s">
         <v>98</v>
@@ -13107,7 +13107,7 @@
         <v>41</v>
       </c>
       <c r="J266" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K266" t="s">
         <v>98</v>
@@ -13142,7 +13142,7 @@
         <v>41</v>
       </c>
       <c r="J267" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K267" t="s">
         <v>98</v>
@@ -13177,7 +13177,7 @@
         <v>41</v>
       </c>
       <c r="J268" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K268" t="s">
         <v>98</v>
@@ -13212,7 +13212,7 @@
         <v>41</v>
       </c>
       <c r="J269" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K269" t="s">
         <v>98</v>
@@ -13247,7 +13247,7 @@
         <v>41</v>
       </c>
       <c r="J270" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K270" t="s">
         <v>98</v>
@@ -13282,7 +13282,7 @@
         <v>41</v>
       </c>
       <c r="J271" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K271" t="s">
         <v>98</v>
@@ -13317,7 +13317,7 @@
         <v>41</v>
       </c>
       <c r="J272" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K272" t="s">
         <v>98</v>
@@ -13352,7 +13352,7 @@
         <v>41</v>
       </c>
       <c r="J273" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K273" t="s">
         <v>98</v>
@@ -13387,7 +13387,7 @@
         <v>41</v>
       </c>
       <c r="J274" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K274" t="s">
         <v>98</v>
@@ -13422,7 +13422,7 @@
         <v>41</v>
       </c>
       <c r="J275" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K275" t="s">
         <v>98</v>
@@ -13457,7 +13457,7 @@
         <v>42</v>
       </c>
       <c r="J276" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K276" t="s">
         <v>98</v>
@@ -13492,7 +13492,7 @@
         <v>42</v>
       </c>
       <c r="J277" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K277" t="s">
         <v>98</v>
@@ -13527,7 +13527,7 @@
         <v>42</v>
       </c>
       <c r="J278" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K278" t="s">
         <v>98</v>
@@ -13562,7 +13562,7 @@
         <v>42</v>
       </c>
       <c r="J279" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K279" t="s">
         <v>98</v>
@@ -13597,7 +13597,7 @@
         <v>42</v>
       </c>
       <c r="J280" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K280" t="s">
         <v>98</v>
@@ -13632,7 +13632,7 @@
         <v>42</v>
       </c>
       <c r="J281" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K281" t="s">
         <v>98</v>
@@ -13667,7 +13667,7 @@
         <v>42</v>
       </c>
       <c r="J282" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K282" t="s">
         <v>98</v>
@@ -13702,7 +13702,7 @@
         <v>42</v>
       </c>
       <c r="J283" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K283" t="s">
         <v>98</v>
@@ -13737,7 +13737,7 @@
         <v>42</v>
       </c>
       <c r="J284" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K284" t="s">
         <v>98</v>
@@ -13772,7 +13772,7 @@
         <v>42</v>
       </c>
       <c r="J285" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K285" t="s">
         <v>98</v>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -3679,7 +3679,7 @@
         <v>42</v>
       </c>
       <c r="J86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K86" t="s">
         <v>20</v>
@@ -3714,7 +3714,7 @@
         <v>42</v>
       </c>
       <c r="J87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K87" t="s">
         <v>20</v>
@@ -3749,7 +3749,7 @@
         <v>42</v>
       </c>
       <c r="J88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K88" t="s">
         <v>20</v>
@@ -12932,7 +12932,7 @@
         <v>40</v>
       </c>
       <c r="J261" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K261" t="s">
         <v>98</v>
@@ -13002,7 +13002,7 @@
         <v>40</v>
       </c>
       <c r="J263" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K263" t="s">
         <v>98</v>
@@ -13177,7 +13177,7 @@
         <v>41</v>
       </c>
       <c r="J268" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K268" t="s">
         <v>98</v>
@@ -13492,7 +13492,7 @@
         <v>42</v>
       </c>
       <c r="J277" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K277" t="s">
         <v>98</v>
@@ -13527,7 +13527,7 @@
         <v>42</v>
       </c>
       <c r="J278" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K278" t="s">
         <v>98</v>
@@ -13562,7 +13562,7 @@
         <v>42</v>
       </c>
       <c r="J279" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K279" t="s">
         <v>98</v>
@@ -13597,7 +13597,7 @@
         <v>42</v>
       </c>
       <c r="J280" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K280" t="s">
         <v>98</v>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="102">
   <si>
     <t>Setor</t>
   </si>
@@ -678,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3866,76 +3866,6 @@
         <v>71</v>
       </c>
       <c r="K91" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" t="s">
-        <v>11</v>
-      </c>
-      <c r="B92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92">
-        <v>2025</v>
-      </c>
-      <c r="D92">
-        <v>22</v>
-      </c>
-      <c r="E92" t="s">
-        <v>43</v>
-      </c>
-      <c r="F92" t="s">
-        <v>63</v>
-      </c>
-      <c r="G92">
-        <v>336359</v>
-      </c>
-      <c r="H92" t="s">
-        <v>69</v>
-      </c>
-      <c r="I92" t="s">
-        <v>63</v>
-      </c>
-      <c r="J92" t="s">
-        <v>71</v>
-      </c>
-      <c r="K92" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" t="s">
-        <v>11</v>
-      </c>
-      <c r="B93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93">
-        <v>2025</v>
-      </c>
-      <c r="D93">
-        <v>22</v>
-      </c>
-      <c r="E93" t="s">
-        <v>43</v>
-      </c>
-      <c r="F93" t="s">
-        <v>63</v>
-      </c>
-      <c r="G93">
-        <v>336609</v>
-      </c>
-      <c r="H93" t="s">
-        <v>69</v>
-      </c>
-      <c r="I93" t="s">
-        <v>63</v>
-      </c>
-      <c r="J93" t="s">
-        <v>71</v>
-      </c>
-      <c r="K93" t="s">
         <v>20</v>
       </c>
     </row>
@@ -13606,7 +13536,7 @@
         <v>42</v>
       </c>
       <c r="J276" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K276" t="s">
         <v>101</v>
@@ -13956,7 +13886,7 @@
         <v>43</v>
       </c>
       <c r="J286" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K286" t="s">
         <v>101</v>
@@ -13991,7 +13921,7 @@
         <v>43</v>
       </c>
       <c r="J287" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K287" t="s">
         <v>101</v>
@@ -14061,7 +13991,7 @@
         <v>43</v>
       </c>
       <c r="J289" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K289" t="s">
         <v>101</v>
@@ -14201,7 +14131,7 @@
         <v>43</v>
       </c>
       <c r="J293" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K293" t="s">
         <v>101</v>
@@ -14236,7 +14166,7 @@
         <v>43</v>
       </c>
       <c r="J294" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K294" t="s">
         <v>101</v>
@@ -14271,7 +14201,7 @@
         <v>43</v>
       </c>
       <c r="J295" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K295" t="s">
         <v>101</v>
@@ -14306,7 +14236,7 @@
         <v>43</v>
       </c>
       <c r="J296" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K296" t="s">
         <v>101</v>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3303" uniqueCount="106">
   <si>
     <t>Setor</t>
   </si>
@@ -3888,9 +3888,6 @@
       <c r="B92" t="s">
         <v>12</v>
       </c>
-      <c r="C92">
-        <v>2025</v>
-      </c>
       <c r="D92">
         <v>23</v>
       </c>
@@ -3910,7 +3907,7 @@
         <v>45</v>
       </c>
       <c r="J92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K92" t="s">
         <v>20</v>
@@ -3923,9 +3920,6 @@
       <c r="B93" t="s">
         <v>16</v>
       </c>
-      <c r="C93">
-        <v>2025</v>
-      </c>
       <c r="D93">
         <v>23</v>
       </c>
@@ -3958,9 +3952,6 @@
       <c r="B94" t="s">
         <v>16</v>
       </c>
-      <c r="C94">
-        <v>2025</v>
-      </c>
       <c r="D94">
         <v>23</v>
       </c>
@@ -3980,7 +3971,7 @@
         <v>45</v>
       </c>
       <c r="J94" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K94" t="s">
         <v>20</v>
@@ -3993,8 +3984,8 @@
       <c r="B95" t="s">
         <v>16</v>
       </c>
-      <c r="C95">
-        <v>2025</v>
+      <c r="C95" t="s">
+        <v>16</v>
       </c>
       <c r="D95">
         <v>23</v>
@@ -4015,7 +4006,7 @@
         <v>45</v>
       </c>
       <c r="J95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K95" t="s">
         <v>20</v>
@@ -4028,9 +4019,6 @@
       <c r="B96" t="s">
         <v>16</v>
       </c>
-      <c r="C96">
-        <v>2025</v>
-      </c>
       <c r="D96">
         <v>23</v>
       </c>
@@ -4050,7 +4038,7 @@
         <v>45</v>
       </c>
       <c r="J96" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K96" t="s">
         <v>20</v>
@@ -4063,9 +4051,6 @@
       <c r="B97" t="s">
         <v>24</v>
       </c>
-      <c r="C97">
-        <v>2025</v>
-      </c>
       <c r="D97">
         <v>23</v>
       </c>
@@ -4085,7 +4070,7 @@
         <v>45</v>
       </c>
       <c r="J97" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K97" t="s">
         <v>20</v>
@@ -4098,9 +4083,6 @@
       <c r="B98" t="s">
         <v>14</v>
       </c>
-      <c r="C98">
-        <v>2025</v>
-      </c>
       <c r="D98">
         <v>23</v>
       </c>
@@ -4120,7 +4102,7 @@
         <v>45</v>
       </c>
       <c r="J98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K98" t="s">
         <v>20</v>
@@ -4133,9 +4115,6 @@
       <c r="B99" t="s">
         <v>14</v>
       </c>
-      <c r="C99">
-        <v>2025</v>
-      </c>
       <c r="D99">
         <v>23</v>
       </c>
@@ -4155,7 +4134,7 @@
         <v>45</v>
       </c>
       <c r="J99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K99" t="s">
         <v>20</v>
@@ -11133,7 +11112,7 @@
         <v>37</v>
       </c>
       <c r="J199" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K199" t="s">
         <v>105</v>
@@ -12498,7 +12477,7 @@
         <v>39</v>
       </c>
       <c r="J238" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K238" t="s">
         <v>105</v>
@@ -13478,7 +13457,7 @@
         <v>42</v>
       </c>
       <c r="J266" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K266" t="s">
         <v>105</v>
@@ -14073,7 +14052,7 @@
         <v>43</v>
       </c>
       <c r="J283" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K283" t="s">
         <v>105</v>
@@ -14563,7 +14542,7 @@
         <v>44</v>
       </c>
       <c r="J297" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K297" t="s">
         <v>105</v>
@@ -14598,7 +14577,7 @@
         <v>45</v>
       </c>
       <c r="J298" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K298" t="s">
         <v>105</v>
@@ -14668,7 +14647,7 @@
         <v>45</v>
       </c>
       <c r="J300" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K300" t="s">
         <v>105</v>
@@ -14703,7 +14682,7 @@
         <v>45</v>
       </c>
       <c r="J301" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K301" t="s">
         <v>105</v>
@@ -14808,7 +14787,7 @@
         <v>45</v>
       </c>
       <c r="J304" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K304" t="s">
         <v>105</v>
@@ -14819,7 +14798,7 @@
         <v>77</v>
       </c>
       <c r="B305" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C305">
         <v>2025</v>
@@ -14878,7 +14857,7 @@
         <v>45</v>
       </c>
       <c r="J306" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K306" t="s">
         <v>105</v>
@@ -14913,7 +14892,7 @@
         <v>45</v>
       </c>
       <c r="J307" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K307" t="s">
         <v>105</v>
@@ -14948,7 +14927,7 @@
         <v>45</v>
       </c>
       <c r="J308" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K308" t="s">
         <v>105</v>
@@ -14983,7 +14962,7 @@
         <v>45</v>
       </c>
       <c r="J309" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K309" t="s">
         <v>105</v>
@@ -15053,7 +15032,7 @@
         <v>45</v>
       </c>
       <c r="J311" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K311" t="s">
         <v>105</v>
@@ -15123,7 +15102,7 @@
         <v>45</v>
       </c>
       <c r="J313" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K313" t="s">
         <v>105</v>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -14798,7 +14798,7 @@
         <v>77</v>
       </c>
       <c r="B305" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C305">
         <v>2025</v>
@@ -14973,7 +14973,7 @@
         <v>77</v>
       </c>
       <c r="B310" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C310">
         <v>2025</v>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3303" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="106">
   <si>
     <t>Setor</t>
   </si>
@@ -3888,6 +3888,9 @@
       <c r="B92" t="s">
         <v>12</v>
       </c>
+      <c r="C92">
+        <v>2025</v>
+      </c>
       <c r="D92">
         <v>23</v>
       </c>
@@ -3920,6 +3923,9 @@
       <c r="B93" t="s">
         <v>16</v>
       </c>
+      <c r="C93">
+        <v>2025</v>
+      </c>
       <c r="D93">
         <v>23</v>
       </c>
@@ -3952,6 +3958,9 @@
       <c r="B94" t="s">
         <v>16</v>
       </c>
+      <c r="C94">
+        <v>2025</v>
+      </c>
       <c r="D94">
         <v>23</v>
       </c>
@@ -3984,8 +3993,8 @@
       <c r="B95" t="s">
         <v>16</v>
       </c>
-      <c r="C95" t="s">
-        <v>16</v>
+      <c r="C95">
+        <v>2025</v>
       </c>
       <c r="D95">
         <v>23</v>
@@ -4019,6 +4028,9 @@
       <c r="B96" t="s">
         <v>16</v>
       </c>
+      <c r="C96">
+        <v>2025</v>
+      </c>
       <c r="D96">
         <v>23</v>
       </c>
@@ -4051,6 +4063,9 @@
       <c r="B97" t="s">
         <v>24</v>
       </c>
+      <c r="C97">
+        <v>2025</v>
+      </c>
       <c r="D97">
         <v>23</v>
       </c>
@@ -4083,6 +4098,9 @@
       <c r="B98" t="s">
         <v>14</v>
       </c>
+      <c r="C98">
+        <v>2025</v>
+      </c>
       <c r="D98">
         <v>23</v>
       </c>
@@ -4114,6 +4132,9 @@
       </c>
       <c r="B99" t="s">
         <v>14</v>
+      </c>
+      <c r="C99">
+        <v>2025</v>
       </c>
       <c r="D99">
         <v>23</v>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="108">
   <si>
     <t>Setor</t>
   </si>
@@ -323,10 +323,16 @@
     <t>03/03/2025</t>
   </si>
   <si>
+    <t>16/06/2025</t>
+  </si>
+  <si>
     <t>21/02/2025</t>
   </si>
   <si>
     <t>07/03/2025</t>
+  </si>
+  <si>
+    <t>20/06/2025</t>
   </si>
   <si>
     <t>11/2024</t>
@@ -4168,7 +4174,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K313"/>
+  <dimension ref="A1:K330"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4241,7 +4247,7 @@
         <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4276,7 +4282,7 @@
         <v>74</v>
       </c>
       <c r="K3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4311,7 +4317,7 @@
         <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4346,7 +4352,7 @@
         <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4381,7 +4387,7 @@
         <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4407,7 +4413,7 @@
         <v>315817</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
         <v>25</v>
@@ -4416,7 +4422,7 @@
         <v>74</v>
       </c>
       <c r="K7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4451,7 +4457,7 @@
         <v>74</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4486,7 +4492,7 @@
         <v>74</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4521,7 +4527,7 @@
         <v>74</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4556,7 +4562,7 @@
         <v>74</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4591,7 +4597,7 @@
         <v>74</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4626,7 +4632,7 @@
         <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4661,7 +4667,7 @@
         <v>74</v>
       </c>
       <c r="K14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4696,7 +4702,7 @@
         <v>74</v>
       </c>
       <c r="K15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -4731,7 +4737,7 @@
         <v>74</v>
       </c>
       <c r="K16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4766,7 +4772,7 @@
         <v>74</v>
       </c>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -4801,7 +4807,7 @@
         <v>74</v>
       </c>
       <c r="K18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -4836,7 +4842,7 @@
         <v>74</v>
       </c>
       <c r="K19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4871,7 +4877,7 @@
         <v>74</v>
       </c>
       <c r="K20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4906,7 +4912,7 @@
         <v>74</v>
       </c>
       <c r="K21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -4941,7 +4947,7 @@
         <v>74</v>
       </c>
       <c r="K22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4976,7 +4982,7 @@
         <v>74</v>
       </c>
       <c r="K23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -5011,7 +5017,7 @@
         <v>74</v>
       </c>
       <c r="K24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -5046,7 +5052,7 @@
         <v>74</v>
       </c>
       <c r="K25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -5081,7 +5087,7 @@
         <v>74</v>
       </c>
       <c r="K26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -5116,7 +5122,7 @@
         <v>74</v>
       </c>
       <c r="K27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -5151,7 +5157,7 @@
         <v>74</v>
       </c>
       <c r="K28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -5186,7 +5192,7 @@
         <v>74</v>
       </c>
       <c r="K29" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -5221,7 +5227,7 @@
         <v>74</v>
       </c>
       <c r="K30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -5256,7 +5262,7 @@
         <v>74</v>
       </c>
       <c r="K31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -5291,7 +5297,7 @@
         <v>74</v>
       </c>
       <c r="K32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -5326,7 +5332,7 @@
         <v>74</v>
       </c>
       <c r="K33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -5361,7 +5367,7 @@
         <v>74</v>
       </c>
       <c r="K34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -5396,7 +5402,7 @@
         <v>74</v>
       </c>
       <c r="K35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -5431,7 +5437,7 @@
         <v>74</v>
       </c>
       <c r="K36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -5466,7 +5472,7 @@
         <v>74</v>
       </c>
       <c r="K37" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -5501,7 +5507,7 @@
         <v>74</v>
       </c>
       <c r="K38" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -5536,7 +5542,7 @@
         <v>74</v>
       </c>
       <c r="K39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -5571,7 +5577,7 @@
         <v>74</v>
       </c>
       <c r="K40" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -5606,7 +5612,7 @@
         <v>74</v>
       </c>
       <c r="K41" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -5641,7 +5647,7 @@
         <v>74</v>
       </c>
       <c r="K42" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -5676,7 +5682,7 @@
         <v>74</v>
       </c>
       <c r="K43" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -5711,7 +5717,7 @@
         <v>74</v>
       </c>
       <c r="K44" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -5746,7 +5752,7 @@
         <v>74</v>
       </c>
       <c r="K45" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -5781,7 +5787,7 @@
         <v>74</v>
       </c>
       <c r="K46" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -5816,7 +5822,7 @@
         <v>74</v>
       </c>
       <c r="K47" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -5851,7 +5857,7 @@
         <v>74</v>
       </c>
       <c r="K48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -5886,7 +5892,7 @@
         <v>74</v>
       </c>
       <c r="K49" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -5921,7 +5927,7 @@
         <v>74</v>
       </c>
       <c r="K50" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -5956,7 +5962,7 @@
         <v>74</v>
       </c>
       <c r="K51" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -5991,7 +5997,7 @@
         <v>74</v>
       </c>
       <c r="K52" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -6026,7 +6032,7 @@
         <v>74</v>
       </c>
       <c r="K53" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -6061,7 +6067,7 @@
         <v>74</v>
       </c>
       <c r="K54" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -6096,7 +6102,7 @@
         <v>74</v>
       </c>
       <c r="K55" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -6131,7 +6137,7 @@
         <v>74</v>
       </c>
       <c r="K56" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -6166,7 +6172,7 @@
         <v>74</v>
       </c>
       <c r="K57" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -6186,7 +6192,7 @@
         <v>100</v>
       </c>
       <c r="F58" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G58">
         <v>323755</v>
@@ -6201,7 +6207,7 @@
         <v>74</v>
       </c>
       <c r="K58" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -6221,7 +6227,7 @@
         <v>100</v>
       </c>
       <c r="F59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G59">
         <v>324249</v>
@@ -6236,7 +6242,7 @@
         <v>74</v>
       </c>
       <c r="K59" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -6256,7 +6262,7 @@
         <v>100</v>
       </c>
       <c r="F60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G60">
         <v>324374</v>
@@ -6271,7 +6277,7 @@
         <v>74</v>
       </c>
       <c r="K60" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -6291,7 +6297,7 @@
         <v>100</v>
       </c>
       <c r="F61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G61">
         <v>324412</v>
@@ -6306,7 +6312,7 @@
         <v>74</v>
       </c>
       <c r="K61" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -6326,7 +6332,7 @@
         <v>100</v>
       </c>
       <c r="F62" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G62">
         <v>324452</v>
@@ -6341,7 +6347,7 @@
         <v>74</v>
       </c>
       <c r="K62" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -6361,7 +6367,7 @@
         <v>100</v>
       </c>
       <c r="F63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G63">
         <v>324454</v>
@@ -6376,7 +6382,7 @@
         <v>74</v>
       </c>
       <c r="K63" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -6396,7 +6402,7 @@
         <v>100</v>
       </c>
       <c r="F64" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G64">
         <v>324470</v>
@@ -6411,7 +6417,7 @@
         <v>74</v>
       </c>
       <c r="K64" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -6431,7 +6437,7 @@
         <v>100</v>
       </c>
       <c r="F65" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G65">
         <v>324061</v>
@@ -6446,7 +6452,7 @@
         <v>74</v>
       </c>
       <c r="K65" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -6466,7 +6472,7 @@
         <v>100</v>
       </c>
       <c r="F66" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G66">
         <v>324124</v>
@@ -6481,7 +6487,7 @@
         <v>74</v>
       </c>
       <c r="K66" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -6501,7 +6507,7 @@
         <v>100</v>
       </c>
       <c r="F67" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G67">
         <v>324349</v>
@@ -6516,7 +6522,7 @@
         <v>74</v>
       </c>
       <c r="K67" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -6536,7 +6542,7 @@
         <v>100</v>
       </c>
       <c r="F68" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G68">
         <v>324521</v>
@@ -6551,7 +6557,7 @@
         <v>74</v>
       </c>
       <c r="K68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -6571,7 +6577,7 @@
         <v>100</v>
       </c>
       <c r="F69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G69">
         <v>324156</v>
@@ -6586,7 +6592,7 @@
         <v>74</v>
       </c>
       <c r="K69" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -6606,7 +6612,7 @@
         <v>100</v>
       </c>
       <c r="F70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G70">
         <v>323946</v>
@@ -6621,7 +6627,7 @@
         <v>74</v>
       </c>
       <c r="K70" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -6641,7 +6647,7 @@
         <v>100</v>
       </c>
       <c r="F71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G71">
         <v>324268</v>
@@ -6656,7 +6662,7 @@
         <v>74</v>
       </c>
       <c r="K71" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -6676,7 +6682,7 @@
         <v>100</v>
       </c>
       <c r="F72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G72">
         <v>324445</v>
@@ -6691,7 +6697,7 @@
         <v>74</v>
       </c>
       <c r="K72" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -6711,7 +6717,7 @@
         <v>100</v>
       </c>
       <c r="F73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G73">
         <v>324433</v>
@@ -6726,7 +6732,7 @@
         <v>74</v>
       </c>
       <c r="K73" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -6746,7 +6752,7 @@
         <v>100</v>
       </c>
       <c r="F74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G74">
         <v>324537</v>
@@ -6761,7 +6767,7 @@
         <v>74</v>
       </c>
       <c r="K74" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -6781,7 +6787,7 @@
         <v>100</v>
       </c>
       <c r="F75" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G75">
         <v>323804</v>
@@ -6796,7 +6802,7 @@
         <v>74</v>
       </c>
       <c r="K75" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -6816,7 +6822,7 @@
         <v>100</v>
       </c>
       <c r="F76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G76">
         <v>324568</v>
@@ -6831,7 +6837,7 @@
         <v>74</v>
       </c>
       <c r="K76" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -6851,7 +6857,7 @@
         <v>100</v>
       </c>
       <c r="F77" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G77">
         <v>324458</v>
@@ -6866,7 +6872,7 @@
         <v>74</v>
       </c>
       <c r="K77" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -6901,7 +6907,7 @@
         <v>74</v>
       </c>
       <c r="K78" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -6936,7 +6942,7 @@
         <v>74</v>
       </c>
       <c r="K79" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -6971,7 +6977,7 @@
         <v>74</v>
       </c>
       <c r="K80" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -7006,7 +7012,7 @@
         <v>74</v>
       </c>
       <c r="K81" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -7041,7 +7047,7 @@
         <v>74</v>
       </c>
       <c r="K82" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -7061,7 +7067,7 @@
         <v>101</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G83">
         <v>325533</v>
@@ -7076,7 +7082,7 @@
         <v>74</v>
       </c>
       <c r="K83" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -7096,7 +7102,7 @@
         <v>101</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G84">
         <v>326568</v>
@@ -7111,7 +7117,7 @@
         <v>74</v>
       </c>
       <c r="K84" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -7131,7 +7137,7 @@
         <v>101</v>
       </c>
       <c r="F85" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G85">
         <v>326746</v>
@@ -7146,7 +7152,7 @@
         <v>74</v>
       </c>
       <c r="K85" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -7166,7 +7172,7 @@
         <v>101</v>
       </c>
       <c r="F86" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G86">
         <v>326421</v>
@@ -7181,7 +7187,7 @@
         <v>74</v>
       </c>
       <c r="K86" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -7201,7 +7207,7 @@
         <v>101</v>
       </c>
       <c r="F87" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G87">
         <v>326239</v>
@@ -7216,7 +7222,7 @@
         <v>74</v>
       </c>
       <c r="K87" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -7236,7 +7242,7 @@
         <v>101</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G88">
         <v>325743</v>
@@ -7251,7 +7257,7 @@
         <v>74</v>
       </c>
       <c r="K88" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -7271,7 +7277,7 @@
         <v>101</v>
       </c>
       <c r="F89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G89">
         <v>326190</v>
@@ -7286,7 +7292,7 @@
         <v>74</v>
       </c>
       <c r="K89" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -7306,7 +7312,7 @@
         <v>101</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G90">
         <v>326324</v>
@@ -7321,7 +7327,7 @@
         <v>74</v>
       </c>
       <c r="K90" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -7341,7 +7347,7 @@
         <v>101</v>
       </c>
       <c r="F91" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G91">
         <v>325610</v>
@@ -7356,7 +7362,7 @@
         <v>74</v>
       </c>
       <c r="K91" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -7376,7 +7382,7 @@
         <v>101</v>
       </c>
       <c r="F92" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G92">
         <v>325625</v>
@@ -7391,7 +7397,7 @@
         <v>74</v>
       </c>
       <c r="K92" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -7411,7 +7417,7 @@
         <v>101</v>
       </c>
       <c r="F93" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G93">
         <v>326272</v>
@@ -7426,7 +7432,7 @@
         <v>74</v>
       </c>
       <c r="K93" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -7446,7 +7452,7 @@
         <v>101</v>
       </c>
       <c r="F94" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G94">
         <v>326453</v>
@@ -7461,7 +7467,7 @@
         <v>74</v>
       </c>
       <c r="K94" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -7481,7 +7487,7 @@
         <v>101</v>
       </c>
       <c r="F95" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G95">
         <v>326395</v>
@@ -7496,7 +7502,7 @@
         <v>74</v>
       </c>
       <c r="K95" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -7516,7 +7522,7 @@
         <v>101</v>
       </c>
       <c r="F96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G96">
         <v>326400</v>
@@ -7531,7 +7537,7 @@
         <v>74</v>
       </c>
       <c r="K96" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -7551,7 +7557,7 @@
         <v>101</v>
       </c>
       <c r="F97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G97">
         <v>326407</v>
@@ -7566,7 +7572,7 @@
         <v>74</v>
       </c>
       <c r="K97" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -7586,7 +7592,7 @@
         <v>101</v>
       </c>
       <c r="F98" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G98">
         <v>326337</v>
@@ -7601,7 +7607,7 @@
         <v>74</v>
       </c>
       <c r="K98" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -7636,7 +7642,7 @@
         <v>74</v>
       </c>
       <c r="K99" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -7671,7 +7677,7 @@
         <v>74</v>
       </c>
       <c r="K100" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -7706,7 +7712,7 @@
         <v>74</v>
       </c>
       <c r="K101" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -7741,7 +7747,7 @@
         <v>74</v>
       </c>
       <c r="K102" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -7776,7 +7782,7 @@
         <v>74</v>
       </c>
       <c r="K103" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -7811,7 +7817,7 @@
         <v>74</v>
       </c>
       <c r="K104" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -7846,7 +7852,7 @@
         <v>74</v>
       </c>
       <c r="K105" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -7881,7 +7887,7 @@
         <v>74</v>
       </c>
       <c r="K106" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -7916,7 +7922,7 @@
         <v>74</v>
       </c>
       <c r="K107" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -7951,7 +7957,7 @@
         <v>74</v>
       </c>
       <c r="K108" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -7986,7 +7992,7 @@
         <v>74</v>
       </c>
       <c r="K109" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -8021,7 +8027,7 @@
         <v>74</v>
       </c>
       <c r="K110" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -8056,7 +8062,7 @@
         <v>74</v>
       </c>
       <c r="K111" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -8091,7 +8097,7 @@
         <v>74</v>
       </c>
       <c r="K112" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -8126,7 +8132,7 @@
         <v>74</v>
       </c>
       <c r="K113" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -8161,7 +8167,7 @@
         <v>74</v>
       </c>
       <c r="K114" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -8196,7 +8202,7 @@
         <v>74</v>
       </c>
       <c r="K115" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -8231,7 +8237,7 @@
         <v>74</v>
       </c>
       <c r="K116" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -8266,7 +8272,7 @@
         <v>74</v>
       </c>
       <c r="K117" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -8301,7 +8307,7 @@
         <v>74</v>
       </c>
       <c r="K118" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -8336,7 +8342,7 @@
         <v>74</v>
       </c>
       <c r="K119" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -8371,7 +8377,7 @@
         <v>74</v>
       </c>
       <c r="K120" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -8406,7 +8412,7 @@
         <v>74</v>
       </c>
       <c r="K121" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -8441,7 +8447,7 @@
         <v>74</v>
       </c>
       <c r="K122" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -8476,7 +8482,7 @@
         <v>74</v>
       </c>
       <c r="K123" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -8511,7 +8517,7 @@
         <v>74</v>
       </c>
       <c r="K124" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -8546,7 +8552,7 @@
         <v>74</v>
       </c>
       <c r="K125" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -8581,7 +8587,7 @@
         <v>74</v>
       </c>
       <c r="K126" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -8616,7 +8622,7 @@
         <v>74</v>
       </c>
       <c r="K127" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -8651,7 +8657,7 @@
         <v>74</v>
       </c>
       <c r="K128" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -8686,7 +8692,7 @@
         <v>74</v>
       </c>
       <c r="K129" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -8721,7 +8727,7 @@
         <v>74</v>
       </c>
       <c r="K130" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -8756,7 +8762,7 @@
         <v>74</v>
       </c>
       <c r="K131" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -8791,7 +8797,7 @@
         <v>74</v>
       </c>
       <c r="K132" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -8826,7 +8832,7 @@
         <v>74</v>
       </c>
       <c r="K133" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -8861,7 +8867,7 @@
         <v>74</v>
       </c>
       <c r="K134" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -8896,7 +8902,7 @@
         <v>74</v>
       </c>
       <c r="K135" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -8931,7 +8937,7 @@
         <v>74</v>
       </c>
       <c r="K136" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -8966,7 +8972,7 @@
         <v>74</v>
       </c>
       <c r="K137" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -9001,7 +9007,7 @@
         <v>74</v>
       </c>
       <c r="K138" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -9036,7 +9042,7 @@
         <v>74</v>
       </c>
       <c r="K139" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -9071,7 +9077,7 @@
         <v>74</v>
       </c>
       <c r="K140" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -9106,7 +9112,7 @@
         <v>74</v>
       </c>
       <c r="K141" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -9141,7 +9147,7 @@
         <v>74</v>
       </c>
       <c r="K142" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -9176,7 +9182,7 @@
         <v>74</v>
       </c>
       <c r="K143" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -9211,7 +9217,7 @@
         <v>74</v>
       </c>
       <c r="K144" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -9246,7 +9252,7 @@
         <v>74</v>
       </c>
       <c r="K145" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -9281,7 +9287,7 @@
         <v>74</v>
       </c>
       <c r="K146" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -9316,7 +9322,7 @@
         <v>74</v>
       </c>
       <c r="K147" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -9351,7 +9357,7 @@
         <v>74</v>
       </c>
       <c r="K148" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -9386,7 +9392,7 @@
         <v>74</v>
       </c>
       <c r="K149" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -9421,7 +9427,7 @@
         <v>74</v>
       </c>
       <c r="K150" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -9456,7 +9462,7 @@
         <v>74</v>
       </c>
       <c r="K151" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -9491,7 +9497,7 @@
         <v>74</v>
       </c>
       <c r="K152" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -9526,7 +9532,7 @@
         <v>74</v>
       </c>
       <c r="K153" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -9561,7 +9567,7 @@
         <v>74</v>
       </c>
       <c r="K154" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -9596,7 +9602,7 @@
         <v>74</v>
       </c>
       <c r="K155" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -9631,7 +9637,7 @@
         <v>74</v>
       </c>
       <c r="K156" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -9666,7 +9672,7 @@
         <v>74</v>
       </c>
       <c r="K157" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -9701,7 +9707,7 @@
         <v>74</v>
       </c>
       <c r="K158" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -9736,7 +9742,7 @@
         <v>74</v>
       </c>
       <c r="K159" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -9771,7 +9777,7 @@
         <v>74</v>
       </c>
       <c r="K160" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -9806,7 +9812,7 @@
         <v>74</v>
       </c>
       <c r="K161" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -9841,7 +9847,7 @@
         <v>74</v>
       </c>
       <c r="K162" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -9876,7 +9882,7 @@
         <v>74</v>
       </c>
       <c r="K163" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -9911,7 +9917,7 @@
         <v>74</v>
       </c>
       <c r="K164" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -9946,7 +9952,7 @@
         <v>74</v>
       </c>
       <c r="K165" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -9981,7 +9987,7 @@
         <v>74</v>
       </c>
       <c r="K166" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -10016,7 +10022,7 @@
         <v>74</v>
       </c>
       <c r="K167" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -10051,7 +10057,7 @@
         <v>74</v>
       </c>
       <c r="K168" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -10086,7 +10092,7 @@
         <v>74</v>
       </c>
       <c r="K169" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -10121,7 +10127,7 @@
         <v>74</v>
       </c>
       <c r="K170" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -10156,7 +10162,7 @@
         <v>74</v>
       </c>
       <c r="K171" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -10191,7 +10197,7 @@
         <v>74</v>
       </c>
       <c r="K172" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -10226,7 +10232,7 @@
         <v>74</v>
       </c>
       <c r="K173" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -10261,7 +10267,7 @@
         <v>74</v>
       </c>
       <c r="K174" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -10296,7 +10302,7 @@
         <v>74</v>
       </c>
       <c r="K175" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -10331,7 +10337,7 @@
         <v>74</v>
       </c>
       <c r="K176" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -10366,7 +10372,7 @@
         <v>74</v>
       </c>
       <c r="K177" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -10401,7 +10407,7 @@
         <v>74</v>
       </c>
       <c r="K178" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -10436,7 +10442,7 @@
         <v>74</v>
       </c>
       <c r="K179" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -10471,7 +10477,7 @@
         <v>74</v>
       </c>
       <c r="K180" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -10506,7 +10512,7 @@
         <v>74</v>
       </c>
       <c r="K181" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -10541,7 +10547,7 @@
         <v>74</v>
       </c>
       <c r="K182" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -10576,7 +10582,7 @@
         <v>74</v>
       </c>
       <c r="K183" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -10611,7 +10617,7 @@
         <v>74</v>
       </c>
       <c r="K184" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -10646,7 +10652,7 @@
         <v>74</v>
       </c>
       <c r="K185" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -10681,7 +10687,7 @@
         <v>74</v>
       </c>
       <c r="K186" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -10716,7 +10722,7 @@
         <v>74</v>
       </c>
       <c r="K187" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -10751,7 +10757,7 @@
         <v>74</v>
       </c>
       <c r="K188" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -10786,7 +10792,7 @@
         <v>74</v>
       </c>
       <c r="K189" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -10821,7 +10827,7 @@
         <v>74</v>
       </c>
       <c r="K190" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -10856,7 +10862,7 @@
         <v>74</v>
       </c>
       <c r="K191" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -10891,7 +10897,7 @@
         <v>74</v>
       </c>
       <c r="K192" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -10926,7 +10932,7 @@
         <v>74</v>
       </c>
       <c r="K193" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -10961,7 +10967,7 @@
         <v>74</v>
       </c>
       <c r="K194" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -10996,7 +11002,7 @@
         <v>74</v>
       </c>
       <c r="K195" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -11031,7 +11037,7 @@
         <v>74</v>
       </c>
       <c r="K196" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -11066,7 +11072,7 @@
         <v>74</v>
       </c>
       <c r="K197" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -11101,7 +11107,7 @@
         <v>74</v>
       </c>
       <c r="K198" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -11136,7 +11142,7 @@
         <v>74</v>
       </c>
       <c r="K199" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -11171,7 +11177,7 @@
         <v>74</v>
       </c>
       <c r="K200" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -11206,7 +11212,7 @@
         <v>74</v>
       </c>
       <c r="K201" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -11241,7 +11247,7 @@
         <v>74</v>
       </c>
       <c r="K202" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -11276,7 +11282,7 @@
         <v>74</v>
       </c>
       <c r="K203" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -11311,7 +11317,7 @@
         <v>74</v>
       </c>
       <c r="K204" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -11346,7 +11352,7 @@
         <v>74</v>
       </c>
       <c r="K205" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -11381,7 +11387,7 @@
         <v>74</v>
       </c>
       <c r="K206" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -11416,7 +11422,7 @@
         <v>74</v>
       </c>
       <c r="K207" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -11451,7 +11457,7 @@
         <v>74</v>
       </c>
       <c r="K208" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -11486,7 +11492,7 @@
         <v>74</v>
       </c>
       <c r="K209" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -11521,7 +11527,7 @@
         <v>74</v>
       </c>
       <c r="K210" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -11556,7 +11562,7 @@
         <v>74</v>
       </c>
       <c r="K211" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -11591,7 +11597,7 @@
         <v>74</v>
       </c>
       <c r="K212" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -11626,7 +11632,7 @@
         <v>74</v>
       </c>
       <c r="K213" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -11661,7 +11667,7 @@
         <v>74</v>
       </c>
       <c r="K214" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -11696,7 +11702,7 @@
         <v>74</v>
       </c>
       <c r="K215" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -11731,7 +11737,7 @@
         <v>74</v>
       </c>
       <c r="K216" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -11766,7 +11772,7 @@
         <v>74</v>
       </c>
       <c r="K217" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -11801,7 +11807,7 @@
         <v>74</v>
       </c>
       <c r="K218" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -11836,7 +11842,7 @@
         <v>74</v>
       </c>
       <c r="K219" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -11871,7 +11877,7 @@
         <v>74</v>
       </c>
       <c r="K220" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -11906,7 +11912,7 @@
         <v>74</v>
       </c>
       <c r="K221" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -11941,7 +11947,7 @@
         <v>74</v>
       </c>
       <c r="K222" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -11976,7 +11982,7 @@
         <v>74</v>
       </c>
       <c r="K223" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -12011,7 +12017,7 @@
         <v>74</v>
       </c>
       <c r="K224" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -12046,7 +12052,7 @@
         <v>74</v>
       </c>
       <c r="K225" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -12081,7 +12087,7 @@
         <v>74</v>
       </c>
       <c r="K226" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -12116,7 +12122,7 @@
         <v>74</v>
       </c>
       <c r="K227" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -12151,7 +12157,7 @@
         <v>74</v>
       </c>
       <c r="K228" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -12186,7 +12192,7 @@
         <v>74</v>
       </c>
       <c r="K229" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -12221,7 +12227,7 @@
         <v>74</v>
       </c>
       <c r="K230" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -12256,7 +12262,7 @@
         <v>74</v>
       </c>
       <c r="K231" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -12291,7 +12297,7 @@
         <v>74</v>
       </c>
       <c r="K232" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -12326,7 +12332,7 @@
         <v>74</v>
       </c>
       <c r="K233" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -12361,7 +12367,7 @@
         <v>74</v>
       </c>
       <c r="K234" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -12396,7 +12402,7 @@
         <v>74</v>
       </c>
       <c r="K235" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -12431,7 +12437,7 @@
         <v>74</v>
       </c>
       <c r="K236" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -12466,7 +12472,7 @@
         <v>74</v>
       </c>
       <c r="K237" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -12501,7 +12507,7 @@
         <v>74</v>
       </c>
       <c r="K238" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -12536,7 +12542,7 @@
         <v>74</v>
       </c>
       <c r="K239" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -12571,7 +12577,7 @@
         <v>74</v>
       </c>
       <c r="K240" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -12606,7 +12612,7 @@
         <v>74</v>
       </c>
       <c r="K241" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -12641,7 +12647,7 @@
         <v>74</v>
       </c>
       <c r="K242" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -12676,7 +12682,7 @@
         <v>74</v>
       </c>
       <c r="K243" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -12711,7 +12717,7 @@
         <v>74</v>
       </c>
       <c r="K244" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -12746,7 +12752,7 @@
         <v>74</v>
       </c>
       <c r="K245" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -12781,7 +12787,7 @@
         <v>74</v>
       </c>
       <c r="K246" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -12816,7 +12822,7 @@
         <v>74</v>
       </c>
       <c r="K247" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -12851,7 +12857,7 @@
         <v>74</v>
       </c>
       <c r="K248" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -12886,7 +12892,7 @@
         <v>74</v>
       </c>
       <c r="K249" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -12921,7 +12927,7 @@
         <v>74</v>
       </c>
       <c r="K250" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -12956,7 +12962,7 @@
         <v>74</v>
       </c>
       <c r="K251" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -12991,7 +12997,7 @@
         <v>74</v>
       </c>
       <c r="K252" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -13026,7 +13032,7 @@
         <v>74</v>
       </c>
       <c r="K253" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -13061,7 +13067,7 @@
         <v>74</v>
       </c>
       <c r="K254" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -13096,7 +13102,7 @@
         <v>74</v>
       </c>
       <c r="K255" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -13131,7 +13137,7 @@
         <v>74</v>
       </c>
       <c r="K256" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -13166,7 +13172,7 @@
         <v>74</v>
       </c>
       <c r="K257" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -13201,7 +13207,7 @@
         <v>74</v>
       </c>
       <c r="K258" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -13236,7 +13242,7 @@
         <v>74</v>
       </c>
       <c r="K259" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -13271,7 +13277,7 @@
         <v>74</v>
       </c>
       <c r="K260" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -13306,7 +13312,7 @@
         <v>74</v>
       </c>
       <c r="K261" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -13341,7 +13347,7 @@
         <v>74</v>
       </c>
       <c r="K262" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -13376,7 +13382,7 @@
         <v>74</v>
       </c>
       <c r="K263" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -13411,7 +13417,7 @@
         <v>74</v>
       </c>
       <c r="K264" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -13446,7 +13452,7 @@
         <v>74</v>
       </c>
       <c r="K265" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -13481,7 +13487,7 @@
         <v>74</v>
       </c>
       <c r="K266" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -13516,7 +13522,7 @@
         <v>75</v>
       </c>
       <c r="K267" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -13551,7 +13557,7 @@
         <v>74</v>
       </c>
       <c r="K268" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -13586,7 +13592,7 @@
         <v>74</v>
       </c>
       <c r="K269" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -13621,7 +13627,7 @@
         <v>74</v>
       </c>
       <c r="K270" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -13656,7 +13662,7 @@
         <v>74</v>
       </c>
       <c r="K271" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -13691,7 +13697,7 @@
         <v>74</v>
       </c>
       <c r="K272" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -13726,7 +13732,7 @@
         <v>74</v>
       </c>
       <c r="K273" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -13761,7 +13767,7 @@
         <v>74</v>
       </c>
       <c r="K274" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -13796,7 +13802,7 @@
         <v>75</v>
       </c>
       <c r="K275" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -13831,7 +13837,7 @@
         <v>74</v>
       </c>
       <c r="K276" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -13866,7 +13872,7 @@
         <v>74</v>
       </c>
       <c r="K277" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -13901,7 +13907,7 @@
         <v>74</v>
       </c>
       <c r="K278" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -13936,7 +13942,7 @@
         <v>74</v>
       </c>
       <c r="K279" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -13971,7 +13977,7 @@
         <v>74</v>
       </c>
       <c r="K280" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -14006,7 +14012,7 @@
         <v>74</v>
       </c>
       <c r="K281" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -14041,7 +14047,7 @@
         <v>74</v>
       </c>
       <c r="K282" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -14076,7 +14082,7 @@
         <v>74</v>
       </c>
       <c r="K283" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -14111,7 +14117,7 @@
         <v>74</v>
       </c>
       <c r="K284" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -14146,7 +14152,7 @@
         <v>74</v>
       </c>
       <c r="K285" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -14181,7 +14187,7 @@
         <v>74</v>
       </c>
       <c r="K286" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -14216,7 +14222,7 @@
         <v>74</v>
       </c>
       <c r="K287" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -14248,10 +14254,10 @@
         <v>44</v>
       </c>
       <c r="J288" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K288" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -14286,7 +14292,7 @@
         <v>74</v>
       </c>
       <c r="K289" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -14321,7 +14327,7 @@
         <v>74</v>
       </c>
       <c r="K290" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -14356,7 +14362,7 @@
         <v>74</v>
       </c>
       <c r="K291" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -14391,7 +14397,7 @@
         <v>75</v>
       </c>
       <c r="K292" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -14426,7 +14432,7 @@
         <v>74</v>
       </c>
       <c r="K293" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -14461,7 +14467,7 @@
         <v>74</v>
       </c>
       <c r="K294" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -14496,7 +14502,7 @@
         <v>74</v>
       </c>
       <c r="K295" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -14531,7 +14537,7 @@
         <v>74</v>
       </c>
       <c r="K296" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -14566,7 +14572,7 @@
         <v>74</v>
       </c>
       <c r="K297" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -14601,7 +14607,7 @@
         <v>74</v>
       </c>
       <c r="K298" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -14636,7 +14642,7 @@
         <v>75</v>
       </c>
       <c r="K299" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -14671,7 +14677,7 @@
         <v>74</v>
       </c>
       <c r="K300" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -14706,7 +14712,7 @@
         <v>74</v>
       </c>
       <c r="K301" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -14738,10 +14744,10 @@
         <v>45</v>
       </c>
       <c r="J302" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K302" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -14773,10 +14779,10 @@
         <v>45</v>
       </c>
       <c r="J303" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K303" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -14811,7 +14817,7 @@
         <v>74</v>
       </c>
       <c r="K304" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -14846,7 +14852,7 @@
         <v>75</v>
       </c>
       <c r="K305" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -14881,7 +14887,7 @@
         <v>74</v>
       </c>
       <c r="K306" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -14916,7 +14922,7 @@
         <v>74</v>
       </c>
       <c r="K307" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -14951,7 +14957,7 @@
         <v>74</v>
       </c>
       <c r="K308" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -14986,7 +14992,7 @@
         <v>74</v>
       </c>
       <c r="K309" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -15018,10 +15024,10 @@
         <v>45</v>
       </c>
       <c r="J310" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K310" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -15056,7 +15062,7 @@
         <v>74</v>
       </c>
       <c r="K311" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -15091,7 +15097,7 @@
         <v>75</v>
       </c>
       <c r="K312" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -15126,7 +15132,602 @@
         <v>74</v>
       </c>
       <c r="K313" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11">
+      <c r="A314" t="s">
+        <v>77</v>
+      </c>
+      <c r="B314" t="s">
+        <v>83</v>
+      </c>
+      <c r="C314">
+        <v>2025</v>
+      </c>
+      <c r="D314">
+        <v>24</v>
+      </c>
+      <c r="E314" t="s">
+        <v>102</v>
+      </c>
+      <c r="F314" t="s">
         <v>105</v>
+      </c>
+      <c r="G314">
+        <v>338021</v>
+      </c>
+      <c r="H314" t="s">
+        <v>73</v>
+      </c>
+      <c r="I314" t="s">
+        <v>102</v>
+      </c>
+      <c r="J314" t="s">
+        <v>75</v>
+      </c>
+      <c r="K314" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11">
+      <c r="A315" t="s">
+        <v>77</v>
+      </c>
+      <c r="B315" t="s">
+        <v>83</v>
+      </c>
+      <c r="C315">
+        <v>2025</v>
+      </c>
+      <c r="D315">
+        <v>24</v>
+      </c>
+      <c r="E315" t="s">
+        <v>102</v>
+      </c>
+      <c r="F315" t="s">
+        <v>105</v>
+      </c>
+      <c r="G315">
+        <v>337991</v>
+      </c>
+      <c r="H315" t="s">
+        <v>73</v>
+      </c>
+      <c r="I315" t="s">
+        <v>102</v>
+      </c>
+      <c r="J315" t="s">
+        <v>75</v>
+      </c>
+      <c r="K315" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11">
+      <c r="A316" t="s">
+        <v>77</v>
+      </c>
+      <c r="B316" t="s">
+        <v>83</v>
+      </c>
+      <c r="C316">
+        <v>2025</v>
+      </c>
+      <c r="D316">
+        <v>24</v>
+      </c>
+      <c r="E316" t="s">
+        <v>102</v>
+      </c>
+      <c r="F316" t="s">
+        <v>105</v>
+      </c>
+      <c r="G316">
+        <v>337816</v>
+      </c>
+      <c r="H316" t="s">
+        <v>73</v>
+      </c>
+      <c r="I316" t="s">
+        <v>102</v>
+      </c>
+      <c r="J316" t="s">
+        <v>75</v>
+      </c>
+      <c r="K316" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11">
+      <c r="A317" t="s">
+        <v>77</v>
+      </c>
+      <c r="B317" t="s">
+        <v>83</v>
+      </c>
+      <c r="C317">
+        <v>2025</v>
+      </c>
+      <c r="D317">
+        <v>24</v>
+      </c>
+      <c r="E317" t="s">
+        <v>102</v>
+      </c>
+      <c r="F317" t="s">
+        <v>105</v>
+      </c>
+      <c r="G317">
+        <v>337883</v>
+      </c>
+      <c r="H317" t="s">
+        <v>73</v>
+      </c>
+      <c r="I317" t="s">
+        <v>102</v>
+      </c>
+      <c r="J317" t="s">
+        <v>75</v>
+      </c>
+      <c r="K317" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11">
+      <c r="A318" t="s">
+        <v>77</v>
+      </c>
+      <c r="B318" t="s">
+        <v>83</v>
+      </c>
+      <c r="C318">
+        <v>2025</v>
+      </c>
+      <c r="D318">
+        <v>24</v>
+      </c>
+      <c r="E318" t="s">
+        <v>102</v>
+      </c>
+      <c r="F318" t="s">
+        <v>105</v>
+      </c>
+      <c r="G318">
+        <v>338125</v>
+      </c>
+      <c r="H318" t="s">
+        <v>73</v>
+      </c>
+      <c r="I318" t="s">
+        <v>102</v>
+      </c>
+      <c r="J318" t="s">
+        <v>75</v>
+      </c>
+      <c r="K318" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11">
+      <c r="A319" t="s">
+        <v>77</v>
+      </c>
+      <c r="B319" t="s">
+        <v>83</v>
+      </c>
+      <c r="C319">
+        <v>2025</v>
+      </c>
+      <c r="D319">
+        <v>24</v>
+      </c>
+      <c r="E319" t="s">
+        <v>102</v>
+      </c>
+      <c r="F319" t="s">
+        <v>105</v>
+      </c>
+      <c r="G319">
+        <v>337838</v>
+      </c>
+      <c r="H319" t="s">
+        <v>73</v>
+      </c>
+      <c r="I319" t="s">
+        <v>102</v>
+      </c>
+      <c r="J319" t="s">
+        <v>75</v>
+      </c>
+      <c r="K319" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11">
+      <c r="A320" t="s">
+        <v>77</v>
+      </c>
+      <c r="B320" t="s">
+        <v>78</v>
+      </c>
+      <c r="C320">
+        <v>2025</v>
+      </c>
+      <c r="D320">
+        <v>24</v>
+      </c>
+      <c r="E320" t="s">
+        <v>102</v>
+      </c>
+      <c r="F320" t="s">
+        <v>105</v>
+      </c>
+      <c r="G320">
+        <v>337814</v>
+      </c>
+      <c r="H320" t="s">
+        <v>73</v>
+      </c>
+      <c r="I320" t="s">
+        <v>102</v>
+      </c>
+      <c r="J320" t="s">
+        <v>75</v>
+      </c>
+      <c r="K320" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11">
+      <c r="A321" t="s">
+        <v>77</v>
+      </c>
+      <c r="B321" t="s">
+        <v>87</v>
+      </c>
+      <c r="C321">
+        <v>2025</v>
+      </c>
+      <c r="D321">
+        <v>24</v>
+      </c>
+      <c r="E321" t="s">
+        <v>102</v>
+      </c>
+      <c r="F321" t="s">
+        <v>105</v>
+      </c>
+      <c r="G321">
+        <v>366994</v>
+      </c>
+      <c r="H321" t="s">
+        <v>73</v>
+      </c>
+      <c r="I321" t="s">
+        <v>102</v>
+      </c>
+      <c r="J321" t="s">
+        <v>75</v>
+      </c>
+      <c r="K321" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11">
+      <c r="A322" t="s">
+        <v>77</v>
+      </c>
+      <c r="B322" t="s">
+        <v>87</v>
+      </c>
+      <c r="C322">
+        <v>2025</v>
+      </c>
+      <c r="D322">
+        <v>24</v>
+      </c>
+      <c r="E322" t="s">
+        <v>102</v>
+      </c>
+      <c r="F322" t="s">
+        <v>105</v>
+      </c>
+      <c r="G322">
+        <v>338087</v>
+      </c>
+      <c r="H322" t="s">
+        <v>73</v>
+      </c>
+      <c r="I322" t="s">
+        <v>102</v>
+      </c>
+      <c r="J322" t="s">
+        <v>75</v>
+      </c>
+      <c r="K322" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11">
+      <c r="A323" t="s">
+        <v>77</v>
+      </c>
+      <c r="B323" t="s">
+        <v>87</v>
+      </c>
+      <c r="C323">
+        <v>2025</v>
+      </c>
+      <c r="D323">
+        <v>24</v>
+      </c>
+      <c r="E323" t="s">
+        <v>102</v>
+      </c>
+      <c r="F323" t="s">
+        <v>105</v>
+      </c>
+      <c r="G323">
+        <v>337923</v>
+      </c>
+      <c r="H323" t="s">
+        <v>73</v>
+      </c>
+      <c r="I323" t="s">
+        <v>102</v>
+      </c>
+      <c r="J323" t="s">
+        <v>75</v>
+      </c>
+      <c r="K323" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11">
+      <c r="A324" t="s">
+        <v>77</v>
+      </c>
+      <c r="B324" t="s">
+        <v>79</v>
+      </c>
+      <c r="C324">
+        <v>2025</v>
+      </c>
+      <c r="D324">
+        <v>24</v>
+      </c>
+      <c r="E324" t="s">
+        <v>102</v>
+      </c>
+      <c r="F324" t="s">
+        <v>105</v>
+      </c>
+      <c r="G324">
+        <v>337938</v>
+      </c>
+      <c r="H324" t="s">
+        <v>73</v>
+      </c>
+      <c r="I324" t="s">
+        <v>102</v>
+      </c>
+      <c r="J324" t="s">
+        <v>75</v>
+      </c>
+      <c r="K324" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11">
+      <c r="A325" t="s">
+        <v>77</v>
+      </c>
+      <c r="B325" t="s">
+        <v>86</v>
+      </c>
+      <c r="C325">
+        <v>2025</v>
+      </c>
+      <c r="D325">
+        <v>24</v>
+      </c>
+      <c r="E325" t="s">
+        <v>102</v>
+      </c>
+      <c r="F325" t="s">
+        <v>105</v>
+      </c>
+      <c r="G325">
+        <v>337799</v>
+      </c>
+      <c r="H325" t="s">
+        <v>73</v>
+      </c>
+      <c r="I325" t="s">
+        <v>102</v>
+      </c>
+      <c r="J325" t="s">
+        <v>75</v>
+      </c>
+      <c r="K325" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11">
+      <c r="A326" t="s">
+        <v>77</v>
+      </c>
+      <c r="B326" t="s">
+        <v>81</v>
+      </c>
+      <c r="C326">
+        <v>2025</v>
+      </c>
+      <c r="D326">
+        <v>24</v>
+      </c>
+      <c r="E326" t="s">
+        <v>102</v>
+      </c>
+      <c r="F326" t="s">
+        <v>105</v>
+      </c>
+      <c r="G326">
+        <v>338024</v>
+      </c>
+      <c r="H326" t="s">
+        <v>73</v>
+      </c>
+      <c r="I326" t="s">
+        <v>102</v>
+      </c>
+      <c r="J326" t="s">
+        <v>75</v>
+      </c>
+      <c r="K326" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11">
+      <c r="A327" t="s">
+        <v>77</v>
+      </c>
+      <c r="B327" t="s">
+        <v>95</v>
+      </c>
+      <c r="C327">
+        <v>2025</v>
+      </c>
+      <c r="D327">
+        <v>24</v>
+      </c>
+      <c r="E327" t="s">
+        <v>102</v>
+      </c>
+      <c r="F327" t="s">
+        <v>105</v>
+      </c>
+      <c r="G327">
+        <v>338018</v>
+      </c>
+      <c r="H327" t="s">
+        <v>73</v>
+      </c>
+      <c r="I327" t="s">
+        <v>102</v>
+      </c>
+      <c r="J327" t="s">
+        <v>75</v>
+      </c>
+      <c r="K327" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11">
+      <c r="A328" t="s">
+        <v>77</v>
+      </c>
+      <c r="B328" t="s">
+        <v>95</v>
+      </c>
+      <c r="C328">
+        <v>2025</v>
+      </c>
+      <c r="D328">
+        <v>24</v>
+      </c>
+      <c r="E328" t="s">
+        <v>102</v>
+      </c>
+      <c r="F328" t="s">
+        <v>105</v>
+      </c>
+      <c r="G328">
+        <v>338060</v>
+      </c>
+      <c r="H328" t="s">
+        <v>73</v>
+      </c>
+      <c r="I328" t="s">
+        <v>102</v>
+      </c>
+      <c r="J328" t="s">
+        <v>75</v>
+      </c>
+      <c r="K328" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11">
+      <c r="A329" t="s">
+        <v>77</v>
+      </c>
+      <c r="B329" t="s">
+        <v>95</v>
+      </c>
+      <c r="C329">
+        <v>2025</v>
+      </c>
+      <c r="D329">
+        <v>24</v>
+      </c>
+      <c r="E329" t="s">
+        <v>102</v>
+      </c>
+      <c r="F329" t="s">
+        <v>105</v>
+      </c>
+      <c r="G329">
+        <v>337738</v>
+      </c>
+      <c r="H329" t="s">
+        <v>73</v>
+      </c>
+      <c r="I329" t="s">
+        <v>102</v>
+      </c>
+      <c r="J329" t="s">
+        <v>75</v>
+      </c>
+      <c r="K329" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11">
+      <c r="A330" t="s">
+        <v>77</v>
+      </c>
+      <c r="B330" t="s">
+        <v>95</v>
+      </c>
+      <c r="C330">
+        <v>2025</v>
+      </c>
+      <c r="D330">
+        <v>24</v>
+      </c>
+      <c r="E330" t="s">
+        <v>102</v>
+      </c>
+      <c r="F330" t="s">
+        <v>105</v>
+      </c>
+      <c r="G330">
+        <v>337872</v>
+      </c>
+      <c r="H330" t="s">
+        <v>73</v>
+      </c>
+      <c r="I330" t="s">
+        <v>102</v>
+      </c>
+      <c r="J330" t="s">
+        <v>75</v>
+      </c>
+      <c r="K330" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -299,13 +299,13 @@
     <t>Emily Fabiano</t>
   </si>
   <si>
-    <t>Erick Silva</t>
-  </si>
-  <si>
     <t>Jacyr Popenda</t>
   </si>
   <si>
     <t>Sostenes Simoes</t>
+  </si>
+  <si>
+    <t>Erick Silva</t>
   </si>
   <si>
     <t>Lourizal Moizés</t>
@@ -4345,7 +4345,7 @@
         <v>46</v>
       </c>
       <c r="J104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K104" t="s">
         <v>20</v>
@@ -4415,7 +4415,7 @@
         <v>47</v>
       </c>
       <c r="J106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K106" t="s">
         <v>20</v>
@@ -4450,7 +4450,7 @@
         <v>47</v>
       </c>
       <c r="J107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K107" t="s">
         <v>20</v>
@@ -4520,7 +4520,7 @@
         <v>47</v>
       </c>
       <c r="J109" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K109" t="s">
         <v>20</v>
@@ -8569,7 +8569,7 @@
         <v>81</v>
       </c>
       <c r="B116" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C116">
         <v>2025</v>
@@ -8604,7 +8604,7 @@
         <v>81</v>
       </c>
       <c r="B117" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C117">
         <v>2025</v>
@@ -8639,7 +8639,7 @@
         <v>81</v>
       </c>
       <c r="B118" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C118">
         <v>2025</v>
@@ -8884,7 +8884,7 @@
         <v>81</v>
       </c>
       <c r="B125" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C125">
         <v>2025</v>
@@ -8919,7 +8919,7 @@
         <v>81</v>
       </c>
       <c r="B126" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C126">
         <v>2025</v>
@@ -8954,7 +8954,7 @@
         <v>81</v>
       </c>
       <c r="B127" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C127">
         <v>2025</v>
@@ -8989,7 +8989,7 @@
         <v>81</v>
       </c>
       <c r="B128" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C128">
         <v>2025</v>
@@ -9024,7 +9024,7 @@
         <v>81</v>
       </c>
       <c r="B129" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C129">
         <v>2025</v>
@@ -9059,7 +9059,7 @@
         <v>81</v>
       </c>
       <c r="B130" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C130">
         <v>2025</v>
@@ -9094,7 +9094,7 @@
         <v>81</v>
       </c>
       <c r="B131" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C131">
         <v>2025</v>
@@ -9129,7 +9129,7 @@
         <v>81</v>
       </c>
       <c r="B132" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C132">
         <v>2025</v>
@@ -9164,7 +9164,7 @@
         <v>81</v>
       </c>
       <c r="B133" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C133">
         <v>2025</v>
@@ -9199,7 +9199,7 @@
         <v>81</v>
       </c>
       <c r="B134" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C134">
         <v>2025</v>
@@ -9234,7 +9234,7 @@
         <v>81</v>
       </c>
       <c r="B135" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C135">
         <v>2025</v>
@@ -9269,7 +9269,7 @@
         <v>81</v>
       </c>
       <c r="B136" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C136">
         <v>2025</v>
@@ -9304,7 +9304,7 @@
         <v>81</v>
       </c>
       <c r="B137" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C137">
         <v>2025</v>
@@ -9339,7 +9339,7 @@
         <v>81</v>
       </c>
       <c r="B138" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C138">
         <v>2025</v>
@@ -9374,7 +9374,7 @@
         <v>81</v>
       </c>
       <c r="B139" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C139">
         <v>2025</v>
@@ -9409,7 +9409,7 @@
         <v>81</v>
       </c>
       <c r="B140" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C140">
         <v>2025</v>
@@ -9444,7 +9444,7 @@
         <v>81</v>
       </c>
       <c r="B141" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C141">
         <v>2025</v>
@@ -9479,7 +9479,7 @@
         <v>81</v>
       </c>
       <c r="B142" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C142">
         <v>2025</v>
@@ -9514,7 +9514,7 @@
         <v>81</v>
       </c>
       <c r="B143" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C143">
         <v>2025</v>
@@ -9549,7 +9549,7 @@
         <v>81</v>
       </c>
       <c r="B144" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C144">
         <v>2025</v>
@@ -9584,7 +9584,7 @@
         <v>81</v>
       </c>
       <c r="B145" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C145">
         <v>2025</v>
@@ -9654,7 +9654,7 @@
         <v>81</v>
       </c>
       <c r="B147" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C147">
         <v>2025</v>
@@ -9864,7 +9864,7 @@
         <v>81</v>
       </c>
       <c r="B153" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C153">
         <v>2025</v>
@@ -10039,7 +10039,7 @@
         <v>81</v>
       </c>
       <c r="B158" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C158">
         <v>2025</v>
@@ -10074,7 +10074,7 @@
         <v>81</v>
       </c>
       <c r="B159" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C159">
         <v>2025</v>
@@ -10109,7 +10109,7 @@
         <v>81</v>
       </c>
       <c r="B160" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C160">
         <v>2025</v>
@@ -10144,7 +10144,7 @@
         <v>81</v>
       </c>
       <c r="B161" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C161">
         <v>2025</v>
@@ -10179,7 +10179,7 @@
         <v>81</v>
       </c>
       <c r="B162" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C162">
         <v>2025</v>
@@ -10214,7 +10214,7 @@
         <v>81</v>
       </c>
       <c r="B163" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C163">
         <v>2025</v>
@@ -10249,7 +10249,7 @@
         <v>81</v>
       </c>
       <c r="B164" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C164">
         <v>2025</v>
@@ -10284,7 +10284,7 @@
         <v>81</v>
       </c>
       <c r="B165" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C165">
         <v>2025</v>
@@ -10319,7 +10319,7 @@
         <v>81</v>
       </c>
       <c r="B166" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C166">
         <v>2025</v>
@@ -10354,7 +10354,7 @@
         <v>81</v>
       </c>
       <c r="B167" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C167">
         <v>2025</v>
@@ -10389,7 +10389,7 @@
         <v>81</v>
       </c>
       <c r="B168" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C168">
         <v>2025</v>
@@ -10669,7 +10669,7 @@
         <v>81</v>
       </c>
       <c r="B176" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C176">
         <v>2025</v>
@@ -10809,7 +10809,7 @@
         <v>81</v>
       </c>
       <c r="B180" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C180">
         <v>2025</v>
@@ -10844,7 +10844,7 @@
         <v>81</v>
       </c>
       <c r="B181" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C181">
         <v>2025</v>
@@ -10879,7 +10879,7 @@
         <v>81</v>
       </c>
       <c r="B182" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C182">
         <v>2025</v>
@@ -10914,7 +10914,7 @@
         <v>81</v>
       </c>
       <c r="B183" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C183">
         <v>2025</v>
@@ -10949,7 +10949,7 @@
         <v>81</v>
       </c>
       <c r="B184" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C184">
         <v>2025</v>
@@ -10984,7 +10984,7 @@
         <v>81</v>
       </c>
       <c r="B185" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C185">
         <v>2025</v>
@@ -11019,7 +11019,7 @@
         <v>81</v>
       </c>
       <c r="B186" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C186">
         <v>2025</v>
@@ -11054,7 +11054,7 @@
         <v>81</v>
       </c>
       <c r="B187" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C187">
         <v>2025</v>
@@ -11089,7 +11089,7 @@
         <v>81</v>
       </c>
       <c r="B188" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C188">
         <v>2025</v>
@@ -11124,7 +11124,7 @@
         <v>81</v>
       </c>
       <c r="B189" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C189">
         <v>2025</v>
@@ -12699,7 +12699,7 @@
         <v>81</v>
       </c>
       <c r="B234" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C234">
         <v>2025</v>
@@ -12734,7 +12734,7 @@
         <v>81</v>
       </c>
       <c r="B235" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C235">
         <v>2025</v>
@@ -13084,7 +13084,7 @@
         <v>81</v>
       </c>
       <c r="B245" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C245">
         <v>2025</v>
@@ -14764,7 +14764,7 @@
         <v>81</v>
       </c>
       <c r="B293" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C293">
         <v>2025</v>
@@ -15453,7 +15453,7 @@
         <v>45</v>
       </c>
       <c r="J312" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K312" t="s">
         <v>110</v>
@@ -15628,7 +15628,7 @@
         <v>46</v>
       </c>
       <c r="J317" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K317" t="s">
         <v>110</v>
@@ -15908,7 +15908,7 @@
         <v>46</v>
       </c>
       <c r="J325" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K325" t="s">
         <v>110</v>
@@ -15978,7 +15978,7 @@
         <v>46</v>
       </c>
       <c r="J327" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K327" t="s">
         <v>110</v>
@@ -16118,7 +16118,7 @@
         <v>47</v>
       </c>
       <c r="J331" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K331" t="s">
         <v>110</v>
@@ -16153,7 +16153,7 @@
         <v>47</v>
       </c>
       <c r="J332" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K332" t="s">
         <v>110</v>
@@ -16258,7 +16258,7 @@
         <v>47</v>
       </c>
       <c r="J335" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K335" t="s">
         <v>110</v>
@@ -16293,7 +16293,7 @@
         <v>47</v>
       </c>
       <c r="J336" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K336" t="s">
         <v>110</v>
@@ -16328,7 +16328,7 @@
         <v>47</v>
       </c>
       <c r="J337" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K337" t="s">
         <v>110</v>
@@ -16363,7 +16363,7 @@
         <v>47</v>
       </c>
       <c r="J338" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K338" t="s">
         <v>110</v>
@@ -16398,7 +16398,7 @@
         <v>47</v>
       </c>
       <c r="J339" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K339" t="s">
         <v>110</v>
@@ -16433,7 +16433,7 @@
         <v>47</v>
       </c>
       <c r="J340" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K340" t="s">
         <v>110</v>
@@ -16573,7 +16573,7 @@
         <v>47</v>
       </c>
       <c r="J344" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K344" t="s">
         <v>110</v>
@@ -16608,7 +16608,7 @@
         <v>47</v>
       </c>
       <c r="J345" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K345" t="s">
         <v>110</v>
@@ -16643,7 +16643,7 @@
         <v>47</v>
       </c>
       <c r="J346" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K346" t="s">
         <v>110</v>
@@ -16678,7 +16678,7 @@
         <v>47</v>
       </c>
       <c r="J347" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K347" t="s">
         <v>110</v>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -4617,7 +4617,7 @@
         <v>50</v>
       </c>
       <c r="J111" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K111" t="s">
         <v>20</v>
@@ -4932,7 +4932,7 @@
         <v>51</v>
       </c>
       <c r="J120" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K120" t="s">
         <v>20</v>
@@ -5002,7 +5002,7 @@
         <v>52</v>
       </c>
       <c r="J122" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K122" t="s">
         <v>20</v>
@@ -5037,7 +5037,7 @@
         <v>52</v>
       </c>
       <c r="J123" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K123" t="s">
         <v>20</v>
@@ -5072,7 +5072,7 @@
         <v>52</v>
       </c>
       <c r="J124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K124" t="s">
         <v>20</v>
@@ -5107,7 +5107,7 @@
         <v>52</v>
       </c>
       <c r="J125" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K125" t="s">
         <v>20</v>
@@ -5142,7 +5142,7 @@
         <v>52</v>
       </c>
       <c r="J126" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K126" t="s">
         <v>20</v>
@@ -5212,7 +5212,7 @@
         <v>52</v>
       </c>
       <c r="J128" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K128" t="s">
         <v>20</v>
@@ -5247,7 +5247,7 @@
         <v>52</v>
       </c>
       <c r="J129" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K129" t="s">
         <v>20</v>
@@ -17615,7 +17615,7 @@
         <v>50</v>
       </c>
       <c r="J351" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K351" t="s">
         <v>119</v>
@@ -17790,7 +17790,7 @@
         <v>51</v>
       </c>
       <c r="J356" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K356" t="s">
         <v>119</v>
@@ -17965,7 +17965,7 @@
         <v>51</v>
       </c>
       <c r="J361" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K361" t="s">
         <v>119</v>
@@ -18000,7 +18000,7 @@
         <v>51</v>
       </c>
       <c r="J362" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K362" t="s">
         <v>119</v>
@@ -18070,7 +18070,7 @@
         <v>52</v>
       </c>
       <c r="J364" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K364" t="s">
         <v>119</v>
@@ -18140,7 +18140,7 @@
         <v>52</v>
       </c>
       <c r="J366" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K366" t="s">
         <v>119</v>
@@ -18175,7 +18175,7 @@
         <v>52</v>
       </c>
       <c r="J367" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K367" t="s">
         <v>119</v>
@@ -18245,7 +18245,7 @@
         <v>52</v>
       </c>
       <c r="J369" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K369" t="s">
         <v>119</v>
@@ -18280,7 +18280,7 @@
         <v>52</v>
       </c>
       <c r="J370" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K370" t="s">
         <v>119</v>
@@ -18315,7 +18315,7 @@
         <v>52</v>
       </c>
       <c r="J371" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K371" t="s">
         <v>119</v>
@@ -18420,7 +18420,7 @@
         <v>52</v>
       </c>
       <c r="J374" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K374" t="s">
         <v>119</v>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:K147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7163,7 +7163,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -7320,6 +7320,618 @@
         </is>
       </c>
       <c r="K135" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Arthur Hassuma</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D136" t="n">
+        <v>30</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>342040</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Arthur Hassuma</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D137" t="n">
+        <v>30</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>342046</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Arthur Hassuma</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D138" t="n">
+        <v>30</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>341979</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Higor Pratz</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D139" t="n">
+        <v>30</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>341914</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Higor Pratz</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D140" t="n">
+        <v>30</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>341916</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Higor Pratz</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D141" t="n">
+        <v>30</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>342141</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Higor Pratz</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D142" t="n">
+        <v>30</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>341872</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Higor Pratz</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D143" t="n">
+        <v>30</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>341887</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Higor Pratz</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D144" t="n">
+        <v>30</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>341582</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Higor Pratz</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D145" t="n">
+        <v>30</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>341995</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Luan Pierry</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D146" t="n">
+        <v>30</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>341531</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Marcos da Silva</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D147" t="n">
+        <v>30</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>341827</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>Willian Rios</t>
         </is>
@@ -7336,7 +7948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K380"/>
+  <dimension ref="A1:K408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25191,7 +25803,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -25548,7 +26160,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -26725,6 +27337,1434 @@
         </is>
       </c>
       <c r="K380" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Alana Neris</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D381" t="n">
+        <v>30</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G381" t="n">
+        <v>341994</v>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Eduardo Batisti</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D382" t="n">
+        <v>30</v>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G382" t="n">
+        <v>342166</v>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Felipe Nascimento</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D383" t="n">
+        <v>30</v>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G383" t="n">
+        <v>341407</v>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Gabriel López</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D384" t="n">
+        <v>30</v>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G384" t="n">
+        <v>341853</v>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Gabriel López</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D385" t="n">
+        <v>30</v>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G385" t="n">
+        <v>342013</v>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Gabriel López</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D386" t="n">
+        <v>30</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G386" t="n">
+        <v>341699</v>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Gabriel López</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D387" t="n">
+        <v>30</v>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G387" t="n">
+        <v>342004</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D388" t="n">
+        <v>30</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G388" t="n">
+        <v>341998</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D389" t="n">
+        <v>30</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G389" t="n">
+        <v>341695</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D390" t="n">
+        <v>30</v>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G390" t="n">
+        <v>341622</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D391" t="n">
+        <v>30</v>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G391" t="n">
+        <v>342024</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D392" t="n">
+        <v>30</v>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G392" t="n">
+        <v>341470</v>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D393" t="n">
+        <v>30</v>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G393" t="n">
+        <v>342294</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D394" t="n">
+        <v>30</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G394" t="n">
+        <v>342177</v>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D395" t="n">
+        <v>30</v>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G395" t="n">
+        <v>341555</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D396" t="n">
+        <v>30</v>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G396" t="n">
+        <v>342008</v>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D397" t="n">
+        <v>30</v>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G397" t="n">
+        <v>342170</v>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Maria Eduarda</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D398" t="n">
+        <v>30</v>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G398" t="n">
+        <v>342059</v>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Maria Eduarda</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D399" t="n">
+        <v>30</v>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G399" t="n">
+        <v>341711</v>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Maria Eduarda</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D400" t="n">
+        <v>30</v>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G400" t="n">
+        <v>341731</v>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Maria Eduarda</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D401" t="n">
+        <v>30</v>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G401" t="n">
+        <v>342186</v>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Maria Eduarda</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D402" t="n">
+        <v>30</v>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G402" t="n">
+        <v>342135</v>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Michel Pessoa</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D403" t="n">
+        <v>30</v>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G403" t="n">
+        <v>342233</v>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Michel Pessoa</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D404" t="n">
+        <v>30</v>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G404" t="n">
+        <v>341866</v>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Sostenes Simões</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D405" t="n">
+        <v>30</v>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G405" t="n">
+        <v>342151</v>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Sostenes Simões</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D406" t="n">
+        <v>30</v>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G406" t="n">
+        <v>341641</v>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Sostenes Simões</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D407" t="n">
+        <v>30</v>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G407" t="n">
+        <v>341688</v>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Sostenes Simões</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D408" t="n">
+        <v>30</v>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>01/08/2025</t>
+        </is>
+      </c>
+      <c r="G408" t="n">
+        <v>342006</v>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>28/07/2025</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
         <is>
           <t>Emerson Simette</t>
         </is>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -7520,7 +7520,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -7571,7 +7571,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -7622,7 +7622,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Marcos da Silva</t>
+          <t>Luan Pierry</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -7928,7 +7928,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -26925,7 +26925,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -27078,7 +27078,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -27435,7 +27435,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -27486,7 +27486,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -27537,7 +27537,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -27639,7 +27639,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27690,7 +27690,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27741,7 +27741,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -27843,7 +27843,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -27894,7 +27894,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -27996,7 +27996,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -28047,7 +28047,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -28098,7 +28098,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -28200,7 +28200,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -28302,7 +28302,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -28506,7 +28506,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -28557,7 +28557,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -28676,7 +28676,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Sostenes Simões</t>
+          <t>Jorgenaldo Reis</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -28710,7 +28710,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K147"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7932,6 +7932,312 @@
         </is>
       </c>
       <c r="K147" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Arthur Hassuma</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D148" t="n">
+        <v>32</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>342579</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Arthur Hassuma</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D149" t="n">
+        <v>32</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>343271</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Fabio da Silva</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D150" t="n">
+        <v>32</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>342380</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Higor Jesus</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D151" t="n">
+        <v>32</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>342846</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Higor Jesus</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D152" t="n">
+        <v>32</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>343420</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Luana Giese</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D153" t="n">
+        <v>32</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>340361</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>Willian Rios</t>
         </is>
@@ -7948,7 +8254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K417"/>
+  <dimension ref="A1:K432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28608,7 +28914,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -28659,7 +28965,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -28914,7 +29220,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -29169,7 +29475,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -29224,6 +29530,771 @@
         </is>
       </c>
       <c r="K417" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Alana Neris</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D418" t="n">
+        <v>32</v>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G418" t="n">
+        <v>342710</v>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Eduardo Batisti</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D419" t="n">
+        <v>32</v>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G419" t="n">
+        <v>342739</v>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D420" t="n">
+        <v>32</v>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G420" t="n">
+        <v>343418</v>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Gabriel López</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D421" t="n">
+        <v>32</v>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G421" t="n">
+        <v>343106</v>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D422" t="n">
+        <v>32</v>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G422" t="n">
+        <v>343266</v>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D423" t="n">
+        <v>32</v>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G423" t="n">
+        <v>342874</v>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D424" t="n">
+        <v>32</v>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G424" t="n">
+        <v>343315</v>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D425" t="n">
+        <v>32</v>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G425" t="n">
+        <v>343304</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D426" t="n">
+        <v>32</v>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G426" t="n">
+        <v>343006</v>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D427" t="n">
+        <v>32</v>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G427" t="n">
+        <v>343239</v>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Maria Eduarda</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D428" t="n">
+        <v>32</v>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G428" t="n">
+        <v>343312</v>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Maria Eduarda</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D429" t="n">
+        <v>32</v>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G429" t="n">
+        <v>343313</v>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Maria Eduarda</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D430" t="n">
+        <v>32</v>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G430" t="n">
+        <v>342831</v>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Maria Eduarda</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D431" t="n">
+        <v>32</v>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G431" t="n">
+        <v>342958</v>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Maria Eduarda</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D432" t="n">
+        <v>32</v>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="G432" t="n">
+        <v>342914</v>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
         <is>
           <t>Emerson Simette</t>
         </is>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -7486,7 +7486,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -7588,7 +7588,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -7639,7 +7639,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -7690,7 +7690,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -7792,7 +7792,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Higor Pratz</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -8098,7 +8098,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Higor Jesus</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -8149,7 +8149,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Higor Jesus</t>
+          <t>Higor Cruz</t>
         </is>
       </c>
       <c r="C152" t="n">

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8030,7 +8030,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -8234,10 +8234,214 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D154" t="n">
+        <v>33</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>343563</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
           <t>Pendente</t>
         </is>
       </c>
-      <c r="K153" t="inlineStr">
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D155" t="n">
+        <v>33</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>343881</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Luan Pierry</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D156" t="n">
+        <v>33</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>343975</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D157" t="n">
+        <v>33</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>343106</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
         <is>
           <t>Willian Rios</t>
         </is>
@@ -8254,7 +8458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K432"/>
+  <dimension ref="A1:K442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26568,7 +26772,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -28251,7 +28455,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -29169,7 +29373,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -29322,7 +29526,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -29577,7 +29781,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -29628,7 +29832,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
@@ -29679,7 +29883,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -29730,7 +29934,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -29781,7 +29985,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -29934,7 +30138,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -29985,7 +30189,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -30036,7 +30240,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -30087,7 +30291,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -30138,7 +30342,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -30295,6 +30499,516 @@
         </is>
       </c>
       <c r="K432" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D433" t="n">
+        <v>33</v>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="G433" t="n">
+        <v>343419</v>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D434" t="n">
+        <v>33</v>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="G434" t="n">
+        <v>343497</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Gabriel López</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D435" t="n">
+        <v>33</v>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="G435" t="n">
+        <v>343928</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D436" t="n">
+        <v>33</v>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="G436" t="n">
+        <v>344118</v>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D437" t="n">
+        <v>33</v>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="G437" t="n">
+        <v>343917</v>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D438" t="n">
+        <v>33</v>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="G438" t="n">
+        <v>343649</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D439" t="n">
+        <v>33</v>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="G439" t="n">
+        <v>343933</v>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Sostenes Simões</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D440" t="n">
+        <v>33</v>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="G440" t="n">
+        <v>343986</v>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Sostenes Simões</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D441" t="n">
+        <v>33</v>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="G441" t="n">
+        <v>344125</v>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Sostenes Simões</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D442" t="n">
+        <v>33</v>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>22/08/2025</t>
+        </is>
+      </c>
+      <c r="G442" t="n">
+        <v>344168</v>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K442" t="inlineStr">
         <is>
           <t>Emerson Simette</t>
         </is>

--- a/Base/consolidado.xlsx
+++ b/Base/consolidado.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K157"/>
+  <dimension ref="A1:K169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -8285,7 +8285,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -8387,7 +8387,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -8438,10 +8438,610 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Arthur Hassuma</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D158" t="n">
+        <v>34</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
           <t>Pendente</t>
         </is>
       </c>
-      <c r="K157" t="inlineStr">
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D159" t="n">
+        <v>34</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D160" t="n">
+        <v>34</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D161" t="n">
+        <v>34</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Higor Cruz</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D162" t="n">
+        <v>34</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Luan Pierry</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D163" t="n">
+        <v>34</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Luan Pierry</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D164" t="n">
+        <v>34</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D165" t="n">
+        <v>34</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D166" t="n">
+        <v>34</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D167" t="n">
+        <v>34</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>SR-501</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D168" t="n">
+        <v>34</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>INC-492</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>Willian Rios</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>SPN</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Mara Neves</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D169" t="n">
+        <v>34</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>INC-478</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>Willian Rios</t>
         </is>
@@ -8458,7 +9058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K442"/>
+  <dimension ref="A1:K477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26721,7 +27321,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -26976,7 +27576,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -27486,7 +28086,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -27894,7 +28494,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -28863,7 +29463,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -28965,7 +29565,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -29271,7 +29871,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -29730,7 +30330,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -30036,7 +30636,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -30087,7 +30687,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -30393,7 +30993,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -30444,7 +31044,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -30495,7 +31095,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -30546,7 +31146,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -30597,7 +31197,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -30648,7 +31248,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -30699,7 +31299,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -30750,7 +31350,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -30801,7 +31401,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K438" t="inlineStr">
@@ -30852,7 +31452,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -30903,7 +31503,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -30954,7 +31554,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Pendente</t>
+          <t>Resolvido</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -31005,10 +31605,1777 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
+          <t>Resolvido</t>
+        </is>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Alana Neris</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D443" t="n">
+        <v>34</v>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>INC-238</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
           <t>Pendente</t>
         </is>
       </c>
-      <c r="K442" t="inlineStr">
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D444" t="n">
+        <v>34</v>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Erick da Silva</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D445" t="n">
+        <v>34</v>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr"/>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Sostenes Simões</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D446" t="n">
+        <v>34</v>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr"/>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D447" t="n">
+        <v>34</v>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr"/>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D448" t="n">
+        <v>34</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr"/>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D449" t="n">
+        <v>34</v>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr"/>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D450" t="n">
+        <v>34</v>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr"/>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D451" t="n">
+        <v>34</v>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D452" t="n">
+        <v>34</v>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr"/>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D453" t="n">
+        <v>34</v>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr"/>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D454" t="n">
+        <v>34</v>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr"/>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Sostenes Simões</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D455" t="n">
+        <v>34</v>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr"/>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D456" t="n">
+        <v>34</v>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>INC-484</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Guilherme Worel</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D457" t="n">
+        <v>34</v>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>INC-469</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D458" t="n">
+        <v>34</v>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr"/>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D459" t="n">
+        <v>34</v>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr"/>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D460" t="n">
+        <v>34</v>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr"/>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D461" t="n">
+        <v>34</v>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr"/>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D462" t="n">
+        <v>34</v>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>SR-493</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D463" t="n">
+        <v>34</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>SR-459</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D464" t="n">
+        <v>34</v>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>SR-461</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D465" t="n">
+        <v>34</v>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>INC-352</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D466" t="n">
+        <v>34</v>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>INC-602</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Jorgenaldo Reis</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D467" t="n">
+        <v>34</v>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>INC-338</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Mateus Neckel</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D468" t="n">
+        <v>34</v>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>INC-454</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Lourival Moizés</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D469" t="n">
+        <v>34</v>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr"/>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Maria Eduarda</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D470" t="n">
+        <v>34</v>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr"/>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>07/2025</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Maria Eduarda</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D471" t="n">
+        <v>34</v>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>INC-638</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Maria Eduarda</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D472" t="n">
+        <v>34</v>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>INC-607</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Maria Eduarda</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D473" t="n">
+        <v>34</v>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>INC-590</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Michel Pessoa</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D474" t="n">
+        <v>34</v>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr"/>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Michel Pessoa</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D475" t="n">
+        <v>34</v>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr"/>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Sostenes Simões</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D476" t="n">
+        <v>34</v>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr"/>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>Emerson Simette</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Sostenes Simões</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D477" t="n">
+        <v>34</v>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr"/>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>08/2025</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>25/08/2025</t>
+        </is>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="K477" t="inlineStr">
         <is>
           <t>Emerson Simette</t>
         </is>
